--- a/excels/config/server/shop/server_shop_list.xlsx
+++ b/excels/config/server/shop/server_shop_list.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="server_shop_class" sheetId="3" r:id="rId1"/>
     <sheet name="server_shop_list" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">server_shop_list!$A$1:$X$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">server_shop_list!$A$1:$V$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,12 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="178">
   <si>
     <t>分类id</t>
   </si>
   <si>
-    <t>物品名称</t>
+    <t>名称</t>
   </si>
   <si>
     <t>描述</t>
@@ -45,7 +45,11 @@
     <t>排序</t>
   </si>
   <si>
-    <t>分类类型 1道具类型 2货币类型 3是否限购</t>
+    <t>页面类型 
+1:商店
+2:导航栏+热卖
+3:抽奖
+4:充值页面</t>
   </si>
   <si>
     <t>显示</t>
@@ -63,30 +67,21 @@
     <t>display</t>
   </si>
   <si>
-    <t>全部</t>
+    <t>热卖</t>
+  </si>
+  <si>
+    <t>XX商店</t>
+  </si>
+  <si>
+    <t>许愿</t>
+  </si>
+  <si>
+    <t>充值</t>
   </si>
   <si>
     <t>活动</t>
   </si>
   <si>
-    <t>礼包</t>
-  </si>
-  <si>
-    <t>钻石</t>
-  </si>
-  <si>
-    <t>积分</t>
-  </si>
-  <si>
-    <t>箭魂</t>
-  </si>
-  <si>
-    <t>限购</t>
-  </si>
-  <si>
-    <t>无尽</t>
-  </si>
-  <si>
     <t>商品引索</t>
   </si>
   <si>
@@ -96,20 +91,7 @@
     <t>商品介绍</t>
   </si>
   <si>
-    <t>显示隐藏</t>
-  </si>
-  <si>
-    <t>稀有度 1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>属性类型</t>
-  </si>
-  <si>
-    <t>分类标签(
-1.特卖
-2.常驻道具
-3.魂石商店
-)</t>
+    <t>商品图片</t>
   </si>
   <si>
     <t>对应物品id</t>
@@ -118,15 +100,7 @@
     <t>获得数量</t>
   </si>
   <si>
-    <t>商城大类0默认,1无尽 4车头兑换</t>
-  </si>
-  <si>
     <t>附加物品赠送（物品id_数量,）</t>
-  </si>
-  <si>
-    <t>费用物品id_数量 组合费用@分割
-多种支付方式,分割
-目前只支持货币类型物品id</t>
   </si>
   <si>
     <t>购买类型(0 普通购买
@@ -137,16 +111,35 @@
     <t>支付类型(0-余额 1-人民币)</t>
   </si>
   <si>
-    <t>限购类型(1 不限购  2限时出售 )</t>
+    <t>原价费用 物品id_数量</t>
+  </si>
+  <si>
+    <t>真实费用 物品id_数量</t>
+  </si>
+  <si>
+    <t>商品稀有度</t>
+  </si>
+  <si>
+    <t>热卖标签</t>
+  </si>
+  <si>
+    <t>折扣标签
+(10为不打折)</t>
+  </si>
+  <si>
+    <t>商城类型</t>
+  </si>
+  <si>
+    <t>复购后自动转换（避免使用rmb购买出现问题）</t>
   </si>
   <si>
     <t>单次购买限制</t>
   </si>
   <si>
-    <t>限购次数</t>
-  </si>
-  <si>
-    <t>限购时间
+    <t>限购次数（和服务器配置不一样）</t>
+  </si>
+  <si>
+    <t>限购时间(和服务器配置不一样)
 D日限购
 N终身限购</t>
   </si>
@@ -160,40 +153,40 @@
     <t>goods_id</t>
   </si>
   <si>
-    <t>is_show</t>
-  </si>
-  <si>
     <t>AbilityTextureName</t>
   </si>
   <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>type_payment</t>
+  </si>
+  <si>
+    <t>original_cost</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
     <t>rarity</t>
   </si>
   <si>
-    <t>attr_type</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>number</t>
+    <t>is_hot</t>
+  </si>
+  <si>
+    <t>discount</t>
   </si>
   <si>
     <t>mall_category</t>
-  </si>
-  <si>
-    <t>merge</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>type_payment</t>
   </si>
   <si>
     <t>purchase_single</t>
@@ -623,7 +616,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,17 +640,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF08090C"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -804,7 +810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,13 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
+        <fgColor theme="1" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,21 +1084,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1" tint="0.6"/>
       </left>
       <right style="thin">
@@ -1126,17 +1111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1" tint="0.6"/>
       </left>
@@ -1146,26 +1120,6 @@
       <top/>
       <bottom style="thin">
         <color theme="1" tint="0.6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,21 +1135,6 @@
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,16 +1170,53 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,26 +1227,9 @@
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,43 +1238,80 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1" tint="0.66"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1" tint="0.66"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,137 +1433,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1598,6 +1594,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1616,83 +1615,74 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1746,7 +1736,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2215,18 +2205,288 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E8BE6338-F888-4940-A790-41C2001FA264}">
+  <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{14CD5876-29D6-4F63-93C6-283E1EC3146E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D31FCBA8-95B3-4EE9-9FC6-A8DF03D28951}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0FF256BD-F3AD-47EE-92C9-3B74FC4CACCB}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{F823E8F7-72C2-4173-A66A-BCF94FC46D67}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{38EA8E2D-4C01-43EC-99E1-AA9DA20F89AA}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2239,6 +2499,18 @@
       <tableStyleElement type="lastHeaderCell" dxfId="8"/>
       <tableStyleElement type="firstTotalCell" dxfId="7"/>
       <tableStyleElement type="lastTotalCell" dxfId="6"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{FFFAD8FB-9637-4299-A18F-5EF7D412B80E}">
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstTotalCell" dxfId="19"/>
+      <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2542,212 +2814,173 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:6">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
+    <row r="1" ht="117" customHeight="1" spans="1:6">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:6">
-      <c r="A2" s="36" t="s">
+    <row r="2" ht="33" customHeight="1" spans="1:6">
+      <c r="A2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="38">
-        <v>0</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="39" t="s">
+    <row r="3" ht="33" customHeight="1" spans="1:6">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="39">
-        <v>0</v>
-      </c>
-      <c r="E3" s="39">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="38">
-        <v>1</v>
-      </c>
-      <c r="B4" s="39" t="s">
+      <c r="D3" s="36">
+        <v>0</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0</v>
+      </c>
+      <c r="F3" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:6">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39">
-        <v>1</v>
-      </c>
-      <c r="E4" s="39">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="40">
+      <c r="D4" s="38">
+        <v>1</v>
+      </c>
+      <c r="E4" s="38">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:6">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="D5" s="38">
+        <v>2</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="1:6">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D6" s="38">
+        <v>3</v>
+      </c>
+      <c r="E6" s="38">
         <v>2</v>
       </c>
-      <c r="E5" s="41">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="38">
-        <v>3</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="F6" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:6">
+      <c r="A7" s="35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="39">
-        <v>3</v>
-      </c>
-      <c r="E6" s="39">
+      <c r="D7" s="38">
+        <v>4</v>
+      </c>
+      <c r="E7" s="38">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="40">
-        <v>4</v>
-      </c>
-      <c r="B7" s="41" t="s">
+      <c r="F7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:6">
+      <c r="A8" s="35">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="39">
-        <v>4</v>
-      </c>
-      <c r="E7" s="41">
+      <c r="D8" s="38">
+        <v>5</v>
+      </c>
+      <c r="E8" s="38">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="40">
-        <v>5</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="39">
-        <v>5</v>
-      </c>
-      <c r="E8" s="39">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="40">
-        <v>6</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="39">
-        <v>6</v>
-      </c>
-      <c r="E9" s="39">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="40">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="39">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F8" s="39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2759,14 +2992,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M94" sqref="M94"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2774,484 +3007,522 @@
     <col min="1" max="1" width="11.0083333333333" customWidth="1"/>
     <col min="2" max="2" width="20.3416666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.3416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.3416666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.0083333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.675" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.8416666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.0083333333333" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="6.675" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.0083333333333" customWidth="1"/>
-    <col min="14" max="14" width="28.8416666666667" customWidth="1"/>
-    <col min="15" max="15" width="20.8416666666667" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="21.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.0083333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="20.8416666666667" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="16.0083333333333" style="3" customWidth="1"/>
+    <col min="13" max="14" width="11.8416666666667" style="3" customWidth="1"/>
+    <col min="15" max="15" width="6.675" style="3" customWidth="1"/>
+    <col min="16" max="17" width="14.625" style="3" customWidth="1"/>
     <col min="18" max="18" width="18.0083333333333" customWidth="1"/>
     <col min="19" max="19" width="21.175" customWidth="1"/>
     <col min="20" max="20" width="12.625" customWidth="1"/>
     <col min="21" max="22" width="14.0083333333333" customWidth="1"/>
-    <col min="23" max="23" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="84.5" customHeight="1" spans="1:23">
+    <row r="1" ht="107" customHeight="1" spans="1:22">
       <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="5" t="s">
+    </row>
+    <row r="2" ht="35" customHeight="1" spans="1:22">
+      <c r="A2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="22"/>
-    </row>
-    <row r="2" ht="35" customHeight="1" spans="1:23">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="M2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20" t="s">
+      <c r="T2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="V2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="8" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="84.5" customHeight="1" spans="1:22">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="C3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="24"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="84.5" customHeight="1" spans="1:23">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14">
+      <c r="K3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="15">
         <v>5</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14">
-        <v>20000</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>10</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="U3" s="12"/>
+      <c r="V3" s="22"/>
+    </row>
+    <row r="4" ht="150.5" customHeight="1" spans="1:22">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>1</v>
-      </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" ht="150.5" customHeight="1" spans="1:22">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19">
+        <v>20001</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19">
+      <c r="K4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="19">
         <v>5</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19">
-        <v>20001</v>
-      </c>
-      <c r="J4" s="16">
-        <v>1</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <v>10</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="16">
+        <v>1</v>
+      </c>
+      <c r="S4" s="16">
+        <v>1</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="16"/>
+      <c r="V4" s="23"/>
+    </row>
+    <row r="5" ht="117.5" customHeight="1" spans="1:22">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="16">
-        <v>0</v>
-      </c>
-      <c r="P4" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>1</v>
-      </c>
-      <c r="R4" s="16">
-        <v>1</v>
-      </c>
-      <c r="S4" s="16">
-        <v>1</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="27"/>
-    </row>
-    <row r="5" ht="117.5" customHeight="1" spans="1:22">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="19">
+        <v>20003</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="19">
+        <v>5</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>10</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="16">
+        <v>1</v>
+      </c>
+      <c r="S5" s="16">
+        <v>1</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="16"/>
+      <c r="V5" s="23"/>
+    </row>
+    <row r="6" ht="101" customHeight="1" spans="1:22">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19">
+      <c r="D6" s="18"/>
+      <c r="E6" s="19">
+        <v>20004</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="19">
         <v>5</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19">
-        <v>20003</v>
-      </c>
-      <c r="J5" s="16">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>1</v>
-      </c>
-      <c r="R5" s="16">
-        <v>1</v>
-      </c>
-      <c r="S5" s="16">
-        <v>1</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="27"/>
-    </row>
-    <row r="6" ht="101" customHeight="1" spans="1:22">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>10</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="16">
+        <v>1</v>
+      </c>
+      <c r="S6" s="16">
+        <v>1</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="16"/>
+      <c r="V6" s="23"/>
+    </row>
+    <row r="7" ht="101" customHeight="1" spans="1:22">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19">
+        <v>20005</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="19">
         <v>5</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19">
-        <v>20004</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>1</v>
-      </c>
-      <c r="R6" s="16">
-        <v>1</v>
-      </c>
-      <c r="S6" s="16">
-        <v>1</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="27"/>
-    </row>
-    <row r="7" ht="101" customHeight="1" spans="1:22">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>10</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="16">
+        <v>1</v>
+      </c>
+      <c r="S7" s="16">
+        <v>1</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" s="16"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
+      <c r="C8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19">
+        <v>1201</v>
+      </c>
+      <c r="F8" s="16">
+        <v>200</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="19">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19">
-        <v>20005</v>
-      </c>
-      <c r="J7" s="16">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>1</v>
-      </c>
-      <c r="R7" s="16">
-        <v>1</v>
-      </c>
-      <c r="S7" s="16">
-        <v>1</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="27"/>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>10</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="16">
+        <v>1</v>
+      </c>
+      <c r="S8" s="16">
+        <v>1</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" s="16"/>
+      <c r="V8" s="23"/>
+    </row>
+    <row r="9" ht="51.5" customHeight="1" spans="1:22">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19">
-        <v>5</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19">
-        <v>1201</v>
-      </c>
-      <c r="J8" s="16">
-        <v>200</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>1</v>
-      </c>
-      <c r="R8" s="16">
-        <v>1</v>
-      </c>
-      <c r="S8" s="16">
-        <v>1</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="27"/>
-    </row>
-    <row r="9" ht="51.5" customHeight="1" spans="1:22">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="19">
+        <v>3501</v>
+      </c>
+      <c r="F9" s="16">
+        <v>10</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19">
+      <c r="K9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="19">
         <v>3</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19">
-        <v>3501</v>
-      </c>
-      <c r="J9" s="16">
-        <v>10</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>1</v>
-      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>10</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
       <c r="R9" s="16">
         <v>3</v>
       </c>
@@ -3259,49 +3530,55 @@
         <v>3</v>
       </c>
       <c r="T9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="23"/>
+    </row>
+    <row r="10" ht="51.5" customHeight="1" spans="1:22">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="27"/>
-    </row>
-    <row r="10" ht="51.5" customHeight="1" spans="1:22">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="19">
+        <v>3501</v>
+      </c>
+      <c r="F10" s="16">
+        <v>20</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19">
+      <c r="K10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="19">
         <v>4</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19">
-        <v>3501</v>
-      </c>
-      <c r="J10" s="16">
-        <v>20</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>1</v>
-      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>10</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="16">
         <v>3</v>
       </c>
@@ -3309,49 +3586,55 @@
         <v>3</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U10" s="16"/>
-      <c r="V10" s="27"/>
+      <c r="V10" s="23"/>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:22">
-      <c r="A11" s="15"/>
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
       <c r="B11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19">
+        <v>3501</v>
+      </c>
+      <c r="F11" s="16">
+        <v>50</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19">
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="19">
         <v>5</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19">
-        <v>3501</v>
-      </c>
-      <c r="J11" s="16">
-        <v>50</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>1</v>
-      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>10</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
       <c r="R11" s="16">
         <v>3</v>
       </c>
@@ -3359,3335 +3642,3807 @@
         <v>3</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U11" s="16"/>
-      <c r="V11" s="27"/>
+      <c r="V11" s="23"/>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A12" s="15"/>
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
       <c r="B12" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19">
+        <v>1201</v>
+      </c>
+      <c r="F12" s="16">
+        <v>10</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="19">
+        <v>3</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>10</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="16">
+        <v>1</v>
+      </c>
+      <c r="S12" s="16">
+        <v>1</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="16"/>
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19">
-        <v>3</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19">
+      <c r="D13" s="18"/>
+      <c r="E13" s="19">
         <v>1201</v>
       </c>
-      <c r="J12" s="16">
-        <v>10</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="16">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>1</v>
-      </c>
-      <c r="R12" s="16">
-        <v>1</v>
-      </c>
-      <c r="S12" s="16">
-        <v>1</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="27"/>
-    </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19">
+      <c r="K13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="19">
         <v>2</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19">
-        <v>1201</v>
-      </c>
-      <c r="J13" s="16">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>1</v>
-      </c>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>10</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="16">
         <v>99</v>
       </c>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
-      <c r="V13" s="27"/>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A14" s="15"/>
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
       <c r="B14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19">
+        <v>1287</v>
+      </c>
+      <c r="F14" s="16">
+        <v>100</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="19">
+        <v>5</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <v>10</v>
+      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="16">
+        <v>1</v>
+      </c>
+      <c r="S14" s="16">
+        <v>1</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14" s="16"/>
+      <c r="V14" s="23"/>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19">
-        <v>5</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19">
-        <v>1287</v>
-      </c>
-      <c r="J14" s="16">
-        <v>100</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="16">
-        <v>0</v>
-      </c>
-      <c r="P14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>1</v>
-      </c>
-      <c r="R14" s="16">
-        <v>1</v>
-      </c>
-      <c r="S14" s="16">
-        <v>1</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="27"/>
-    </row>
-    <row r="15" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="16">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19">
+      <c r="K15" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="19">
         <v>2</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="16">
-        <v>10000</v>
-      </c>
-      <c r="J15" s="16">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-      <c r="P15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>1</v>
-      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <v>10</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
       <c r="R15" s="16">
         <v>99</v>
       </c>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="27"/>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A16" s="15"/>
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
       <c r="B16" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19">
+      <c r="E16" s="16">
+        <v>10001</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="19">
         <v>2</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="16">
-        <v>10001</v>
-      </c>
-      <c r="J16" s="16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>1</v>
-      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
+        <v>10</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
       <c r="R16" s="16">
         <v>99</v>
       </c>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="27"/>
+      <c r="V16" s="23"/>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A17" s="15"/>
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
       <c r="B17" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19">
+      <c r="E17" s="16">
+        <v>10002</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="19">
         <v>2</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="16">
-        <v>10002</v>
-      </c>
-      <c r="J17" s="16">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="16">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>1</v>
-      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15">
+        <v>10</v>
+      </c>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
       <c r="R17" s="16">
         <v>99</v>
       </c>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="27"/>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A18" s="15"/>
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
       <c r="B18" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19">
+      <c r="E18" s="16">
+        <v>10003</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="19">
         <v>2</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="16">
-        <v>10003</v>
-      </c>
-      <c r="J18" s="16">
-        <v>1</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="16">
-        <v>0</v>
-      </c>
-      <c r="P18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="16">
-        <v>1</v>
-      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
+        <v>10</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
       <c r="R18" s="16">
         <v>99</v>
       </c>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
-      <c r="V18" s="27"/>
+      <c r="V18" s="23"/>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A19" s="15"/>
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
       <c r="B19" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19">
+      <c r="E19" s="16">
+        <v>10004</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="19">
         <v>2</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="16">
-        <v>10004</v>
-      </c>
-      <c r="J19" s="16">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="16">
-        <v>0</v>
-      </c>
-      <c r="P19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>1</v>
-      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>10</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
       <c r="R19" s="16">
         <v>99</v>
       </c>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="27"/>
+      <c r="V19" s="23"/>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A20" s="15"/>
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
       <c r="B20" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19">
+      <c r="E20" s="16">
+        <v>10005</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="19">
         <v>2</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="16">
-        <v>10005</v>
-      </c>
-      <c r="J20" s="16">
-        <v>1</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O20" s="16">
-        <v>0</v>
-      </c>
-      <c r="P20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>1</v>
-      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <v>10</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
       <c r="R20" s="16">
         <v>99</v>
       </c>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
-      <c r="V20" s="27"/>
+      <c r="V20" s="23"/>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A21" s="15"/>
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
       <c r="B21" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19">
+      <c r="E21" s="16">
+        <v>10006</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="19">
         <v>2</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="16">
-        <v>10006</v>
-      </c>
-      <c r="J21" s="16">
-        <v>1</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21" s="16">
-        <v>0</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>1</v>
-      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <v>10</v>
+      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
       <c r="R21" s="16">
         <v>99</v>
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
-      <c r="V21" s="27"/>
+      <c r="V21" s="23"/>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A22" s="15"/>
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
       <c r="B22" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19">
+      <c r="E22" s="16">
+        <v>10007</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="19">
         <v>2</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="16">
-        <v>10007</v>
-      </c>
-      <c r="J22" s="16">
-        <v>1</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O22" s="16">
-        <v>0</v>
-      </c>
-      <c r="P22" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="16">
-        <v>1</v>
-      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <v>10</v>
+      </c>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
       <c r="R22" s="16">
         <v>99</v>
       </c>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
-      <c r="V22" s="27"/>
+      <c r="V22" s="23"/>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A23" s="15"/>
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
       <c r="B23" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19">
+      <c r="E23" s="16">
+        <v>10008</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" s="19">
         <v>2</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="16">
-        <v>10008</v>
-      </c>
-      <c r="J23" s="16">
-        <v>1</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O23" s="16">
-        <v>0</v>
-      </c>
-      <c r="P23" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="16">
-        <v>1</v>
-      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>10</v>
+      </c>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="16">
         <v>99</v>
       </c>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
-      <c r="V23" s="27"/>
+      <c r="V23" s="23"/>
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A24" s="15"/>
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
       <c r="B24" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19">
+      <c r="E24" s="16">
+        <v>10009</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" s="19">
         <v>2</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="16">
-        <v>10009</v>
-      </c>
-      <c r="J24" s="16">
-        <v>1</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O24" s="16">
-        <v>0</v>
-      </c>
-      <c r="P24" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="16">
-        <v>1</v>
-      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15">
+        <v>10</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
       <c r="R24" s="16">
         <v>99</v>
       </c>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
-      <c r="V24" s="27"/>
+      <c r="V24" s="23"/>
     </row>
     <row r="25" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A25" s="15"/>
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
       <c r="B25" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19">
+      <c r="E25" s="16">
+        <v>10010</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="19">
         <v>2</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="16">
-        <v>10010</v>
-      </c>
-      <c r="J25" s="16">
-        <v>1</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O25" s="16">
-        <v>0</v>
-      </c>
-      <c r="P25" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="16">
-        <v>1</v>
-      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <v>10</v>
+      </c>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
       <c r="R25" s="16">
         <v>99</v>
       </c>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="27"/>
+      <c r="V25" s="23"/>
     </row>
     <row r="26" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A26" s="15"/>
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
       <c r="B26" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19">
+      <c r="E26" s="16">
+        <v>10011</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="19">
         <v>2</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="16">
-        <v>10011</v>
-      </c>
-      <c r="J26" s="16">
-        <v>1</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O26" s="16">
-        <v>0</v>
-      </c>
-      <c r="P26" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="16">
-        <v>1</v>
-      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
+        <v>10</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
       <c r="R26" s="16">
         <v>99</v>
       </c>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
-      <c r="V26" s="27"/>
+      <c r="V26" s="23"/>
     </row>
     <row r="27" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A27" s="15"/>
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
       <c r="B27" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19">
+      <c r="E27" s="16">
+        <v>10012</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="19">
         <v>2</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="16">
-        <v>10012</v>
-      </c>
-      <c r="J27" s="16">
-        <v>1</v>
-      </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O27" s="16">
-        <v>0</v>
-      </c>
-      <c r="P27" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="16">
-        <v>1</v>
-      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>10</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
       <c r="R27" s="16">
         <v>99</v>
       </c>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
-      <c r="V27" s="27"/>
+      <c r="V27" s="23"/>
     </row>
     <row r="28" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A28" s="15"/>
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
       <c r="B28" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19">
+      <c r="E28" s="16">
+        <v>10013</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" s="19">
         <v>2</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="16">
-        <v>10013</v>
-      </c>
-      <c r="J28" s="16">
-        <v>1</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O28" s="16">
-        <v>0</v>
-      </c>
-      <c r="P28" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="16">
-        <v>1</v>
-      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="15">
+        <v>10</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="16">
         <v>99</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
-      <c r="V28" s="27"/>
+      <c r="V28" s="23"/>
     </row>
     <row r="29" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A29" s="15"/>
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
       <c r="B29" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19">
+      <c r="E29" s="16">
+        <v>10014</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" s="19">
         <v>2</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="16">
-        <v>10014</v>
-      </c>
-      <c r="J29" s="16">
-        <v>1</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O29" s="16">
-        <v>0</v>
-      </c>
-      <c r="P29" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="16">
-        <v>1</v>
-      </c>
+      <c r="M29" s="15">
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <v>10</v>
+      </c>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
       <c r="R29" s="16">
         <v>99</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
-      <c r="V29" s="27"/>
+      <c r="V29" s="23"/>
     </row>
     <row r="30" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A30" s="15"/>
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
       <c r="B30" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19">
+      <c r="E30" s="16">
+        <v>10016</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="19">
         <v>2</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="16">
-        <v>10016</v>
-      </c>
-      <c r="J30" s="16">
-        <v>1</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O30" s="16">
-        <v>0</v>
-      </c>
-      <c r="P30" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="16">
-        <v>1</v>
-      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>10</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
       <c r="R30" s="16">
         <v>99</v>
       </c>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
-      <c r="V30" s="27"/>
+      <c r="V30" s="23"/>
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A31" s="15"/>
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
       <c r="B31" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19">
+      <c r="E31" s="19">
+        <v>10017</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" s="19">
         <v>2</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19">
-        <v>10017</v>
-      </c>
-      <c r="J31" s="16">
-        <v>1</v>
-      </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O31" s="16">
-        <v>0</v>
-      </c>
-      <c r="P31" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="16">
-        <v>1</v>
-      </c>
+      <c r="M31" s="15">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <v>10</v>
+      </c>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
       <c r="R31" s="16">
         <v>99</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
-      <c r="V31" s="27"/>
+      <c r="V31" s="23"/>
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A32" s="15"/>
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
       <c r="B32" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19">
+      <c r="E32" s="16">
+        <v>10101</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L32" s="19">
         <v>3</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="16">
-        <v>10101</v>
-      </c>
-      <c r="J32" s="16">
-        <v>1</v>
-      </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O32" s="16">
-        <v>0</v>
-      </c>
-      <c r="P32" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="16">
-        <v>1</v>
-      </c>
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <v>10</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
       <c r="R32" s="16">
         <v>99</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
-      <c r="V32" s="27"/>
+      <c r="V32" s="23"/>
     </row>
     <row r="33" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A33" s="15"/>
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
       <c r="B33" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19">
+      <c r="E33" s="16">
+        <v>10102</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33" s="19">
         <v>3</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="16">
-        <v>10102</v>
-      </c>
-      <c r="J33" s="16">
-        <v>1</v>
-      </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O33" s="16">
-        <v>0</v>
-      </c>
-      <c r="P33" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="16">
-        <v>1</v>
-      </c>
+      <c r="M33" s="15">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15">
+        <v>10</v>
+      </c>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
       <c r="R33" s="16">
         <v>99</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
-      <c r="V33" s="27"/>
+      <c r="V33" s="23"/>
     </row>
     <row r="34" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A34" s="15"/>
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
       <c r="B34" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19">
+      <c r="E34" s="16">
+        <v>10103</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34" s="19">
         <v>3</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="16">
-        <v>10103</v>
-      </c>
-      <c r="J34" s="16">
-        <v>1</v>
-      </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O34" s="16">
-        <v>0</v>
-      </c>
-      <c r="P34" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="16">
-        <v>1</v>
-      </c>
+      <c r="M34" s="15">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>10</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
       <c r="R34" s="16">
         <v>99</v>
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
-      <c r="V34" s="27"/>
+      <c r="V34" s="23"/>
     </row>
     <row r="35" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A35" s="15"/>
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
       <c r="B35" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19">
+      <c r="E35" s="16">
+        <v>10104</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L35" s="19">
         <v>3</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="16">
-        <v>10104</v>
-      </c>
-      <c r="J35" s="16">
-        <v>1</v>
-      </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O35" s="16">
-        <v>0</v>
-      </c>
-      <c r="P35" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="16">
-        <v>1</v>
-      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>10</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
       <c r="R35" s="16">
         <v>99</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
-      <c r="V35" s="27"/>
+      <c r="V35" s="23"/>
     </row>
     <row r="36" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A36" s="15"/>
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
       <c r="B36" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19">
+      <c r="E36" s="16">
+        <v>10105</v>
+      </c>
+      <c r="F36" s="16">
+        <v>1</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16">
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L36" s="19">
         <v>3</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="16">
-        <v>10105</v>
-      </c>
-      <c r="J36" s="16">
-        <v>1</v>
-      </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O36" s="16">
-        <v>0</v>
-      </c>
-      <c r="P36" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="16">
-        <v>1</v>
-      </c>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>10</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
       <c r="R36" s="16">
         <v>99</v>
       </c>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
-      <c r="V36" s="27"/>
+      <c r="V36" s="23"/>
     </row>
     <row r="37" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A37" s="15"/>
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
       <c r="B37" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19">
+      <c r="E37" s="16">
+        <v>10106</v>
+      </c>
+      <c r="F37" s="16">
+        <v>1</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16">
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L37" s="19">
         <v>3</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="16">
-        <v>10106</v>
-      </c>
-      <c r="J37" s="16">
-        <v>1</v>
-      </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O37" s="16">
-        <v>0</v>
-      </c>
-      <c r="P37" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="16">
-        <v>1</v>
-      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>10</v>
+      </c>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
       <c r="R37" s="16">
         <v>99</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
-      <c r="V37" s="27"/>
+      <c r="V37" s="23"/>
     </row>
     <row r="38" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A38" s="15"/>
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
       <c r="B38" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19">
+      <c r="E38" s="16">
+        <v>10107</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16">
+        <v>0</v>
+      </c>
+      <c r="I38" s="16">
+        <v>0</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L38" s="19">
         <v>3</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="16">
-        <v>10107</v>
-      </c>
-      <c r="J38" s="16">
-        <v>1</v>
-      </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O38" s="16">
-        <v>0</v>
-      </c>
-      <c r="P38" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="16">
-        <v>1</v>
-      </c>
+      <c r="M38" s="15">
+        <v>0</v>
+      </c>
+      <c r="N38" s="15">
+        <v>10</v>
+      </c>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="16">
         <v>99</v>
       </c>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
-      <c r="V38" s="27"/>
+      <c r="V38" s="23"/>
     </row>
     <row r="39" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A39" s="15"/>
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
       <c r="B39" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19">
+      <c r="E39" s="16">
+        <v>10108</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L39" s="19">
         <v>3</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="16">
-        <v>10108</v>
-      </c>
-      <c r="J39" s="16">
-        <v>1</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O39" s="16">
-        <v>0</v>
-      </c>
-      <c r="P39" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="16">
-        <v>1</v>
-      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>10</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
       <c r="R39" s="16">
         <v>99</v>
       </c>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
-      <c r="V39" s="27"/>
+      <c r="V39" s="23"/>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A40" s="15"/>
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
       <c r="B40" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19">
+      <c r="E40" s="16">
+        <v>10109</v>
+      </c>
+      <c r="F40" s="16">
+        <v>1</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16">
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L40" s="19">
         <v>3</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="16">
-        <v>10109</v>
-      </c>
-      <c r="J40" s="16">
-        <v>1</v>
-      </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O40" s="16">
-        <v>0</v>
-      </c>
-      <c r="P40" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="16">
-        <v>1</v>
-      </c>
+      <c r="M40" s="15">
+        <v>0</v>
+      </c>
+      <c r="N40" s="15">
+        <v>10</v>
+      </c>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
       <c r="R40" s="16">
         <v>99</v>
       </c>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
-      <c r="V40" s="27"/>
+      <c r="V40" s="23"/>
     </row>
     <row r="41" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A41" s="15"/>
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
       <c r="B41" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19">
+      <c r="E41" s="16">
+        <v>10110</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16">
+        <v>0</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" s="19">
         <v>3</v>
       </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="16">
-        <v>10110</v>
-      </c>
-      <c r="J41" s="16">
-        <v>1</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O41" s="16">
-        <v>0</v>
-      </c>
-      <c r="P41" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="16">
-        <v>1</v>
-      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+      <c r="N41" s="15">
+        <v>10</v>
+      </c>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
       <c r="R41" s="16">
         <v>99</v>
       </c>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
-      <c r="V41" s="27"/>
+      <c r="V41" s="23"/>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A42" s="15"/>
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
       <c r="B42" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19">
+      <c r="E42" s="16">
+        <v>10111</v>
+      </c>
+      <c r="F42" s="16">
+        <v>1</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L42" s="19">
         <v>3</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="16">
-        <v>10111</v>
-      </c>
-      <c r="J42" s="16">
-        <v>1</v>
-      </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O42" s="16">
-        <v>0</v>
-      </c>
-      <c r="P42" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="16">
-        <v>1</v>
-      </c>
+      <c r="M42" s="15">
+        <v>0</v>
+      </c>
+      <c r="N42" s="15">
+        <v>10</v>
+      </c>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
       <c r="R42" s="16">
         <v>99</v>
       </c>
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
-      <c r="V42" s="27"/>
+      <c r="V42" s="23"/>
     </row>
     <row r="43" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A43" s="15"/>
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
       <c r="B43" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19">
+      <c r="E43" s="16">
+        <v>10112</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16">
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L43" s="19">
         <v>3</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="16">
-        <v>10112</v>
-      </c>
-      <c r="J43" s="16">
-        <v>1</v>
-      </c>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O43" s="16">
-        <v>0</v>
-      </c>
-      <c r="P43" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="16">
-        <v>1</v>
-      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+      <c r="N43" s="15">
+        <v>10</v>
+      </c>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
       <c r="R43" s="16">
         <v>99</v>
       </c>
       <c r="S43" s="16"/>
       <c r="T43" s="16"/>
       <c r="U43" s="16"/>
-      <c r="V43" s="27"/>
+      <c r="V43" s="23"/>
     </row>
     <row r="44" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A44" s="15"/>
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
       <c r="B44" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19">
+      <c r="E44" s="16">
+        <v>10113</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16">
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <v>0</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L44" s="19">
         <v>3</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="16">
-        <v>10113</v>
-      </c>
-      <c r="J44" s="16">
-        <v>1</v>
-      </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O44" s="16">
-        <v>0</v>
-      </c>
-      <c r="P44" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="16">
-        <v>1</v>
-      </c>
+      <c r="M44" s="15">
+        <v>0</v>
+      </c>
+      <c r="N44" s="15">
+        <v>10</v>
+      </c>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
       <c r="R44" s="16">
         <v>99</v>
       </c>
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
       <c r="U44" s="16"/>
-      <c r="V44" s="27"/>
+      <c r="V44" s="23"/>
     </row>
     <row r="45" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A45" s="15"/>
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
       <c r="B45" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19">
+      <c r="E45" s="16">
+        <v>10114</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16">
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L45" s="19">
         <v>3</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="16">
-        <v>10114</v>
-      </c>
-      <c r="J45" s="16">
-        <v>1</v>
-      </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O45" s="16">
-        <v>0</v>
-      </c>
-      <c r="P45" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="16">
-        <v>1</v>
-      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15">
+        <v>10</v>
+      </c>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
       <c r="R45" s="16">
         <v>99</v>
       </c>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
       <c r="U45" s="16"/>
-      <c r="V45" s="27"/>
+      <c r="V45" s="23"/>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A46" s="15"/>
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
       <c r="B46" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19">
+      <c r="E46" s="16">
+        <v>10115</v>
+      </c>
+      <c r="F46" s="16">
+        <v>1</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16">
+        <v>0</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L46" s="19">
         <v>3</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="16">
-        <v>10115</v>
-      </c>
-      <c r="J46" s="16">
-        <v>1</v>
-      </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O46" s="16">
-        <v>0</v>
-      </c>
-      <c r="P46" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="16">
-        <v>1</v>
-      </c>
+      <c r="M46" s="15">
+        <v>0</v>
+      </c>
+      <c r="N46" s="15">
+        <v>10</v>
+      </c>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
       <c r="R46" s="16">
         <v>99</v>
       </c>
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
       <c r="U46" s="16"/>
-      <c r="V46" s="27"/>
+      <c r="V46" s="23"/>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A47" s="15"/>
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
       <c r="B47" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19">
+      <c r="E47" s="16">
+        <v>10117</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16">
+        <v>0</v>
+      </c>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L47" s="19">
         <v>3</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="16">
-        <v>10117</v>
-      </c>
-      <c r="J47" s="16">
-        <v>1</v>
-      </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O47" s="16">
-        <v>0</v>
-      </c>
-      <c r="P47" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="16">
-        <v>1</v>
-      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>10</v>
+      </c>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
       <c r="R47" s="16">
         <v>99</v>
       </c>
       <c r="S47" s="16"/>
       <c r="T47" s="16"/>
       <c r="U47" s="16"/>
-      <c r="V47" s="27"/>
+      <c r="V47" s="23"/>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A48" s="15"/>
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
       <c r="B48" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19">
+      <c r="E48" s="16">
+        <v>10118</v>
+      </c>
+      <c r="F48" s="16">
+        <v>1</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16">
+        <v>0</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L48" s="19">
         <v>3</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="16">
-        <v>10118</v>
-      </c>
-      <c r="J48" s="16">
-        <v>1</v>
-      </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O48" s="16">
-        <v>0</v>
-      </c>
-      <c r="P48" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="16">
-        <v>1</v>
-      </c>
+      <c r="M48" s="15">
+        <v>0</v>
+      </c>
+      <c r="N48" s="15">
+        <v>10</v>
+      </c>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
       <c r="R48" s="16">
         <v>99</v>
       </c>
       <c r="S48" s="16"/>
       <c r="T48" s="16"/>
       <c r="U48" s="16"/>
-      <c r="V48" s="27"/>
+      <c r="V48" s="23"/>
     </row>
     <row r="49" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A49" s="15"/>
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
       <c r="B49" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19">
+      <c r="E49" s="16">
+        <v>10201</v>
+      </c>
+      <c r="F49" s="16">
+        <v>1</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16">
+        <v>0</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" s="19">
         <v>4</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="16">
-        <v>10201</v>
-      </c>
-      <c r="J49" s="16">
-        <v>1</v>
-      </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O49" s="16">
-        <v>0</v>
-      </c>
-      <c r="P49" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="16">
-        <v>1</v>
-      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+      <c r="N49" s="15">
+        <v>10</v>
+      </c>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
       <c r="R49" s="16">
         <v>99</v>
       </c>
       <c r="S49" s="16"/>
       <c r="T49" s="16"/>
       <c r="U49" s="16"/>
-      <c r="V49" s="27"/>
+      <c r="V49" s="23"/>
     </row>
     <row r="50" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A50" s="15"/>
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
       <c r="B50" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19">
+      <c r="E50" s="16">
+        <v>10202</v>
+      </c>
+      <c r="F50" s="16">
+        <v>1</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16">
+        <v>0</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L50" s="19">
         <v>4</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="16">
-        <v>10202</v>
-      </c>
-      <c r="J50" s="16">
-        <v>1</v>
-      </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O50" s="16">
-        <v>0</v>
-      </c>
-      <c r="P50" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="16">
-        <v>1</v>
-      </c>
+      <c r="M50" s="15">
+        <v>0</v>
+      </c>
+      <c r="N50" s="15">
+        <v>10</v>
+      </c>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
       <c r="R50" s="16">
         <v>99</v>
       </c>
       <c r="S50" s="16"/>
       <c r="T50" s="16"/>
       <c r="U50" s="16"/>
-      <c r="V50" s="27"/>
+      <c r="V50" s="23"/>
     </row>
     <row r="51" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A51" s="15"/>
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
       <c r="B51" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19">
+      <c r="E51" s="16">
+        <v>10203</v>
+      </c>
+      <c r="F51" s="16">
+        <v>1</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16">
+        <v>0</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L51" s="19">
         <v>4</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="16">
-        <v>10203</v>
-      </c>
-      <c r="J51" s="16">
-        <v>1</v>
-      </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O51" s="16">
-        <v>0</v>
-      </c>
-      <c r="P51" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="16">
-        <v>1</v>
-      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+      <c r="N51" s="15">
+        <v>10</v>
+      </c>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
       <c r="R51" s="16">
         <v>99</v>
       </c>
       <c r="S51" s="16"/>
       <c r="T51" s="16"/>
       <c r="U51" s="16"/>
-      <c r="V51" s="27"/>
+      <c r="V51" s="23"/>
     </row>
     <row r="52" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A52" s="15"/>
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
       <c r="B52" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19">
+      <c r="E52" s="16">
+        <v>10204</v>
+      </c>
+      <c r="F52" s="16">
+        <v>1</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16">
+        <v>0</v>
+      </c>
+      <c r="I52" s="16">
+        <v>0</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52" s="19">
         <v>4</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="16">
-        <v>10204</v>
-      </c>
-      <c r="J52" s="16">
-        <v>1</v>
-      </c>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O52" s="16">
-        <v>0</v>
-      </c>
-      <c r="P52" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="16">
-        <v>1</v>
-      </c>
+      <c r="M52" s="15">
+        <v>0</v>
+      </c>
+      <c r="N52" s="15">
+        <v>10</v>
+      </c>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
       <c r="R52" s="16">
         <v>99</v>
       </c>
       <c r="S52" s="16"/>
       <c r="T52" s="16"/>
       <c r="U52" s="16"/>
-      <c r="V52" s="27"/>
+      <c r="V52" s="23"/>
     </row>
     <row r="53" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A53" s="15"/>
+      <c r="A53" s="11">
+        <v>51</v>
+      </c>
       <c r="B53" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19">
+      <c r="E53" s="16">
+        <v>10205</v>
+      </c>
+      <c r="F53" s="16">
+        <v>1</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16">
+        <v>0</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" s="19">
         <v>4</v>
       </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="16">
-        <v>10205</v>
-      </c>
-      <c r="J53" s="16">
-        <v>1</v>
-      </c>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O53" s="16">
-        <v>0</v>
-      </c>
-      <c r="P53" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="16">
-        <v>1</v>
-      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+      <c r="N53" s="15">
+        <v>10</v>
+      </c>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
       <c r="R53" s="16">
         <v>99</v>
       </c>
       <c r="S53" s="16"/>
       <c r="T53" s="16"/>
       <c r="U53" s="16"/>
-      <c r="V53" s="27"/>
+      <c r="V53" s="23"/>
     </row>
     <row r="54" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A54" s="15"/>
+      <c r="A54" s="11">
+        <v>52</v>
+      </c>
       <c r="B54" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19">
+      <c r="E54" s="16">
+        <v>10206</v>
+      </c>
+      <c r="F54" s="16">
+        <v>1</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16">
+        <v>0</v>
+      </c>
+      <c r="I54" s="16">
+        <v>0</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L54" s="19">
         <v>4</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="16">
-        <v>10206</v>
-      </c>
-      <c r="J54" s="16">
-        <v>1</v>
-      </c>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O54" s="16">
-        <v>0</v>
-      </c>
-      <c r="P54" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="16">
-        <v>1</v>
-      </c>
+      <c r="M54" s="15">
+        <v>0</v>
+      </c>
+      <c r="N54" s="15">
+        <v>10</v>
+      </c>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
       <c r="R54" s="16">
         <v>99</v>
       </c>
       <c r="S54" s="16"/>
       <c r="T54" s="16"/>
       <c r="U54" s="16"/>
-      <c r="V54" s="27"/>
+      <c r="V54" s="23"/>
     </row>
     <row r="55" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A55" s="15"/>
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
       <c r="B55" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19">
+      <c r="E55" s="16">
+        <v>10207</v>
+      </c>
+      <c r="F55" s="16">
+        <v>1</v>
+      </c>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16">
+        <v>0</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L55" s="19">
         <v>4</v>
       </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="16">
-        <v>10207</v>
-      </c>
-      <c r="J55" s="16">
-        <v>1</v>
-      </c>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O55" s="16">
-        <v>0</v>
-      </c>
-      <c r="P55" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="16">
-        <v>1</v>
-      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+      <c r="N55" s="15">
+        <v>10</v>
+      </c>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
       <c r="R55" s="16">
         <v>99</v>
       </c>
       <c r="S55" s="16"/>
       <c r="T55" s="16"/>
       <c r="U55" s="16"/>
-      <c r="V55" s="27"/>
+      <c r="V55" s="23"/>
     </row>
     <row r="56" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A56" s="15"/>
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
       <c r="B56" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19">
+      <c r="E56" s="16">
+        <v>10208</v>
+      </c>
+      <c r="F56" s="16">
+        <v>1</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16">
+        <v>0</v>
+      </c>
+      <c r="I56" s="16">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L56" s="19">
         <v>4</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="16">
-        <v>10208</v>
-      </c>
-      <c r="J56" s="16">
-        <v>1</v>
-      </c>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O56" s="16">
-        <v>0</v>
-      </c>
-      <c r="P56" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="16">
-        <v>1</v>
-      </c>
+      <c r="M56" s="15">
+        <v>0</v>
+      </c>
+      <c r="N56" s="15">
+        <v>10</v>
+      </c>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
       <c r="R56" s="16">
         <v>99</v>
       </c>
       <c r="S56" s="16"/>
       <c r="T56" s="16"/>
       <c r="U56" s="16"/>
-      <c r="V56" s="27"/>
+      <c r="V56" s="23"/>
     </row>
     <row r="57" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A57" s="15"/>
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
       <c r="B57" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19">
+      <c r="E57" s="16">
+        <v>10209</v>
+      </c>
+      <c r="F57" s="16">
+        <v>1</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16">
+        <v>0</v>
+      </c>
+      <c r="I57" s="16">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L57" s="19">
         <v>4</v>
       </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="16">
-        <v>10209</v>
-      </c>
-      <c r="J57" s="16">
-        <v>1</v>
-      </c>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O57" s="16">
-        <v>0</v>
-      </c>
-      <c r="P57" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="16">
-        <v>1</v>
-      </c>
+      <c r="M57" s="15">
+        <v>0</v>
+      </c>
+      <c r="N57" s="15">
+        <v>10</v>
+      </c>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
       <c r="R57" s="16">
         <v>99</v>
       </c>
       <c r="S57" s="16"/>
       <c r="T57" s="16"/>
       <c r="U57" s="16"/>
-      <c r="V57" s="27"/>
+      <c r="V57" s="23"/>
     </row>
     <row r="58" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A58" s="15"/>
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
       <c r="B58" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19">
+      <c r="E58" s="16">
+        <v>10210</v>
+      </c>
+      <c r="F58" s="16">
+        <v>1</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16">
+        <v>0</v>
+      </c>
+      <c r="I58" s="16">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L58" s="19">
         <v>4</v>
       </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="16">
-        <v>10210</v>
-      </c>
-      <c r="J58" s="16">
-        <v>1</v>
-      </c>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O58" s="16">
-        <v>0</v>
-      </c>
-      <c r="P58" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="16">
-        <v>1</v>
-      </c>
+      <c r="M58" s="15">
+        <v>0</v>
+      </c>
+      <c r="N58" s="15">
+        <v>10</v>
+      </c>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
       <c r="R58" s="16">
         <v>99</v>
       </c>
       <c r="S58" s="16"/>
       <c r="T58" s="16"/>
       <c r="U58" s="16"/>
-      <c r="V58" s="27"/>
+      <c r="V58" s="23"/>
     </row>
     <row r="59" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A59" s="15"/>
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
       <c r="B59" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19">
+      <c r="E59" s="16">
+        <v>10211</v>
+      </c>
+      <c r="F59" s="16">
+        <v>1</v>
+      </c>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16">
+        <v>0</v>
+      </c>
+      <c r="I59" s="16">
+        <v>0</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" s="19">
         <v>4</v>
       </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="16">
-        <v>10211</v>
-      </c>
-      <c r="J59" s="16">
-        <v>1</v>
-      </c>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O59" s="16">
-        <v>0</v>
-      </c>
-      <c r="P59" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="16">
-        <v>1</v>
-      </c>
+      <c r="M59" s="15">
+        <v>0</v>
+      </c>
+      <c r="N59" s="15">
+        <v>10</v>
+      </c>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
       <c r="R59" s="16">
         <v>99</v>
       </c>
       <c r="S59" s="16"/>
       <c r="T59" s="16"/>
       <c r="U59" s="16"/>
-      <c r="V59" s="27"/>
+      <c r="V59" s="23"/>
     </row>
     <row r="60" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A60" s="15"/>
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
       <c r="B60" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19">
+      <c r="E60" s="16">
+        <v>10212</v>
+      </c>
+      <c r="F60" s="16">
+        <v>1</v>
+      </c>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16">
+        <v>0</v>
+      </c>
+      <c r="I60" s="16">
+        <v>0</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L60" s="19">
         <v>4</v>
       </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="16">
-        <v>10212</v>
-      </c>
-      <c r="J60" s="16">
-        <v>1</v>
-      </c>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O60" s="16">
-        <v>0</v>
-      </c>
-      <c r="P60" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="16">
-        <v>1</v>
-      </c>
+      <c r="M60" s="15">
+        <v>0</v>
+      </c>
+      <c r="N60" s="15">
+        <v>10</v>
+      </c>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
       <c r="R60" s="16">
         <v>99</v>
       </c>
       <c r="S60" s="16"/>
       <c r="T60" s="16"/>
       <c r="U60" s="16"/>
-      <c r="V60" s="27"/>
+      <c r="V60" s="23"/>
     </row>
     <row r="61" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A61" s="15"/>
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
       <c r="B61" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="19">
+      <c r="E61" s="16">
+        <v>10213</v>
+      </c>
+      <c r="F61" s="16">
+        <v>1</v>
+      </c>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16">
+        <v>0</v>
+      </c>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L61" s="19">
         <v>4</v>
       </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="16">
-        <v>10213</v>
-      </c>
-      <c r="J61" s="16">
-        <v>1</v>
-      </c>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O61" s="16">
-        <v>0</v>
-      </c>
-      <c r="P61" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="16">
-        <v>1</v>
-      </c>
+      <c r="M61" s="15">
+        <v>0</v>
+      </c>
+      <c r="N61" s="15">
+        <v>10</v>
+      </c>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
       <c r="R61" s="16">
         <v>99</v>
       </c>
       <c r="S61" s="16"/>
       <c r="T61" s="16"/>
       <c r="U61" s="16"/>
-      <c r="V61" s="27"/>
+      <c r="V61" s="23"/>
     </row>
     <row r="62" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A62" s="15"/>
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
       <c r="B62" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19">
+      <c r="E62" s="16">
+        <v>10214</v>
+      </c>
+      <c r="F62" s="16">
+        <v>1</v>
+      </c>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16">
+        <v>0</v>
+      </c>
+      <c r="I62" s="16">
+        <v>0</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L62" s="19">
         <v>4</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="16">
-        <v>10214</v>
-      </c>
-      <c r="J62" s="16">
-        <v>1</v>
-      </c>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O62" s="16">
-        <v>0</v>
-      </c>
-      <c r="P62" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="16">
-        <v>1</v>
-      </c>
+      <c r="M62" s="15">
+        <v>0</v>
+      </c>
+      <c r="N62" s="15">
+        <v>10</v>
+      </c>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
       <c r="R62" s="16">
         <v>99</v>
       </c>
       <c r="S62" s="16"/>
       <c r="T62" s="16"/>
       <c r="U62" s="16"/>
-      <c r="V62" s="27"/>
+      <c r="V62" s="23"/>
     </row>
     <row r="63" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A63" s="15"/>
+      <c r="A63" s="11">
+        <v>61</v>
+      </c>
       <c r="B63" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19">
+      <c r="E63" s="16">
+        <v>10215</v>
+      </c>
+      <c r="F63" s="16">
+        <v>1</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16">
+        <v>0</v>
+      </c>
+      <c r="I63" s="16">
+        <v>0</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" s="19">
         <v>4</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="16">
-        <v>10215</v>
-      </c>
-      <c r="J63" s="16">
-        <v>1</v>
-      </c>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O63" s="16">
-        <v>0</v>
-      </c>
-      <c r="P63" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="16">
-        <v>1</v>
-      </c>
+      <c r="M63" s="15">
+        <v>0</v>
+      </c>
+      <c r="N63" s="15">
+        <v>10</v>
+      </c>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
       <c r="R63" s="16">
         <v>99</v>
       </c>
       <c r="S63" s="16"/>
       <c r="T63" s="16"/>
       <c r="U63" s="16"/>
-      <c r="V63" s="27"/>
+      <c r="V63" s="23"/>
     </row>
     <row r="64" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A64" s="15"/>
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
       <c r="B64" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19">
+      <c r="E64" s="16">
+        <v>10217</v>
+      </c>
+      <c r="F64" s="16">
+        <v>1</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16">
+        <v>0</v>
+      </c>
+      <c r="I64" s="16">
+        <v>0</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L64" s="19">
         <v>4</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="16">
-        <v>10217</v>
-      </c>
-      <c r="J64" s="16">
-        <v>1</v>
-      </c>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O64" s="16">
-        <v>0</v>
-      </c>
-      <c r="P64" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="16">
-        <v>1</v>
-      </c>
+      <c r="M64" s="15">
+        <v>0</v>
+      </c>
+      <c r="N64" s="15">
+        <v>10</v>
+      </c>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
       <c r="R64" s="16">
         <v>99</v>
       </c>
       <c r="S64" s="16"/>
       <c r="T64" s="16"/>
       <c r="U64" s="16"/>
-      <c r="V64" s="27"/>
+      <c r="V64" s="23"/>
     </row>
     <row r="65" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A65" s="15"/>
+      <c r="A65" s="11">
+        <v>63</v>
+      </c>
       <c r="B65" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19">
+      <c r="E65" s="16">
+        <v>10218</v>
+      </c>
+      <c r="F65" s="16">
+        <v>1</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16">
+        <v>0</v>
+      </c>
+      <c r="I65" s="16">
+        <v>0</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L65" s="19">
         <v>4</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="16">
-        <v>10218</v>
-      </c>
-      <c r="J65" s="16">
-        <v>1</v>
-      </c>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O65" s="16">
-        <v>0</v>
-      </c>
-      <c r="P65" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="16">
-        <v>1</v>
-      </c>
+      <c r="M65" s="15">
+        <v>0</v>
+      </c>
+      <c r="N65" s="15">
+        <v>10</v>
+      </c>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
       <c r="R65" s="16">
         <v>99</v>
       </c>
       <c r="S65" s="16"/>
       <c r="T65" s="16"/>
       <c r="U65" s="16"/>
-      <c r="V65" s="27"/>
+      <c r="V65" s="23"/>
     </row>
     <row r="66" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A66" s="15"/>
+      <c r="A66" s="11">
+        <v>64</v>
+      </c>
       <c r="B66" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="19">
+      <c r="E66" s="16">
+        <v>10301</v>
+      </c>
+      <c r="F66" s="16">
+        <v>1</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16">
+        <v>0</v>
+      </c>
+      <c r="I66" s="16">
+        <v>0</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L66" s="19">
         <v>5</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="16">
-        <v>10301</v>
-      </c>
-      <c r="J66" s="16">
-        <v>1</v>
-      </c>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O66" s="16">
-        <v>0</v>
-      </c>
-      <c r="P66" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="16">
-        <v>1</v>
-      </c>
+      <c r="M66" s="15">
+        <v>0</v>
+      </c>
+      <c r="N66" s="15">
+        <v>10</v>
+      </c>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
       <c r="R66" s="16">
         <v>99</v>
       </c>
       <c r="S66" s="16"/>
       <c r="T66" s="16"/>
       <c r="U66" s="16"/>
-      <c r="V66" s="27"/>
+      <c r="V66" s="23"/>
     </row>
     <row r="67" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A67" s="15"/>
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
       <c r="B67" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="19">
+      <c r="E67" s="16">
+        <v>10302</v>
+      </c>
+      <c r="F67" s="16">
+        <v>1</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16">
+        <v>0</v>
+      </c>
+      <c r="I67" s="16">
+        <v>0</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L67" s="19">
         <v>5</v>
       </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="16">
-        <v>10302</v>
-      </c>
-      <c r="J67" s="16">
-        <v>1</v>
-      </c>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O67" s="16">
-        <v>0</v>
-      </c>
-      <c r="P67" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="16">
-        <v>1</v>
-      </c>
+      <c r="M67" s="15">
+        <v>0</v>
+      </c>
+      <c r="N67" s="15">
+        <v>10</v>
+      </c>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
       <c r="R67" s="16">
         <v>99</v>
       </c>
       <c r="S67" s="16"/>
       <c r="T67" s="16"/>
       <c r="U67" s="16"/>
-      <c r="V67" s="27"/>
+      <c r="V67" s="23"/>
     </row>
     <row r="68" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A68" s="15"/>
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
       <c r="B68" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="19">
+      <c r="E68" s="16">
+        <v>10303</v>
+      </c>
+      <c r="F68" s="16">
+        <v>1</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16">
+        <v>0</v>
+      </c>
+      <c r="I68" s="16">
+        <v>0</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L68" s="19">
         <v>5</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="16">
-        <v>10303</v>
-      </c>
-      <c r="J68" s="16">
-        <v>1</v>
-      </c>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O68" s="16">
-        <v>0</v>
-      </c>
-      <c r="P68" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="16">
-        <v>1</v>
-      </c>
+      <c r="M68" s="15">
+        <v>0</v>
+      </c>
+      <c r="N68" s="15">
+        <v>10</v>
+      </c>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
       <c r="R68" s="16">
         <v>99</v>
       </c>
       <c r="S68" s="16"/>
       <c r="T68" s="16"/>
       <c r="U68" s="16"/>
-      <c r="V68" s="27"/>
+      <c r="V68" s="23"/>
     </row>
     <row r="69" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A69" s="15"/>
+      <c r="A69" s="11">
+        <v>67</v>
+      </c>
       <c r="B69" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19">
+      <c r="E69" s="16">
+        <v>10304</v>
+      </c>
+      <c r="F69" s="16">
+        <v>1</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16">
+        <v>0</v>
+      </c>
+      <c r="I69" s="16">
+        <v>0</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L69" s="19">
         <v>5</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="16">
-        <v>10304</v>
-      </c>
-      <c r="J69" s="16">
-        <v>1</v>
-      </c>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O69" s="16">
-        <v>0</v>
-      </c>
-      <c r="P69" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="16">
-        <v>1</v>
-      </c>
+      <c r="M69" s="15">
+        <v>0</v>
+      </c>
+      <c r="N69" s="15">
+        <v>10</v>
+      </c>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
       <c r="R69" s="16">
         <v>99</v>
       </c>
       <c r="S69" s="16"/>
       <c r="T69" s="16"/>
       <c r="U69" s="16"/>
-      <c r="V69" s="27"/>
+      <c r="V69" s="23"/>
     </row>
     <row r="70" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A70" s="15"/>
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
       <c r="B70" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19">
+      <c r="E70" s="16">
+        <v>10305</v>
+      </c>
+      <c r="F70" s="16">
+        <v>1</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16">
+        <v>0</v>
+      </c>
+      <c r="I70" s="16">
+        <v>0</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L70" s="19">
         <v>5</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="16">
-        <v>10305</v>
-      </c>
-      <c r="J70" s="16">
-        <v>1</v>
-      </c>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O70" s="16">
-        <v>0</v>
-      </c>
-      <c r="P70" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="16">
-        <v>1</v>
-      </c>
+      <c r="M70" s="15">
+        <v>0</v>
+      </c>
+      <c r="N70" s="15">
+        <v>10</v>
+      </c>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
       <c r="R70" s="16">
         <v>99</v>
       </c>
       <c r="S70" s="16"/>
       <c r="T70" s="16"/>
       <c r="U70" s="16"/>
-      <c r="V70" s="27"/>
+      <c r="V70" s="23"/>
     </row>
     <row r="71" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A71" s="15"/>
+      <c r="A71" s="11">
+        <v>69</v>
+      </c>
       <c r="B71" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19">
+      <c r="E71" s="16">
+        <v>10306</v>
+      </c>
+      <c r="F71" s="16">
+        <v>1</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16">
+        <v>0</v>
+      </c>
+      <c r="I71" s="16">
+        <v>0</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L71" s="19">
         <v>5</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="16">
-        <v>10306</v>
-      </c>
-      <c r="J71" s="16">
-        <v>1</v>
-      </c>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O71" s="16">
-        <v>0</v>
-      </c>
-      <c r="P71" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="16">
-        <v>1</v>
-      </c>
+      <c r="M71" s="15">
+        <v>0</v>
+      </c>
+      <c r="N71" s="15">
+        <v>10</v>
+      </c>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
       <c r="R71" s="16">
         <v>99</v>
       </c>
       <c r="S71" s="16"/>
       <c r="T71" s="16"/>
       <c r="U71" s="16"/>
-      <c r="V71" s="27"/>
+      <c r="V71" s="23"/>
     </row>
     <row r="72" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A72" s="15"/>
+      <c r="A72" s="11">
+        <v>70</v>
+      </c>
       <c r="B72" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19">
+      <c r="E72" s="16">
+        <v>10307</v>
+      </c>
+      <c r="F72" s="16">
+        <v>1</v>
+      </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16">
+        <v>0</v>
+      </c>
+      <c r="I72" s="16">
+        <v>0</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L72" s="19">
         <v>5</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="16">
-        <v>10307</v>
-      </c>
-      <c r="J72" s="16">
-        <v>1</v>
-      </c>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O72" s="16">
-        <v>0</v>
-      </c>
-      <c r="P72" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="16">
-        <v>1</v>
-      </c>
+      <c r="M72" s="15">
+        <v>0</v>
+      </c>
+      <c r="N72" s="15">
+        <v>10</v>
+      </c>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
       <c r="R72" s="16">
         <v>99</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="16"/>
       <c r="U72" s="16"/>
-      <c r="V72" s="27"/>
+      <c r="V72" s="23"/>
     </row>
     <row r="73" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A73" s="15"/>
+      <c r="A73" s="11">
+        <v>71</v>
+      </c>
       <c r="B73" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="19">
+      <c r="E73" s="16">
+        <v>10308</v>
+      </c>
+      <c r="F73" s="16">
+        <v>1</v>
+      </c>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16">
+        <v>0</v>
+      </c>
+      <c r="I73" s="16">
+        <v>0</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L73" s="19">
         <v>5</v>
       </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="16">
-        <v>10308</v>
-      </c>
-      <c r="J73" s="16">
-        <v>1</v>
-      </c>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O73" s="16">
-        <v>0</v>
-      </c>
-      <c r="P73" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="16">
-        <v>1</v>
-      </c>
+      <c r="M73" s="15">
+        <v>0</v>
+      </c>
+      <c r="N73" s="15">
+        <v>10</v>
+      </c>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
       <c r="R73" s="16">
         <v>99</v>
       </c>
       <c r="S73" s="16"/>
       <c r="T73" s="16"/>
       <c r="U73" s="16"/>
-      <c r="V73" s="27"/>
+      <c r="V73" s="23"/>
     </row>
     <row r="74" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A74" s="15"/>
+      <c r="A74" s="11">
+        <v>72</v>
+      </c>
       <c r="B74" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="19">
+      <c r="E74" s="16">
+        <v>10309</v>
+      </c>
+      <c r="F74" s="16">
+        <v>1</v>
+      </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16">
+        <v>0</v>
+      </c>
+      <c r="I74" s="16">
+        <v>0</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L74" s="19">
         <v>5</v>
       </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="16">
-        <v>10309</v>
-      </c>
-      <c r="J74" s="16">
-        <v>1</v>
-      </c>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O74" s="16">
-        <v>0</v>
-      </c>
-      <c r="P74" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="16">
-        <v>1</v>
-      </c>
+      <c r="M74" s="15">
+        <v>0</v>
+      </c>
+      <c r="N74" s="15">
+        <v>10</v>
+      </c>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
       <c r="R74" s="16">
         <v>99</v>
       </c>
       <c r="S74" s="16"/>
       <c r="T74" s="16"/>
       <c r="U74" s="16"/>
-      <c r="V74" s="27"/>
+      <c r="V74" s="23"/>
     </row>
     <row r="75" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A75" s="15"/>
+      <c r="A75" s="11">
+        <v>73</v>
+      </c>
       <c r="B75" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19">
+      <c r="E75" s="16">
+        <v>10310</v>
+      </c>
+      <c r="F75" s="16">
+        <v>1</v>
+      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16">
+        <v>0</v>
+      </c>
+      <c r="I75" s="16">
+        <v>0</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L75" s="19">
         <v>5</v>
       </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="16">
-        <v>10310</v>
-      </c>
-      <c r="J75" s="16">
-        <v>1</v>
-      </c>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O75" s="16">
-        <v>0</v>
-      </c>
-      <c r="P75" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="16">
-        <v>1</v>
-      </c>
+      <c r="M75" s="15">
+        <v>0</v>
+      </c>
+      <c r="N75" s="15">
+        <v>10</v>
+      </c>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
       <c r="R75" s="16">
         <v>99</v>
       </c>
       <c r="S75" s="16"/>
       <c r="T75" s="16"/>
       <c r="U75" s="16"/>
-      <c r="V75" s="27"/>
+      <c r="V75" s="23"/>
     </row>
     <row r="76" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A76" s="15"/>
+      <c r="A76" s="11">
+        <v>74</v>
+      </c>
       <c r="B76" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="19">
+      <c r="E76" s="16">
+        <v>10311</v>
+      </c>
+      <c r="F76" s="16">
+        <v>1</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16">
+        <v>0</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L76" s="19">
         <v>5</v>
       </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="16">
-        <v>10311</v>
-      </c>
-      <c r="J76" s="16">
-        <v>1</v>
-      </c>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O76" s="16">
-        <v>0</v>
-      </c>
-      <c r="P76" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="16">
-        <v>1</v>
-      </c>
+      <c r="M76" s="15">
+        <v>0</v>
+      </c>
+      <c r="N76" s="15">
+        <v>10</v>
+      </c>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
       <c r="R76" s="16">
         <v>99</v>
       </c>
       <c r="S76" s="16"/>
       <c r="T76" s="16"/>
       <c r="U76" s="16"/>
-      <c r="V76" s="27"/>
+      <c r="V76" s="23"/>
     </row>
     <row r="77" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A77" s="15"/>
+      <c r="A77" s="11">
+        <v>75</v>
+      </c>
       <c r="B77" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="19">
+      <c r="E77" s="16">
+        <v>10312</v>
+      </c>
+      <c r="F77" s="16">
+        <v>1</v>
+      </c>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16">
+        <v>0</v>
+      </c>
+      <c r="I77" s="16">
+        <v>0</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L77" s="19">
         <v>5</v>
       </c>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="16">
-        <v>10312</v>
-      </c>
-      <c r="J77" s="16">
-        <v>1</v>
-      </c>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O77" s="16">
-        <v>0</v>
-      </c>
-      <c r="P77" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="16">
-        <v>1</v>
-      </c>
+      <c r="M77" s="15">
+        <v>0</v>
+      </c>
+      <c r="N77" s="15">
+        <v>10</v>
+      </c>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
       <c r="R77" s="16">
         <v>99</v>
       </c>
       <c r="S77" s="16"/>
       <c r="T77" s="16"/>
       <c r="U77" s="16"/>
-      <c r="V77" s="27"/>
+      <c r="V77" s="23"/>
     </row>
     <row r="78" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A78" s="15"/>
+      <c r="A78" s="11">
+        <v>76</v>
+      </c>
       <c r="B78" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="19">
+      <c r="E78" s="16">
+        <v>10313</v>
+      </c>
+      <c r="F78" s="16">
+        <v>1</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16">
+        <v>0</v>
+      </c>
+      <c r="I78" s="16">
+        <v>0</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L78" s="19">
         <v>5</v>
       </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="16">
-        <v>10313</v>
-      </c>
-      <c r="J78" s="16">
-        <v>1</v>
-      </c>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O78" s="16">
-        <v>0</v>
-      </c>
-      <c r="P78" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="16">
-        <v>1</v>
-      </c>
+      <c r="M78" s="15">
+        <v>0</v>
+      </c>
+      <c r="N78" s="15">
+        <v>10</v>
+      </c>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
       <c r="R78" s="16">
         <v>99</v>
       </c>
       <c r="S78" s="16"/>
       <c r="T78" s="16"/>
       <c r="U78" s="16"/>
-      <c r="V78" s="27"/>
+      <c r="V78" s="23"/>
     </row>
     <row r="79" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A79" s="15"/>
+      <c r="A79" s="11">
+        <v>77</v>
+      </c>
       <c r="B79" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19">
+      <c r="E79" s="16">
+        <v>10314</v>
+      </c>
+      <c r="F79" s="16">
+        <v>1</v>
+      </c>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16">
+        <v>0</v>
+      </c>
+      <c r="I79" s="16">
+        <v>0</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L79" s="19">
         <v>5</v>
       </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="16">
-        <v>10314</v>
-      </c>
-      <c r="J79" s="16">
-        <v>1</v>
-      </c>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O79" s="16">
-        <v>0</v>
-      </c>
-      <c r="P79" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="16">
-        <v>1</v>
-      </c>
+      <c r="M79" s="15">
+        <v>0</v>
+      </c>
+      <c r="N79" s="15">
+        <v>10</v>
+      </c>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
       <c r="R79" s="16">
         <v>99</v>
       </c>
       <c r="S79" s="16"/>
       <c r="T79" s="16"/>
       <c r="U79" s="16"/>
-      <c r="V79" s="27"/>
+      <c r="V79" s="23"/>
     </row>
     <row r="80" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A80" s="15"/>
+      <c r="A80" s="11">
+        <v>78</v>
+      </c>
       <c r="B80" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="19">
+      <c r="E80" s="16">
+        <v>10315</v>
+      </c>
+      <c r="F80" s="16">
+        <v>1</v>
+      </c>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16">
+        <v>0</v>
+      </c>
+      <c r="I80" s="16">
+        <v>0</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L80" s="19">
         <v>5</v>
       </c>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="16">
-        <v>10315</v>
-      </c>
-      <c r="J80" s="16">
-        <v>1</v>
-      </c>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O80" s="16">
-        <v>0</v>
-      </c>
-      <c r="P80" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="16">
-        <v>1</v>
-      </c>
+      <c r="M80" s="15">
+        <v>0</v>
+      </c>
+      <c r="N80" s="15">
+        <v>10</v>
+      </c>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
       <c r="R80" s="16">
         <v>99</v>
       </c>
       <c r="S80" s="16"/>
       <c r="T80" s="16"/>
       <c r="U80" s="16"/>
-      <c r="V80" s="27"/>
+      <c r="V80" s="23"/>
     </row>
     <row r="81" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A81" s="15"/>
+      <c r="A81" s="11">
+        <v>79</v>
+      </c>
       <c r="B81" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="19">
+      <c r="E81" s="16">
+        <v>10317</v>
+      </c>
+      <c r="F81" s="16">
+        <v>1</v>
+      </c>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16">
+        <v>0</v>
+      </c>
+      <c r="I81" s="16">
+        <v>0</v>
+      </c>
+      <c r="J81" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L81" s="19">
         <v>5</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="16">
-        <v>10317</v>
-      </c>
-      <c r="J81" s="16">
-        <v>1</v>
-      </c>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O81" s="16">
-        <v>0</v>
-      </c>
-      <c r="P81" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="16">
-        <v>1</v>
-      </c>
+      <c r="M81" s="15">
+        <v>0</v>
+      </c>
+      <c r="N81" s="15">
+        <v>10</v>
+      </c>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
       <c r="R81" s="16">
         <v>99</v>
       </c>
       <c r="S81" s="16"/>
       <c r="T81" s="16"/>
       <c r="U81" s="16"/>
-      <c r="V81" s="27"/>
+      <c r="V81" s="23"/>
     </row>
     <row r="82" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A82" s="15"/>
+      <c r="A82" s="11">
+        <v>80</v>
+      </c>
       <c r="B82" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="19">
+      <c r="E82" s="16">
+        <v>10318</v>
+      </c>
+      <c r="F82" s="16">
+        <v>1</v>
+      </c>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16">
+        <v>0</v>
+      </c>
+      <c r="I82" s="16">
+        <v>0</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L82" s="19">
         <v>5</v>
       </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="16">
-        <v>10318</v>
-      </c>
-      <c r="J82" s="16">
-        <v>1</v>
-      </c>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O82" s="16">
-        <v>0</v>
-      </c>
-      <c r="P82" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="16">
-        <v>1</v>
-      </c>
+      <c r="M82" s="15">
+        <v>0</v>
+      </c>
+      <c r="N82" s="15">
+        <v>10</v>
+      </c>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
       <c r="R82" s="16">
         <v>99</v>
       </c>
       <c r="S82" s="16"/>
       <c r="T82" s="16"/>
       <c r="U82" s="16"/>
-      <c r="V82" s="27"/>
+      <c r="V82" s="23"/>
     </row>
     <row r="83" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A83" s="15"/>
+      <c r="A83" s="11">
+        <v>81</v>
+      </c>
       <c r="B83" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="19">
+      <c r="E83" s="16">
+        <v>1279</v>
+      </c>
+      <c r="F83" s="16">
+        <v>1</v>
+      </c>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16">
+        <v>0</v>
+      </c>
+      <c r="I83" s="16">
+        <v>0</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L83" s="19">
         <v>2</v>
       </c>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="16">
-        <v>1279</v>
-      </c>
-      <c r="J83" s="16">
-        <v>1</v>
-      </c>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O83" s="16">
-        <v>0</v>
-      </c>
-      <c r="P83" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="16">
-        <v>1</v>
-      </c>
+      <c r="M83" s="15">
+        <v>0</v>
+      </c>
+      <c r="N83" s="15">
+        <v>10</v>
+      </c>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
       <c r="R83" s="16">
         <v>99</v>
       </c>
       <c r="S83" s="16"/>
       <c r="T83" s="16"/>
       <c r="U83" s="16"/>
-      <c r="V83" s="27"/>
+      <c r="V83" s="23"/>
     </row>
     <row r="84" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A84" s="15"/>
+      <c r="A84" s="11">
+        <v>82</v>
+      </c>
       <c r="B84" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="19">
+      <c r="E84" s="16">
+        <v>1280</v>
+      </c>
+      <c r="F84" s="16">
+        <v>1</v>
+      </c>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16">
+        <v>0</v>
+      </c>
+      <c r="I84" s="16">
+        <v>0</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K84" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L84" s="19">
         <v>3</v>
       </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="16">
-        <v>1280</v>
-      </c>
-      <c r="J84" s="16">
-        <v>1</v>
-      </c>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O84" s="16">
-        <v>0</v>
-      </c>
-      <c r="P84" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="16">
-        <v>1</v>
-      </c>
+      <c r="M84" s="15">
+        <v>0</v>
+      </c>
+      <c r="N84" s="15">
+        <v>10</v>
+      </c>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
       <c r="R84" s="16">
         <v>99</v>
       </c>
       <c r="S84" s="16"/>
       <c r="T84" s="16"/>
       <c r="U84" s="16"/>
-      <c r="V84" s="27"/>
+      <c r="V84" s="23"/>
     </row>
     <row r="85" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A85" s="15"/>
+      <c r="A85" s="11">
+        <v>83</v>
+      </c>
       <c r="B85" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="19">
+      <c r="E85" s="16">
+        <v>1281</v>
+      </c>
+      <c r="F85" s="16">
+        <v>1</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16">
+        <v>0</v>
+      </c>
+      <c r="I85" s="16">
+        <v>0</v>
+      </c>
+      <c r="J85" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K85" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L85" s="19">
         <v>4</v>
       </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="16">
-        <v>1281</v>
-      </c>
-      <c r="J85" s="16">
-        <v>1</v>
-      </c>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O85" s="16">
-        <v>0</v>
-      </c>
-      <c r="P85" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="16">
-        <v>1</v>
-      </c>
+      <c r="M85" s="15">
+        <v>0</v>
+      </c>
+      <c r="N85" s="15">
+        <v>10</v>
+      </c>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
       <c r="R85" s="16">
         <v>99</v>
       </c>
       <c r="S85" s="16"/>
       <c r="T85" s="16"/>
       <c r="U85" s="16"/>
-      <c r="V85" s="27"/>
+      <c r="V85" s="23"/>
     </row>
     <row r="86" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A86" s="15"/>
+      <c r="A86" s="11">
+        <v>84</v>
+      </c>
       <c r="B86" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="19">
+      <c r="E86" s="16">
+        <v>1282</v>
+      </c>
+      <c r="F86" s="16">
+        <v>1</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16">
+        <v>0</v>
+      </c>
+      <c r="I86" s="16">
+        <v>0</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K86" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L86" s="19">
         <v>5</v>
       </c>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="16">
-        <v>1282</v>
-      </c>
-      <c r="J86" s="16">
-        <v>1</v>
-      </c>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O86" s="16">
-        <v>0</v>
-      </c>
-      <c r="P86" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="16">
-        <v>1</v>
-      </c>
+      <c r="M86" s="15">
+        <v>0</v>
+      </c>
+      <c r="N86" s="15">
+        <v>10</v>
+      </c>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
       <c r="R86" s="16">
         <v>99</v>
       </c>
       <c r="S86" s="16"/>
       <c r="T86" s="16"/>
       <c r="U86" s="16"/>
-      <c r="V86" s="27"/>
+      <c r="V86" s="23"/>
     </row>
     <row r="87" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A87" s="15"/>
+      <c r="A87" s="11">
+        <v>85</v>
+      </c>
       <c r="B87" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="19">
+      <c r="E87" s="16">
+        <v>1283</v>
+      </c>
+      <c r="F87" s="16">
+        <v>1</v>
+      </c>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16">
+        <v>0</v>
+      </c>
+      <c r="I87" s="16">
+        <v>0</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K87" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L87" s="19">
         <v>3</v>
       </c>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="16">
-        <v>1283</v>
-      </c>
-      <c r="J87" s="16">
-        <v>1</v>
-      </c>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O87" s="16">
-        <v>0</v>
-      </c>
-      <c r="P87" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="16">
-        <v>1</v>
-      </c>
+      <c r="M87" s="15">
+        <v>0</v>
+      </c>
+      <c r="N87" s="15">
+        <v>10</v>
+      </c>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
       <c r="R87" s="16">
         <v>99</v>
       </c>
       <c r="S87" s="16"/>
       <c r="T87" s="16"/>
       <c r="U87" s="16"/>
-      <c r="V87" s="27"/>
+      <c r="V87" s="23"/>
     </row>
     <row r="88" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A88" s="15"/>
+      <c r="A88" s="11">
+        <v>86</v>
+      </c>
       <c r="B88" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="19">
+      <c r="E88" s="16">
+        <v>1284</v>
+      </c>
+      <c r="F88" s="16">
+        <v>1</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16">
+        <v>0</v>
+      </c>
+      <c r="I88" s="16">
+        <v>0</v>
+      </c>
+      <c r="J88" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K88" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L88" s="19">
         <v>4</v>
       </c>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="16">
-        <v>1284</v>
-      </c>
-      <c r="J88" s="16">
-        <v>1</v>
-      </c>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O88" s="16">
-        <v>0</v>
-      </c>
-      <c r="P88" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="16">
-        <v>1</v>
-      </c>
+      <c r="M88" s="15">
+        <v>0</v>
+      </c>
+      <c r="N88" s="15">
+        <v>10</v>
+      </c>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
       <c r="R88" s="16">
         <v>99</v>
       </c>
       <c r="S88" s="16"/>
       <c r="T88" s="16"/>
       <c r="U88" s="16"/>
-      <c r="V88" s="27"/>
+      <c r="V88" s="23"/>
     </row>
     <row r="89" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A89" s="15"/>
+      <c r="A89" s="11">
+        <v>87</v>
+      </c>
       <c r="B89" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="19">
+      <c r="E89" s="16">
+        <v>1285</v>
+      </c>
+      <c r="F89" s="16">
+        <v>1</v>
+      </c>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16">
+        <v>0</v>
+      </c>
+      <c r="I89" s="16">
+        <v>0</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L89" s="19">
         <v>5</v>
       </c>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="16">
-        <v>1285</v>
-      </c>
-      <c r="J89" s="16">
-        <v>1</v>
-      </c>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O89" s="16">
-        <v>0</v>
-      </c>
-      <c r="P89" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="16">
-        <v>1</v>
-      </c>
+      <c r="M89" s="15">
+        <v>0</v>
+      </c>
+      <c r="N89" s="15">
+        <v>10</v>
+      </c>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
       <c r="R89" s="16">
         <v>99</v>
       </c>
       <c r="S89" s="16"/>
       <c r="T89" s="16"/>
       <c r="U89" s="16"/>
-      <c r="V89" s="27"/>
+      <c r="V89" s="23"/>
     </row>
     <row r="90" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A90" s="15"/>
+      <c r="A90" s="11">
+        <v>88</v>
+      </c>
       <c r="B90" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="19">
+      <c r="E90" s="16">
+        <v>1005</v>
+      </c>
+      <c r="F90" s="16">
+        <v>10000</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H90" s="16">
+        <v>1</v>
+      </c>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="19">
         <v>2</v>
       </c>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="16">
-        <v>1005</v>
-      </c>
-      <c r="J90" s="16">
-        <v>10000</v>
-      </c>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16">
-        <v>1</v>
-      </c>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16">
-        <v>1</v>
-      </c>
+      <c r="M90" s="15">
+        <v>0</v>
+      </c>
+      <c r="N90" s="15">
+        <v>10</v>
+      </c>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
       <c r="R90" s="16">
         <v>1</v>
       </c>
@@ -6695,101 +7450,109 @@
         <v>1</v>
       </c>
       <c r="T90" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U90" s="16"/>
-      <c r="V90" s="27"/>
+      <c r="V90" s="23"/>
     </row>
     <row r="91" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A91" s="15"/>
+      <c r="A91" s="11">
+        <v>89</v>
+      </c>
       <c r="B91" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="19">
+      <c r="E91" s="16">
+        <v>1005</v>
+      </c>
+      <c r="F91" s="16">
+        <v>20000</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H91" s="16">
+        <v>2</v>
+      </c>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="19">
         <v>3</v>
       </c>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="16">
+      <c r="M91" s="15">
+        <v>0</v>
+      </c>
+      <c r="N91" s="15">
+        <v>10</v>
+      </c>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="16">
+        <v>1</v>
+      </c>
+      <c r="S91" s="16">
+        <v>1</v>
+      </c>
+      <c r="T91" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="U91" s="16"/>
+      <c r="V91" s="23"/>
+    </row>
+    <row r="92" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A92" s="11">
+        <v>90</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="25"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="26">
         <v>1005</v>
       </c>
-      <c r="J91" s="16">
-        <v>20000</v>
-      </c>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="16" t="s">
+      <c r="F92" s="26">
+        <v>30000</v>
+      </c>
+      <c r="G92" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16">
+      <c r="H92" s="26">
         <v>2</v>
       </c>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16">
-        <v>1</v>
-      </c>
-      <c r="R91" s="16">
-        <v>1</v>
-      </c>
-      <c r="S91" s="16">
-        <v>1</v>
-      </c>
-      <c r="T91" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="U91" s="16"/>
-      <c r="V91" s="27"/>
-    </row>
-    <row r="92" ht="18.5" customHeight="1" spans="1:22">
-      <c r="A92" s="28"/>
-      <c r="B92" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="31">
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="27">
         <v>4</v>
       </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="32">
-        <v>1005</v>
-      </c>
-      <c r="J92" s="32">
-        <v>30000</v>
-      </c>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="N92" s="32"/>
-      <c r="O92" s="32">
-        <v>2</v>
-      </c>
-      <c r="P92" s="32"/>
-      <c r="Q92" s="32">
-        <v>1</v>
-      </c>
-      <c r="R92" s="32">
-        <v>1</v>
-      </c>
-      <c r="S92" s="32">
-        <v>1</v>
-      </c>
-      <c r="T92" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="U92" s="32"/>
-      <c r="V92" s="33"/>
+      <c r="M92" s="15">
+        <v>0</v>
+      </c>
+      <c r="N92" s="15">
+        <v>10</v>
+      </c>
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="26">
+        <v>1</v>
+      </c>
+      <c r="S92" s="26">
+        <v>1</v>
+      </c>
+      <c r="T92" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="U92" s="26"/>
+      <c r="V92" s="28"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:X92" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V92" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="T2:U2">
@@ -6797,7 +7560,7 @@
       <formula>"弃用"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -6809,7 +7572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M1048576">
+  <conditionalFormatting sqref="G4:G1048576">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>

--- a/excels/config/server/shop/server_shop_list.xlsx
+++ b/excels/config/server/shop/server_shop_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_shop_class" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="186">
   <si>
     <t>分类id</t>
   </si>
@@ -133,15 +133,19 @@
     <t>复购后自动转换（避免使用rmb购买出现问题）</t>
   </si>
   <si>
-    <t>单次购买限制</t>
+    <t>单次购买限制
+仅供参考</t>
   </si>
   <si>
     <t>限购次数（和服务器配置不一样）</t>
   </si>
   <si>
-    <t>限购时间(和服务器配置不一样)
-D日限购
-N终身限购</t>
+    <t xml:space="preserve">限购时间(和服务器配置不一样)
+D_X X日限购
+W_X X周限购
+N_0不限
+XG终限购
+</t>
   </si>
   <si>
     <t>开始购买时间</t>
@@ -151,6 +155,12 @@
   </si>
   <si>
     <t>goods_id</t>
+  </si>
+  <si>
+    <t>#Loccustom_text_goods_{}</t>
+  </si>
+  <si>
+    <t>#Loccustom_text_goods_{}_desc</t>
   </si>
   <si>
     <t>AbilityTextureName</t>
@@ -212,13 +222,16 @@
 通关奖励中，技能精通经验获取率+10%，地图经验获取率+10%，通关翡翠获取率+20%(和终身卡叠加)</t>
   </si>
   <si>
+    <t>item_store/默认商品图标0</t>
+  </si>
+  <si>
     <t>1001_3000</t>
   </si>
   <si>
     <t>rmb_30</t>
   </si>
   <si>
-    <t>N</t>
+    <t>N_0</t>
   </si>
   <si>
     <t>终身特权</t>
@@ -232,10 +245,16 @@
 额外效果：魂石升级概率+10%，图鉴合成金币消耗-20%</t>
   </si>
   <si>
+    <t>item_store/默认商品图标1</t>
+  </si>
+  <si>
     <t>1001_9800,1201_10</t>
   </si>
   <si>
     <t>rmb_98</t>
+  </si>
+  <si>
+    <t>XG</t>
   </si>
   <si>
     <t>天辉信物</t>
@@ -250,6 +269,9 @@
 *天辉任务奖励+30%</t>
   </si>
   <si>
+    <t>item_store/默认商品图标2</t>
+  </si>
+  <si>
     <t>夜魇信物</t>
   </si>
   <si>
@@ -261,6 +283,9 @@
 *夜魇任务奖励+30%</t>
   </si>
   <si>
+    <t>item_store/默认商品图标3</t>
+  </si>
+  <si>
     <t>灵魂战刃</t>
   </si>
   <si>
@@ -298,7 +323,7 @@
     <t>1001_6800</t>
   </si>
   <si>
-    <t>D</t>
+    <t>D_1</t>
   </si>
   <si>
     <t>图鉴箱礼包·中</t>
@@ -591,6 +616,9 @@
   </si>
   <si>
     <t>1003_1000</t>
+  </si>
+  <si>
+    <t>0_0</t>
   </si>
   <si>
     <t>每日月卡礼包</t>
@@ -1022,7 +1050,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1128,37 +1156,7 @@
         <color theme="1" tint="0.6"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
         <color theme="1" tint="0.6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.6"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.6"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="1" tint="0.6"/>
@@ -1439,7 +1437,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1451,34 +1449,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1563,7 +1561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1618,70 +1616,64 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2477,16 +2469,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{14CD5876-29D6-4F63-93C6-283E1EC3146E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9598BFCE-FE8E-4100-BD64-C0BAD9A5EFF1}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0FF256BD-F3AD-47EE-92C9-3B74FC4CACCB}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4774615A-73C3-4CBB-AA31-24F9AD335408}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{38EA8E2D-4C01-43EC-99E1-AA9DA20F89AA}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{74CD9D9F-2E57-4475-88C1-E08E1F194349}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2500,7 +2492,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="7"/>
       <tableStyleElement type="lastTotalCell" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{FFFAD8FB-9637-4299-A18F-5EF7D412B80E}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BD88162D-60AC-404B-85B5-EC85E487D6A3}">
       <tableStyleElement type="wholeTable" dxfId="27"/>
       <tableStyleElement type="headerRow" dxfId="26"/>
       <tableStyleElement type="totalRow" dxfId="25"/>
@@ -2816,7 +2808,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2828,158 +2820,158 @@
   </cols>
   <sheetData>
     <row r="1" ht="117" customHeight="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:6">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:6">
-      <c r="A3" s="35">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="36">
-        <v>0</v>
-      </c>
-      <c r="E3" s="36">
-        <v>0</v>
-      </c>
-      <c r="F3" s="37">
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:6">
-      <c r="A4" s="35">
+      <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="38">
-        <v>1</v>
-      </c>
-      <c r="E4" s="38">
-        <v>1</v>
-      </c>
-      <c r="F4" s="39">
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:6">
-      <c r="A5" s="35">
+      <c r="A5" s="33">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>2</v>
       </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="39">
+      <c r="E5" s="36">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:6">
-      <c r="A6" s="35">
+      <c r="A6" s="33">
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>3</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>2</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:6">
-      <c r="A7" s="35">
+      <c r="A7" s="33">
         <v>5</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>4</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>2</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:6">
-      <c r="A8" s="35">
+      <c r="A8" s="33">
         <v>6</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>5</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>2</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="37">
         <v>1</v>
       </c>
     </row>
@@ -2994,18 +2986,18 @@
   <sheetPr/>
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.0083333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.3416666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.3416666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.0083333333333" style="3" customWidth="1"/>
@@ -3089,7 +3081,7 @@
       <c r="U1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3097,62 +3089,66 @@
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D2" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="84.5" customHeight="1" spans="1:22">
@@ -3160,12 +3156,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="15">
         <v>20000</v>
       </c>
@@ -3173,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12">
         <v>0</v>
@@ -3182,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" s="15">
         <v>5</v>
@@ -3199,33 +3197,43 @@
       <c r="O3" s="12"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
       <c r="T3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0</v>
+      </c>
+      <c r="V3" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="150.5" customHeight="1" spans="1:22">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19">
+        <v>63</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="18">
         <v>20001</v>
       </c>
       <c r="F4" s="16">
         <v>1</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H4" s="16">
         <v>0</v>
@@ -3234,12 +3242,12 @@
         <v>1</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="19">
+        <v>66</v>
+      </c>
+      <c r="L4" s="18">
         <v>5</v>
       </c>
       <c r="M4" s="15">
@@ -3248,9 +3256,9 @@
       <c r="N4" s="15">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="16">
         <v>1</v>
       </c>
@@ -3258,23 +3266,29 @@
         <v>1</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0</v>
+      </c>
+      <c r="V4" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="117.5" customHeight="1" spans="1:22">
       <c r="A5" s="11">
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19">
+        <v>69</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="18">
         <v>20003</v>
       </c>
       <c r="F5" s="16">
@@ -3288,12 +3302,12 @@
         <v>1</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="19">
+        <v>66</v>
+      </c>
+      <c r="L5" s="18">
         <v>5</v>
       </c>
       <c r="M5" s="15">
@@ -3302,9 +3316,9 @@
       <c r="N5" s="15">
         <v>10</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
       <c r="R5" s="16">
         <v>1</v>
       </c>
@@ -3312,23 +3326,29 @@
         <v>1</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="U5" s="12">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="101" customHeight="1" spans="1:22">
       <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19">
+        <v>72</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="18">
         <v>20004</v>
       </c>
       <c r="F6" s="16">
@@ -3342,12 +3362,12 @@
         <v>1</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="19">
+        <v>66</v>
+      </c>
+      <c r="L6" s="18">
         <v>5</v>
       </c>
       <c r="M6" s="15">
@@ -3356,9 +3376,9 @@
       <c r="N6" s="15">
         <v>10</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
       <c r="R6" s="16">
         <v>1</v>
       </c>
@@ -3366,23 +3386,29 @@
         <v>1</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0</v>
+      </c>
+      <c r="V6" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="101" customHeight="1" spans="1:22">
       <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19">
+        <v>75</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="18">
         <v>20005</v>
       </c>
       <c r="F7" s="16">
@@ -3396,12 +3422,12 @@
         <v>1</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="19">
+        <v>76</v>
+      </c>
+      <c r="L7" s="18">
         <v>5</v>
       </c>
       <c r="M7" s="15">
@@ -3410,9 +3436,9 @@
       <c r="N7" s="15">
         <v>10</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="16">
         <v>1</v>
       </c>
@@ -3420,23 +3446,29 @@
         <v>1</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="V7" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:22">
       <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19">
+        <v>78</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="18">
         <v>1201</v>
       </c>
       <c r="F8" s="16">
@@ -3450,12 +3482,12 @@
         <v>0</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="19">
+        <v>79</v>
+      </c>
+      <c r="L8" s="18">
         <v>5</v>
       </c>
       <c r="M8" s="15">
@@ -3464,9 +3496,9 @@
       <c r="N8" s="15">
         <v>10</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="16">
         <v>1</v>
       </c>
@@ -3474,30 +3506,36 @@
         <v>1</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:22">
       <c r="A9" s="11">
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
+        <v>81</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="18">
         <v>3501</v>
       </c>
       <c r="F9" s="16">
         <v>10</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H9" s="16">
         <v>0</v>
@@ -3506,12 +3544,12 @@
         <v>0</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="19">
+        <v>83</v>
+      </c>
+      <c r="L9" s="18">
         <v>3</v>
       </c>
       <c r="M9" s="15">
@@ -3520,9 +3558,9 @@
       <c r="N9" s="15">
         <v>10</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
       <c r="R9" s="16">
         <v>3</v>
       </c>
@@ -3530,30 +3568,36 @@
         <v>3</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:22">
       <c r="A10" s="11">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19">
+        <v>86</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="18">
         <v>3501</v>
       </c>
       <c r="F10" s="16">
         <v>20</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H10" s="16">
         <v>0</v>
@@ -3562,12 +3606,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="19">
+        <v>88</v>
+      </c>
+      <c r="L10" s="18">
         <v>4</v>
       </c>
       <c r="M10" s="15">
@@ -3576,9 +3620,9 @@
       <c r="N10" s="15">
         <v>10</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="16">
         <v>3</v>
       </c>
@@ -3586,30 +3630,36 @@
         <v>3</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:22">
       <c r="A11" s="11">
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19">
+        <v>90</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="18">
         <v>3501</v>
       </c>
       <c r="F11" s="16">
         <v>50</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H11" s="16">
         <v>0</v>
@@ -3618,12 +3668,12 @@
         <v>0</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="19">
+        <v>79</v>
+      </c>
+      <c r="L11" s="18">
         <v>5</v>
       </c>
       <c r="M11" s="15">
@@ -3632,9 +3682,9 @@
       <c r="N11" s="15">
         <v>10</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="16">
         <v>3</v>
       </c>
@@ -3642,23 +3692,29 @@
         <v>3</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0</v>
+      </c>
+      <c r="V11" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:22">
       <c r="A12" s="11">
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19">
+        <v>93</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="18">
         <v>1201</v>
       </c>
       <c r="F12" s="16">
@@ -3672,12 +3728,12 @@
         <v>0</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="19">
+        <v>59</v>
+      </c>
+      <c r="L12" s="18">
         <v>3</v>
       </c>
       <c r="M12" s="15">
@@ -3686,9 +3742,9 @@
       <c r="N12" s="15">
         <v>10</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="16">
         <v>1</v>
       </c>
@@ -3696,23 +3752,29 @@
         <v>1</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="18.5" customHeight="1" spans="1:22">
       <c r="A13" s="11">
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19">
+        <v>95</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="18">
         <v>1201</v>
       </c>
       <c r="F13" s="16">
@@ -3726,12 +3788,12 @@
         <v>0</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="19">
+        <v>96</v>
+      </c>
+      <c r="L13" s="18">
         <v>2</v>
       </c>
       <c r="M13" s="15">
@@ -3740,29 +3802,39 @@
       <c r="N13" s="15">
         <v>10</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="16">
         <v>99</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="23"/>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:22">
       <c r="A14" s="11">
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19">
+        <v>98</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="18">
         <v>1287</v>
       </c>
       <c r="F14" s="16">
@@ -3776,12 +3848,12 @@
         <v>0</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="19">
+        <v>83</v>
+      </c>
+      <c r="L14" s="18">
         <v>5</v>
       </c>
       <c r="M14" s="15">
@@ -3790,9 +3862,9 @@
       <c r="N14" s="15">
         <v>10</v>
       </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="16">
         <v>1</v>
       </c>
@@ -3800,22 +3872,28 @@
         <v>1</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="U14" s="12">
+        <v>0</v>
+      </c>
+      <c r="V14" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="1:22">
       <c r="A15" s="11">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E15" s="16">
         <v>10000</v>
       </c>
@@ -3830,12 +3908,12 @@
         <v>0</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="19">
+        <v>101</v>
+      </c>
+      <c r="L15" s="18">
         <v>2</v>
       </c>
       <c r="M15" s="15">
@@ -3844,26 +3922,36 @@
       <c r="N15" s="15">
         <v>10</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
       <c r="R15" s="16">
         <v>99</v>
       </c>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="23"/>
+      <c r="S15" s="16">
+        <v>0</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0</v>
+      </c>
+      <c r="V15" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="18.5" customHeight="1" spans="1:22">
       <c r="A16" s="11">
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E16" s="16">
         <v>10001</v>
       </c>
@@ -3878,12 +3966,12 @@
         <v>0</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="19">
+        <v>101</v>
+      </c>
+      <c r="L16" s="18">
         <v>2</v>
       </c>
       <c r="M16" s="15">
@@ -3892,26 +3980,36 @@
       <c r="N16" s="15">
         <v>10</v>
       </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="16">
         <v>99</v>
       </c>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="23"/>
+      <c r="S16" s="16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:22">
       <c r="A17" s="11">
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E17" s="16">
         <v>10002</v>
       </c>
@@ -3926,12 +4024,12 @@
         <v>0</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="19">
+        <v>101</v>
+      </c>
+      <c r="L17" s="18">
         <v>2</v>
       </c>
       <c r="M17" s="15">
@@ -3940,26 +4038,36 @@
       <c r="N17" s="15">
         <v>10</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
       <c r="R17" s="16">
         <v>99</v>
       </c>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="23"/>
+      <c r="S17" s="16">
+        <v>0</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0</v>
+      </c>
+      <c r="V17" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="1:22">
       <c r="A18" s="11">
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E18" s="16">
         <v>10003</v>
       </c>
@@ -3974,12 +4082,12 @@
         <v>0</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="19">
+        <v>101</v>
+      </c>
+      <c r="L18" s="18">
         <v>2</v>
       </c>
       <c r="M18" s="15">
@@ -3988,26 +4096,36 @@
       <c r="N18" s="15">
         <v>10</v>
       </c>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
       <c r="R18" s="16">
         <v>99</v>
       </c>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="23"/>
+      <c r="S18" s="16">
+        <v>0</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U18" s="12">
+        <v>0</v>
+      </c>
+      <c r="V18" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:22">
       <c r="A19" s="11">
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E19" s="16">
         <v>10004</v>
       </c>
@@ -4022,12 +4140,12 @@
         <v>0</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="19">
+        <v>101</v>
+      </c>
+      <c r="L19" s="18">
         <v>2</v>
       </c>
       <c r="M19" s="15">
@@ -4036,26 +4154,36 @@
       <c r="N19" s="15">
         <v>10</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
       <c r="R19" s="16">
         <v>99</v>
       </c>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="23"/>
+      <c r="S19" s="16">
+        <v>0</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0</v>
+      </c>
+      <c r="V19" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:22">
       <c r="A20" s="11">
         <v>18</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E20" s="16">
         <v>10005</v>
       </c>
@@ -4070,12 +4198,12 @@
         <v>0</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="19">
+        <v>101</v>
+      </c>
+      <c r="L20" s="18">
         <v>2</v>
       </c>
       <c r="M20" s="15">
@@ -4084,26 +4212,36 @@
       <c r="N20" s="15">
         <v>10</v>
       </c>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
       <c r="R20" s="16">
         <v>99</v>
       </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="23"/>
+      <c r="S20" s="16">
+        <v>0</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U20" s="12">
+        <v>0</v>
+      </c>
+      <c r="V20" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:22">
       <c r="A21" s="11">
         <v>19</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="D21" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E21" s="16">
         <v>10006</v>
       </c>
@@ -4118,12 +4256,12 @@
         <v>0</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="19">
+        <v>101</v>
+      </c>
+      <c r="L21" s="18">
         <v>2</v>
       </c>
       <c r="M21" s="15">
@@ -4132,26 +4270,36 @@
       <c r="N21" s="15">
         <v>10</v>
       </c>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
       <c r="R21" s="16">
         <v>99</v>
       </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="23"/>
+      <c r="S21" s="16">
+        <v>0</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U21" s="12">
+        <v>0</v>
+      </c>
+      <c r="V21" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:22">
       <c r="A22" s="11">
         <v>20</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E22" s="16">
         <v>10007</v>
       </c>
@@ -4166,12 +4314,12 @@
         <v>0</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" s="19">
+        <v>101</v>
+      </c>
+      <c r="L22" s="18">
         <v>2</v>
       </c>
       <c r="M22" s="15">
@@ -4180,26 +4328,36 @@
       <c r="N22" s="15">
         <v>10</v>
       </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="16">
         <v>99</v>
       </c>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="23"/>
+      <c r="S22" s="16">
+        <v>0</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U22" s="12">
+        <v>0</v>
+      </c>
+      <c r="V22" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:22">
       <c r="A23" s="11">
         <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E23" s="16">
         <v>10008</v>
       </c>
@@ -4214,12 +4372,12 @@
         <v>0</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="19">
+        <v>101</v>
+      </c>
+      <c r="L23" s="18">
         <v>2</v>
       </c>
       <c r="M23" s="15">
@@ -4228,26 +4386,36 @@
       <c r="N23" s="15">
         <v>10</v>
       </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="16">
         <v>99</v>
       </c>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="23"/>
+      <c r="S23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U23" s="12">
+        <v>0</v>
+      </c>
+      <c r="V23" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="1:22">
       <c r="A24" s="11">
         <v>22</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E24" s="16">
         <v>10009</v>
       </c>
@@ -4262,12 +4430,12 @@
         <v>0</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="19">
+        <v>101</v>
+      </c>
+      <c r="L24" s="18">
         <v>2</v>
       </c>
       <c r="M24" s="15">
@@ -4276,26 +4444,36 @@
       <c r="N24" s="15">
         <v>10</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
       <c r="R24" s="16">
         <v>99</v>
       </c>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="23"/>
+      <c r="S24" s="16">
+        <v>0</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24" s="12">
+        <v>0</v>
+      </c>
+      <c r="V24" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" ht="18.5" customHeight="1" spans="1:22">
       <c r="A25" s="11">
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E25" s="16">
         <v>10010</v>
       </c>
@@ -4310,12 +4488,12 @@
         <v>0</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="19">
+        <v>101</v>
+      </c>
+      <c r="L25" s="18">
         <v>2</v>
       </c>
       <c r="M25" s="15">
@@ -4324,26 +4502,36 @@
       <c r="N25" s="15">
         <v>10</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="16">
         <v>99</v>
       </c>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="23"/>
+      <c r="S25" s="16">
+        <v>0</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U25" s="12">
+        <v>0</v>
+      </c>
+      <c r="V25" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" ht="18.5" customHeight="1" spans="1:22">
       <c r="A26" s="11">
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E26" s="16">
         <v>10011</v>
       </c>
@@ -4358,12 +4546,12 @@
         <v>0</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="19">
+        <v>101</v>
+      </c>
+      <c r="L26" s="18">
         <v>2</v>
       </c>
       <c r="M26" s="15">
@@ -4372,26 +4560,36 @@
       <c r="N26" s="15">
         <v>10</v>
       </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
       <c r="R26" s="16">
         <v>99</v>
       </c>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="23"/>
+      <c r="S26" s="16">
+        <v>0</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U26" s="12">
+        <v>0</v>
+      </c>
+      <c r="V26" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" ht="18.5" customHeight="1" spans="1:22">
       <c r="A27" s="11">
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E27" s="16">
         <v>10012</v>
       </c>
@@ -4406,12 +4604,12 @@
         <v>0</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L27" s="19">
+        <v>101</v>
+      </c>
+      <c r="L27" s="18">
         <v>2</v>
       </c>
       <c r="M27" s="15">
@@ -4420,26 +4618,36 @@
       <c r="N27" s="15">
         <v>10</v>
       </c>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
       <c r="R27" s="16">
         <v>99</v>
       </c>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="23"/>
+      <c r="S27" s="16">
+        <v>0</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U27" s="12">
+        <v>0</v>
+      </c>
+      <c r="V27" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" ht="18.5" customHeight="1" spans="1:22">
       <c r="A28" s="11">
         <v>26</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E28" s="16">
         <v>10013</v>
       </c>
@@ -4454,12 +4662,12 @@
         <v>0</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" s="19">
+        <v>101</v>
+      </c>
+      <c r="L28" s="18">
         <v>2</v>
       </c>
       <c r="M28" s="15">
@@ -4468,26 +4676,36 @@
       <c r="N28" s="15">
         <v>10</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
       <c r="R28" s="16">
         <v>99</v>
       </c>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="23"/>
+      <c r="S28" s="16">
+        <v>0</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U28" s="12">
+        <v>0</v>
+      </c>
+      <c r="V28" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" ht="18.5" customHeight="1" spans="1:22">
       <c r="A29" s="11">
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E29" s="16">
         <v>10014</v>
       </c>
@@ -4502,12 +4720,12 @@
         <v>0</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L29" s="19">
+        <v>101</v>
+      </c>
+      <c r="L29" s="18">
         <v>2</v>
       </c>
       <c r="M29" s="15">
@@ -4516,26 +4734,36 @@
       <c r="N29" s="15">
         <v>10</v>
       </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
       <c r="R29" s="16">
         <v>99</v>
       </c>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="23"/>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U29" s="12">
+        <v>0</v>
+      </c>
+      <c r="V29" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" ht="18.5" customHeight="1" spans="1:22">
       <c r="A30" s="11">
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E30" s="16">
         <v>10016</v>
       </c>
@@ -4550,12 +4778,12 @@
         <v>0</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L30" s="19">
+        <v>101</v>
+      </c>
+      <c r="L30" s="18">
         <v>2</v>
       </c>
       <c r="M30" s="15">
@@ -4564,27 +4792,37 @@
       <c r="N30" s="15">
         <v>10</v>
       </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
       <c r="R30" s="16">
         <v>99</v>
       </c>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="23"/>
+      <c r="S30" s="16">
+        <v>0</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U30" s="12">
+        <v>0</v>
+      </c>
+      <c r="V30" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="1:22">
       <c r="A31" s="11">
         <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19">
+      <c r="D31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="18">
         <v>10017</v>
       </c>
       <c r="F31" s="16">
@@ -4598,12 +4836,12 @@
         <v>0</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" s="19">
+        <v>101</v>
+      </c>
+      <c r="L31" s="18">
         <v>2</v>
       </c>
       <c r="M31" s="15">
@@ -4612,26 +4850,36 @@
       <c r="N31" s="15">
         <v>10</v>
       </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
       <c r="R31" s="16">
         <v>99</v>
       </c>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="23"/>
+      <c r="S31" s="16">
+        <v>0</v>
+      </c>
+      <c r="T31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U31" s="12">
+        <v>0</v>
+      </c>
+      <c r="V31" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:22">
       <c r="A32" s="11">
         <v>30</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E32" s="16">
         <v>10101</v>
       </c>
@@ -4646,12 +4894,12 @@
         <v>0</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L32" s="19">
+        <v>119</v>
+      </c>
+      <c r="L32" s="18">
         <v>3</v>
       </c>
       <c r="M32" s="15">
@@ -4660,26 +4908,36 @@
       <c r="N32" s="15">
         <v>10</v>
       </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
       <c r="R32" s="16">
         <v>99</v>
       </c>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="23"/>
+      <c r="S32" s="16">
+        <v>0</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U32" s="12">
+        <v>0</v>
+      </c>
+      <c r="V32" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" ht="18.5" customHeight="1" spans="1:22">
       <c r="A33" s="11">
         <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E33" s="16">
         <v>10102</v>
       </c>
@@ -4694,12 +4952,12 @@
         <v>0</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L33" s="19">
+        <v>119</v>
+      </c>
+      <c r="L33" s="18">
         <v>3</v>
       </c>
       <c r="M33" s="15">
@@ -4708,26 +4966,36 @@
       <c r="N33" s="15">
         <v>10</v>
       </c>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
       <c r="R33" s="16">
         <v>99</v>
       </c>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="23"/>
+      <c r="S33" s="16">
+        <v>0</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U33" s="12">
+        <v>0</v>
+      </c>
+      <c r="V33" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" ht="18.5" customHeight="1" spans="1:22">
       <c r="A34" s="11">
         <v>32</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E34" s="16">
         <v>10103</v>
       </c>
@@ -4742,12 +5010,12 @@
         <v>0</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L34" s="19">
+        <v>119</v>
+      </c>
+      <c r="L34" s="18">
         <v>3</v>
       </c>
       <c r="M34" s="15">
@@ -4756,26 +5024,36 @@
       <c r="N34" s="15">
         <v>10</v>
       </c>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
       <c r="R34" s="16">
         <v>99</v>
       </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="23"/>
+      <c r="S34" s="16">
+        <v>0</v>
+      </c>
+      <c r="T34" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U34" s="12">
+        <v>0</v>
+      </c>
+      <c r="V34" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" ht="18.5" customHeight="1" spans="1:22">
       <c r="A35" s="11">
         <v>33</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E35" s="16">
         <v>10104</v>
       </c>
@@ -4790,12 +5068,12 @@
         <v>0</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L35" s="19">
+        <v>119</v>
+      </c>
+      <c r="L35" s="18">
         <v>3</v>
       </c>
       <c r="M35" s="15">
@@ -4804,26 +5082,36 @@
       <c r="N35" s="15">
         <v>10</v>
       </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
       <c r="R35" s="16">
         <v>99</v>
       </c>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="23"/>
+      <c r="S35" s="16">
+        <v>0</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U35" s="12">
+        <v>0</v>
+      </c>
+      <c r="V35" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" ht="18.5" customHeight="1" spans="1:22">
       <c r="A36" s="11">
         <v>34</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
+      <c r="D36" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E36" s="16">
         <v>10105</v>
       </c>
@@ -4838,12 +5126,12 @@
         <v>0</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L36" s="19">
+        <v>119</v>
+      </c>
+      <c r="L36" s="18">
         <v>3</v>
       </c>
       <c r="M36" s="15">
@@ -4852,26 +5140,36 @@
       <c r="N36" s="15">
         <v>10</v>
       </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
       <c r="R36" s="16">
         <v>99</v>
       </c>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="23"/>
+      <c r="S36" s="16">
+        <v>0</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U36" s="12">
+        <v>0</v>
+      </c>
+      <c r="V36" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" ht="18.5" customHeight="1" spans="1:22">
       <c r="A37" s="11">
         <v>35</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E37" s="16">
         <v>10106</v>
       </c>
@@ -4886,12 +5184,12 @@
         <v>0</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L37" s="19">
+        <v>119</v>
+      </c>
+      <c r="L37" s="18">
         <v>3</v>
       </c>
       <c r="M37" s="15">
@@ -4900,26 +5198,36 @@
       <c r="N37" s="15">
         <v>10</v>
       </c>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
       <c r="R37" s="16">
         <v>99</v>
       </c>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="23"/>
+      <c r="S37" s="16">
+        <v>0</v>
+      </c>
+      <c r="T37" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U37" s="12">
+        <v>0</v>
+      </c>
+      <c r="V37" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" ht="18.5" customHeight="1" spans="1:22">
       <c r="A38" s="11">
         <v>36</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E38" s="16">
         <v>10107</v>
       </c>
@@ -4934,12 +5242,12 @@
         <v>0</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L38" s="19">
+        <v>119</v>
+      </c>
+      <c r="L38" s="18">
         <v>3</v>
       </c>
       <c r="M38" s="15">
@@ -4948,26 +5256,36 @@
       <c r="N38" s="15">
         <v>10</v>
       </c>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
       <c r="R38" s="16">
         <v>99</v>
       </c>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="23"/>
+      <c r="S38" s="16">
+        <v>0</v>
+      </c>
+      <c r="T38" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U38" s="12">
+        <v>0</v>
+      </c>
+      <c r="V38" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" ht="18.5" customHeight="1" spans="1:22">
       <c r="A39" s="11">
         <v>37</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
+      <c r="D39" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E39" s="16">
         <v>10108</v>
       </c>
@@ -4982,12 +5300,12 @@
         <v>0</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L39" s="19">
+        <v>119</v>
+      </c>
+      <c r="L39" s="18">
         <v>3</v>
       </c>
       <c r="M39" s="15">
@@ -4996,26 +5314,36 @@
       <c r="N39" s="15">
         <v>10</v>
       </c>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
       <c r="R39" s="16">
         <v>99</v>
       </c>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="23"/>
+      <c r="S39" s="16">
+        <v>0</v>
+      </c>
+      <c r="T39" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U39" s="12">
+        <v>0</v>
+      </c>
+      <c r="V39" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:22">
       <c r="A40" s="11">
         <v>38</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
+      <c r="D40" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E40" s="16">
         <v>10109</v>
       </c>
@@ -5030,12 +5358,12 @@
         <v>0</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L40" s="19">
+        <v>119</v>
+      </c>
+      <c r="L40" s="18">
         <v>3</v>
       </c>
       <c r="M40" s="15">
@@ -5044,26 +5372,36 @@
       <c r="N40" s="15">
         <v>10</v>
       </c>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
       <c r="R40" s="16">
         <v>99</v>
       </c>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="23"/>
+      <c r="S40" s="16">
+        <v>0</v>
+      </c>
+      <c r="T40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U40" s="12">
+        <v>0</v>
+      </c>
+      <c r="V40" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" ht="18.5" customHeight="1" spans="1:22">
       <c r="A41" s="11">
         <v>39</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
+      <c r="D41" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E41" s="16">
         <v>10110</v>
       </c>
@@ -5078,12 +5416,12 @@
         <v>0</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L41" s="19">
+        <v>119</v>
+      </c>
+      <c r="L41" s="18">
         <v>3</v>
       </c>
       <c r="M41" s="15">
@@ -5092,26 +5430,36 @@
       <c r="N41" s="15">
         <v>10</v>
       </c>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
       <c r="R41" s="16">
         <v>99</v>
       </c>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="23"/>
+      <c r="S41" s="16">
+        <v>0</v>
+      </c>
+      <c r="T41" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U41" s="12">
+        <v>0</v>
+      </c>
+      <c r="V41" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:22">
       <c r="A42" s="11">
         <v>40</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
+      <c r="D42" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E42" s="16">
         <v>10111</v>
       </c>
@@ -5126,12 +5474,12 @@
         <v>0</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L42" s="19">
+        <v>119</v>
+      </c>
+      <c r="L42" s="18">
         <v>3</v>
       </c>
       <c r="M42" s="15">
@@ -5140,26 +5488,36 @@
       <c r="N42" s="15">
         <v>10</v>
       </c>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
       <c r="R42" s="16">
         <v>99</v>
       </c>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="23"/>
+      <c r="S42" s="16">
+        <v>0</v>
+      </c>
+      <c r="T42" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U42" s="12">
+        <v>0</v>
+      </c>
+      <c r="V42" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" ht="18.5" customHeight="1" spans="1:22">
       <c r="A43" s="11">
         <v>41</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
+      <c r="D43" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E43" s="16">
         <v>10112</v>
       </c>
@@ -5174,12 +5532,12 @@
         <v>0</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L43" s="19">
+        <v>119</v>
+      </c>
+      <c r="L43" s="18">
         <v>3</v>
       </c>
       <c r="M43" s="15">
@@ -5188,26 +5546,36 @@
       <c r="N43" s="15">
         <v>10</v>
       </c>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
       <c r="R43" s="16">
         <v>99</v>
       </c>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="23"/>
+      <c r="S43" s="16">
+        <v>0</v>
+      </c>
+      <c r="T43" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U43" s="12">
+        <v>0</v>
+      </c>
+      <c r="V43" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" ht="18.5" customHeight="1" spans="1:22">
       <c r="A44" s="11">
         <v>42</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
+      <c r="D44" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E44" s="16">
         <v>10113</v>
       </c>
@@ -5222,12 +5590,12 @@
         <v>0</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L44" s="19">
+        <v>119</v>
+      </c>
+      <c r="L44" s="18">
         <v>3</v>
       </c>
       <c r="M44" s="15">
@@ -5236,26 +5604,36 @@
       <c r="N44" s="15">
         <v>10</v>
       </c>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
       <c r="R44" s="16">
         <v>99</v>
       </c>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="23"/>
+      <c r="S44" s="16">
+        <v>0</v>
+      </c>
+      <c r="T44" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U44" s="12">
+        <v>0</v>
+      </c>
+      <c r="V44" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" ht="18.5" customHeight="1" spans="1:22">
       <c r="A45" s="11">
         <v>43</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
+      <c r="D45" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E45" s="16">
         <v>10114</v>
       </c>
@@ -5270,12 +5648,12 @@
         <v>0</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L45" s="19">
+        <v>119</v>
+      </c>
+      <c r="L45" s="18">
         <v>3</v>
       </c>
       <c r="M45" s="15">
@@ -5284,26 +5662,36 @@
       <c r="N45" s="15">
         <v>10</v>
       </c>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
       <c r="R45" s="16">
         <v>99</v>
       </c>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="23"/>
+      <c r="S45" s="16">
+        <v>0</v>
+      </c>
+      <c r="T45" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U45" s="12">
+        <v>0</v>
+      </c>
+      <c r="V45" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:22">
       <c r="A46" s="11">
         <v>44</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
+      <c r="D46" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E46" s="16">
         <v>10115</v>
       </c>
@@ -5318,12 +5706,12 @@
         <v>0</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L46" s="19">
+        <v>119</v>
+      </c>
+      <c r="L46" s="18">
         <v>3</v>
       </c>
       <c r="M46" s="15">
@@ -5332,26 +5720,36 @@
       <c r="N46" s="15">
         <v>10</v>
       </c>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
       <c r="R46" s="16">
         <v>99</v>
       </c>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="23"/>
+      <c r="S46" s="16">
+        <v>0</v>
+      </c>
+      <c r="T46" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U46" s="12">
+        <v>0</v>
+      </c>
+      <c r="V46" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:22">
       <c r="A47" s="11">
         <v>45</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
+      <c r="D47" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E47" s="16">
         <v>10117</v>
       </c>
@@ -5366,12 +5764,12 @@
         <v>0</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L47" s="19">
+        <v>119</v>
+      </c>
+      <c r="L47" s="18">
         <v>3</v>
       </c>
       <c r="M47" s="15">
@@ -5380,26 +5778,36 @@
       <c r="N47" s="15">
         <v>10</v>
       </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
       <c r="R47" s="16">
         <v>99</v>
       </c>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="23"/>
+      <c r="S47" s="16">
+        <v>0</v>
+      </c>
+      <c r="T47" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U47" s="12">
+        <v>0</v>
+      </c>
+      <c r="V47" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:22">
       <c r="A48" s="11">
         <v>46</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
+      <c r="D48" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E48" s="16">
         <v>10118</v>
       </c>
@@ -5414,12 +5822,12 @@
         <v>0</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L48" s="19">
+        <v>119</v>
+      </c>
+      <c r="L48" s="18">
         <v>3</v>
       </c>
       <c r="M48" s="15">
@@ -5428,26 +5836,36 @@
       <c r="N48" s="15">
         <v>10</v>
       </c>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
       <c r="R48" s="16">
         <v>99</v>
       </c>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="23"/>
+      <c r="S48" s="16">
+        <v>0</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U48" s="12">
+        <v>0</v>
+      </c>
+      <c r="V48" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" ht="18.5" customHeight="1" spans="1:22">
       <c r="A49" s="11">
         <v>47</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
+      <c r="D49" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E49" s="16">
         <v>10201</v>
       </c>
@@ -5462,12 +5880,12 @@
         <v>0</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L49" s="19">
+        <v>137</v>
+      </c>
+      <c r="L49" s="18">
         <v>4</v>
       </c>
       <c r="M49" s="15">
@@ -5476,26 +5894,36 @@
       <c r="N49" s="15">
         <v>10</v>
       </c>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
       <c r="R49" s="16">
         <v>99</v>
       </c>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="23"/>
+      <c r="S49" s="16">
+        <v>0</v>
+      </c>
+      <c r="T49" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U49" s="12">
+        <v>0</v>
+      </c>
+      <c r="V49" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" ht="18.5" customHeight="1" spans="1:22">
       <c r="A50" s="11">
         <v>48</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
+      <c r="D50" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E50" s="16">
         <v>10202</v>
       </c>
@@ -5510,12 +5938,12 @@
         <v>0</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L50" s="19">
+        <v>137</v>
+      </c>
+      <c r="L50" s="18">
         <v>4</v>
       </c>
       <c r="M50" s="15">
@@ -5524,26 +5952,36 @@
       <c r="N50" s="15">
         <v>10</v>
       </c>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
       <c r="R50" s="16">
         <v>99</v>
       </c>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="23"/>
+      <c r="S50" s="16">
+        <v>0</v>
+      </c>
+      <c r="T50" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U50" s="12">
+        <v>0</v>
+      </c>
+      <c r="V50" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" ht="18.5" customHeight="1" spans="1:22">
       <c r="A51" s="11">
         <v>49</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
+      <c r="D51" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E51" s="16">
         <v>10203</v>
       </c>
@@ -5558,12 +5996,12 @@
         <v>0</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L51" s="19">
+        <v>137</v>
+      </c>
+      <c r="L51" s="18">
         <v>4</v>
       </c>
       <c r="M51" s="15">
@@ -5572,26 +6010,36 @@
       <c r="N51" s="15">
         <v>10</v>
       </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
       <c r="R51" s="16">
         <v>99</v>
       </c>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="23"/>
+      <c r="S51" s="16">
+        <v>0</v>
+      </c>
+      <c r="T51" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U51" s="12">
+        <v>0</v>
+      </c>
+      <c r="V51" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" ht="18.5" customHeight="1" spans="1:22">
       <c r="A52" s="11">
         <v>50</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
+      <c r="D52" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E52" s="16">
         <v>10204</v>
       </c>
@@ -5606,12 +6054,12 @@
         <v>0</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L52" s="19">
+        <v>137</v>
+      </c>
+      <c r="L52" s="18">
         <v>4</v>
       </c>
       <c r="M52" s="15">
@@ -5620,26 +6068,36 @@
       <c r="N52" s="15">
         <v>10</v>
       </c>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
       <c r="R52" s="16">
         <v>99</v>
       </c>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="23"/>
+      <c r="S52" s="16">
+        <v>0</v>
+      </c>
+      <c r="T52" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U52" s="12">
+        <v>0</v>
+      </c>
+      <c r="V52" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" ht="18.5" customHeight="1" spans="1:22">
       <c r="A53" s="11">
         <v>51</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
+      <c r="D53" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E53" s="16">
         <v>10205</v>
       </c>
@@ -5654,12 +6112,12 @@
         <v>0</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L53" s="19">
+        <v>137</v>
+      </c>
+      <c r="L53" s="18">
         <v>4</v>
       </c>
       <c r="M53" s="15">
@@ -5668,26 +6126,36 @@
       <c r="N53" s="15">
         <v>10</v>
       </c>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
       <c r="R53" s="16">
         <v>99</v>
       </c>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="23"/>
+      <c r="S53" s="16">
+        <v>0</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U53" s="12">
+        <v>0</v>
+      </c>
+      <c r="V53" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" ht="18.5" customHeight="1" spans="1:22">
       <c r="A54" s="11">
         <v>52</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
+      <c r="D54" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E54" s="16">
         <v>10206</v>
       </c>
@@ -5702,12 +6170,12 @@
         <v>0</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L54" s="19">
+        <v>137</v>
+      </c>
+      <c r="L54" s="18">
         <v>4</v>
       </c>
       <c r="M54" s="15">
@@ -5716,26 +6184,36 @@
       <c r="N54" s="15">
         <v>10</v>
       </c>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
       <c r="R54" s="16">
         <v>99</v>
       </c>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="23"/>
+      <c r="S54" s="16">
+        <v>0</v>
+      </c>
+      <c r="T54" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U54" s="12">
+        <v>0</v>
+      </c>
+      <c r="V54" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" ht="18.5" customHeight="1" spans="1:22">
       <c r="A55" s="11">
         <v>53</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
+      <c r="D55" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E55" s="16">
         <v>10207</v>
       </c>
@@ -5750,12 +6228,12 @@
         <v>0</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L55" s="19">
+        <v>137</v>
+      </c>
+      <c r="L55" s="18">
         <v>4</v>
       </c>
       <c r="M55" s="15">
@@ -5764,26 +6242,36 @@
       <c r="N55" s="15">
         <v>10</v>
       </c>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
       <c r="R55" s="16">
         <v>99</v>
       </c>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="23"/>
+      <c r="S55" s="16">
+        <v>0</v>
+      </c>
+      <c r="T55" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U55" s="12">
+        <v>0</v>
+      </c>
+      <c r="V55" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" ht="18.5" customHeight="1" spans="1:22">
       <c r="A56" s="11">
         <v>54</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
+      <c r="D56" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E56" s="16">
         <v>10208</v>
       </c>
@@ -5798,12 +6286,12 @@
         <v>0</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L56" s="19">
+        <v>137</v>
+      </c>
+      <c r="L56" s="18">
         <v>4</v>
       </c>
       <c r="M56" s="15">
@@ -5812,26 +6300,36 @@
       <c r="N56" s="15">
         <v>10</v>
       </c>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
       <c r="R56" s="16">
         <v>99</v>
       </c>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="23"/>
+      <c r="S56" s="16">
+        <v>0</v>
+      </c>
+      <c r="T56" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U56" s="12">
+        <v>0</v>
+      </c>
+      <c r="V56" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" ht="18.5" customHeight="1" spans="1:22">
       <c r="A57" s="11">
         <v>55</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
+      <c r="D57" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E57" s="16">
         <v>10209</v>
       </c>
@@ -5846,12 +6344,12 @@
         <v>0</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L57" s="19">
+        <v>137</v>
+      </c>
+      <c r="L57" s="18">
         <v>4</v>
       </c>
       <c r="M57" s="15">
@@ -5860,26 +6358,36 @@
       <c r="N57" s="15">
         <v>10</v>
       </c>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
       <c r="R57" s="16">
         <v>99</v>
       </c>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="23"/>
+      <c r="S57" s="16">
+        <v>0</v>
+      </c>
+      <c r="T57" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U57" s="12">
+        <v>0</v>
+      </c>
+      <c r="V57" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" ht="18.5" customHeight="1" spans="1:22">
       <c r="A58" s="11">
         <v>56</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
+      <c r="D58" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E58" s="16">
         <v>10210</v>
       </c>
@@ -5894,12 +6402,12 @@
         <v>0</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L58" s="19">
+        <v>137</v>
+      </c>
+      <c r="L58" s="18">
         <v>4</v>
       </c>
       <c r="M58" s="15">
@@ -5908,26 +6416,36 @@
       <c r="N58" s="15">
         <v>10</v>
       </c>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
       <c r="R58" s="16">
         <v>99</v>
       </c>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="23"/>
+      <c r="S58" s="16">
+        <v>0</v>
+      </c>
+      <c r="T58" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U58" s="12">
+        <v>0</v>
+      </c>
+      <c r="V58" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" ht="18.5" customHeight="1" spans="1:22">
       <c r="A59" s="11">
         <v>57</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
+      <c r="D59" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E59" s="16">
         <v>10211</v>
       </c>
@@ -5942,12 +6460,12 @@
         <v>0</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L59" s="19">
+        <v>137</v>
+      </c>
+      <c r="L59" s="18">
         <v>4</v>
       </c>
       <c r="M59" s="15">
@@ -5956,26 +6474,36 @@
       <c r="N59" s="15">
         <v>10</v>
       </c>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
       <c r="R59" s="16">
         <v>99</v>
       </c>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="23"/>
+      <c r="S59" s="16">
+        <v>0</v>
+      </c>
+      <c r="T59" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U59" s="12">
+        <v>0</v>
+      </c>
+      <c r="V59" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" ht="18.5" customHeight="1" spans="1:22">
       <c r="A60" s="11">
         <v>58</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C60" s="17"/>
-      <c r="D60" s="18"/>
+      <c r="D60" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E60" s="16">
         <v>10212</v>
       </c>
@@ -5990,12 +6518,12 @@
         <v>0</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L60" s="19">
+        <v>137</v>
+      </c>
+      <c r="L60" s="18">
         <v>4</v>
       </c>
       <c r="M60" s="15">
@@ -6004,26 +6532,36 @@
       <c r="N60" s="15">
         <v>10</v>
       </c>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
       <c r="R60" s="16">
         <v>99</v>
       </c>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="23"/>
+      <c r="S60" s="16">
+        <v>0</v>
+      </c>
+      <c r="T60" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U60" s="12">
+        <v>0</v>
+      </c>
+      <c r="V60" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" ht="18.5" customHeight="1" spans="1:22">
       <c r="A61" s="11">
         <v>59</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C61" s="17"/>
-      <c r="D61" s="18"/>
+      <c r="D61" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E61" s="16">
         <v>10213</v>
       </c>
@@ -6038,12 +6576,12 @@
         <v>0</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L61" s="19">
+        <v>137</v>
+      </c>
+      <c r="L61" s="18">
         <v>4</v>
       </c>
       <c r="M61" s="15">
@@ -6052,26 +6590,36 @@
       <c r="N61" s="15">
         <v>10</v>
       </c>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
       <c r="R61" s="16">
         <v>99</v>
       </c>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="23"/>
+      <c r="S61" s="16">
+        <v>0</v>
+      </c>
+      <c r="T61" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U61" s="12">
+        <v>0</v>
+      </c>
+      <c r="V61" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" ht="18.5" customHeight="1" spans="1:22">
       <c r="A62" s="11">
         <v>60</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
+      <c r="D62" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E62" s="16">
         <v>10214</v>
       </c>
@@ -6086,12 +6634,12 @@
         <v>0</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L62" s="19">
+        <v>137</v>
+      </c>
+      <c r="L62" s="18">
         <v>4</v>
       </c>
       <c r="M62" s="15">
@@ -6100,26 +6648,36 @@
       <c r="N62" s="15">
         <v>10</v>
       </c>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
       <c r="R62" s="16">
         <v>99</v>
       </c>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="23"/>
+      <c r="S62" s="16">
+        <v>0</v>
+      </c>
+      <c r="T62" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U62" s="12">
+        <v>0</v>
+      </c>
+      <c r="V62" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" ht="18.5" customHeight="1" spans="1:22">
       <c r="A63" s="11">
         <v>61</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
+      <c r="D63" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E63" s="16">
         <v>10215</v>
       </c>
@@ -6134,12 +6692,12 @@
         <v>0</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L63" s="19">
+        <v>137</v>
+      </c>
+      <c r="L63" s="18">
         <v>4</v>
       </c>
       <c r="M63" s="15">
@@ -6148,26 +6706,36 @@
       <c r="N63" s="15">
         <v>10</v>
       </c>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
       <c r="R63" s="16">
         <v>99</v>
       </c>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="23"/>
+      <c r="S63" s="16">
+        <v>0</v>
+      </c>
+      <c r="T63" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U63" s="12">
+        <v>0</v>
+      </c>
+      <c r="V63" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" ht="18.5" customHeight="1" spans="1:22">
       <c r="A64" s="11">
         <v>62</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
+      <c r="D64" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E64" s="16">
         <v>10217</v>
       </c>
@@ -6182,12 +6750,12 @@
         <v>0</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L64" s="19">
+        <v>137</v>
+      </c>
+      <c r="L64" s="18">
         <v>4</v>
       </c>
       <c r="M64" s="15">
@@ -6196,26 +6764,36 @@
       <c r="N64" s="15">
         <v>10</v>
       </c>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
       <c r="R64" s="16">
         <v>99</v>
       </c>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="23"/>
+      <c r="S64" s="16">
+        <v>0</v>
+      </c>
+      <c r="T64" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U64" s="12">
+        <v>0</v>
+      </c>
+      <c r="V64" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" ht="18.5" customHeight="1" spans="1:22">
       <c r="A65" s="11">
         <v>63</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
+      <c r="D65" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E65" s="16">
         <v>10218</v>
       </c>
@@ -6230,12 +6808,12 @@
         <v>0</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L65" s="19">
+        <v>137</v>
+      </c>
+      <c r="L65" s="18">
         <v>4</v>
       </c>
       <c r="M65" s="15">
@@ -6244,26 +6822,36 @@
       <c r="N65" s="15">
         <v>10</v>
       </c>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
       <c r="R65" s="16">
         <v>99</v>
       </c>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="23"/>
+      <c r="S65" s="16">
+        <v>0</v>
+      </c>
+      <c r="T65" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U65" s="12">
+        <v>0</v>
+      </c>
+      <c r="V65" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" ht="18.5" customHeight="1" spans="1:22">
       <c r="A66" s="11">
         <v>64</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
+      <c r="D66" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E66" s="16">
         <v>10301</v>
       </c>
@@ -6278,12 +6866,12 @@
         <v>0</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L66" s="19">
+        <v>155</v>
+      </c>
+      <c r="L66" s="18">
         <v>5</v>
       </c>
       <c r="M66" s="15">
@@ -6292,26 +6880,36 @@
       <c r="N66" s="15">
         <v>10</v>
       </c>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
       <c r="R66" s="16">
         <v>99</v>
       </c>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="23"/>
+      <c r="S66" s="16">
+        <v>0</v>
+      </c>
+      <c r="T66" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U66" s="12">
+        <v>0</v>
+      </c>
+      <c r="V66" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" ht="18.5" customHeight="1" spans="1:22">
       <c r="A67" s="11">
         <v>65</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
+      <c r="D67" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E67" s="16">
         <v>10302</v>
       </c>
@@ -6326,12 +6924,12 @@
         <v>0</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L67" s="19">
+        <v>155</v>
+      </c>
+      <c r="L67" s="18">
         <v>5</v>
       </c>
       <c r="M67" s="15">
@@ -6340,26 +6938,36 @@
       <c r="N67" s="15">
         <v>10</v>
       </c>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
       <c r="R67" s="16">
         <v>99</v>
       </c>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="23"/>
+      <c r="S67" s="16">
+        <v>0</v>
+      </c>
+      <c r="T67" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U67" s="12">
+        <v>0</v>
+      </c>
+      <c r="V67" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" ht="18.5" customHeight="1" spans="1:22">
       <c r="A68" s="11">
         <v>66</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
+      <c r="D68" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E68" s="16">
         <v>10303</v>
       </c>
@@ -6374,12 +6982,12 @@
         <v>0</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L68" s="19">
+        <v>155</v>
+      </c>
+      <c r="L68" s="18">
         <v>5</v>
       </c>
       <c r="M68" s="15">
@@ -6388,26 +6996,36 @@
       <c r="N68" s="15">
         <v>10</v>
       </c>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
       <c r="R68" s="16">
         <v>99</v>
       </c>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="23"/>
+      <c r="S68" s="16">
+        <v>0</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U68" s="12">
+        <v>0</v>
+      </c>
+      <c r="V68" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" ht="18.5" customHeight="1" spans="1:22">
       <c r="A69" s="11">
         <v>67</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C69" s="17"/>
-      <c r="D69" s="18"/>
+      <c r="D69" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E69" s="16">
         <v>10304</v>
       </c>
@@ -6422,12 +7040,12 @@
         <v>0</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L69" s="19">
+        <v>155</v>
+      </c>
+      <c r="L69" s="18">
         <v>5</v>
       </c>
       <c r="M69" s="15">
@@ -6436,26 +7054,36 @@
       <c r="N69" s="15">
         <v>10</v>
       </c>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
       <c r="R69" s="16">
         <v>99</v>
       </c>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="23"/>
+      <c r="S69" s="16">
+        <v>0</v>
+      </c>
+      <c r="T69" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U69" s="12">
+        <v>0</v>
+      </c>
+      <c r="V69" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" ht="18.5" customHeight="1" spans="1:22">
       <c r="A70" s="11">
         <v>68</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C70" s="17"/>
-      <c r="D70" s="18"/>
+      <c r="D70" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E70" s="16">
         <v>10305</v>
       </c>
@@ -6470,12 +7098,12 @@
         <v>0</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L70" s="19">
+        <v>155</v>
+      </c>
+      <c r="L70" s="18">
         <v>5</v>
       </c>
       <c r="M70" s="15">
@@ -6484,26 +7112,36 @@
       <c r="N70" s="15">
         <v>10</v>
       </c>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
       <c r="R70" s="16">
         <v>99</v>
       </c>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="23"/>
+      <c r="S70" s="16">
+        <v>0</v>
+      </c>
+      <c r="T70" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U70" s="12">
+        <v>0</v>
+      </c>
+      <c r="V70" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" ht="18.5" customHeight="1" spans="1:22">
       <c r="A71" s="11">
         <v>69</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C71" s="17"/>
-      <c r="D71" s="18"/>
+      <c r="D71" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E71" s="16">
         <v>10306</v>
       </c>
@@ -6518,12 +7156,12 @@
         <v>0</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K71" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L71" s="19">
+        <v>155</v>
+      </c>
+      <c r="L71" s="18">
         <v>5</v>
       </c>
       <c r="M71" s="15">
@@ -6532,26 +7170,36 @@
       <c r="N71" s="15">
         <v>10</v>
       </c>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
       <c r="R71" s="16">
         <v>99</v>
       </c>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="23"/>
+      <c r="S71" s="16">
+        <v>0</v>
+      </c>
+      <c r="T71" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U71" s="12">
+        <v>0</v>
+      </c>
+      <c r="V71" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" ht="18.5" customHeight="1" spans="1:22">
       <c r="A72" s="11">
         <v>70</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C72" s="17"/>
-      <c r="D72" s="18"/>
+      <c r="D72" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E72" s="16">
         <v>10307</v>
       </c>
@@ -6566,12 +7214,12 @@
         <v>0</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K72" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L72" s="19">
+        <v>155</v>
+      </c>
+      <c r="L72" s="18">
         <v>5</v>
       </c>
       <c r="M72" s="15">
@@ -6580,26 +7228,36 @@
       <c r="N72" s="15">
         <v>10</v>
       </c>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
       <c r="R72" s="16">
         <v>99</v>
       </c>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="23"/>
+      <c r="S72" s="16">
+        <v>0</v>
+      </c>
+      <c r="T72" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U72" s="12">
+        <v>0</v>
+      </c>
+      <c r="V72" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" ht="18.5" customHeight="1" spans="1:22">
       <c r="A73" s="11">
         <v>71</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C73" s="17"/>
-      <c r="D73" s="18"/>
+      <c r="D73" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E73" s="16">
         <v>10308</v>
       </c>
@@ -6614,12 +7272,12 @@
         <v>0</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L73" s="19">
+        <v>155</v>
+      </c>
+      <c r="L73" s="18">
         <v>5</v>
       </c>
       <c r="M73" s="15">
@@ -6628,26 +7286,36 @@
       <c r="N73" s="15">
         <v>10</v>
       </c>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
       <c r="R73" s="16">
         <v>99</v>
       </c>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="23"/>
+      <c r="S73" s="16">
+        <v>0</v>
+      </c>
+      <c r="T73" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U73" s="12">
+        <v>0</v>
+      </c>
+      <c r="V73" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" ht="18.5" customHeight="1" spans="1:22">
       <c r="A74" s="11">
         <v>72</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C74" s="17"/>
-      <c r="D74" s="18"/>
+      <c r="D74" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E74" s="16">
         <v>10309</v>
       </c>
@@ -6662,12 +7330,12 @@
         <v>0</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L74" s="19">
+        <v>155</v>
+      </c>
+      <c r="L74" s="18">
         <v>5</v>
       </c>
       <c r="M74" s="15">
@@ -6676,26 +7344,36 @@
       <c r="N74" s="15">
         <v>10</v>
       </c>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
       <c r="R74" s="16">
         <v>99</v>
       </c>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="23"/>
+      <c r="S74" s="16">
+        <v>0</v>
+      </c>
+      <c r="T74" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U74" s="12">
+        <v>0</v>
+      </c>
+      <c r="V74" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" ht="18.5" customHeight="1" spans="1:22">
       <c r="A75" s="11">
         <v>73</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C75" s="17"/>
-      <c r="D75" s="18"/>
+      <c r="D75" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E75" s="16">
         <v>10310</v>
       </c>
@@ -6710,12 +7388,12 @@
         <v>0</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L75" s="19">
+        <v>155</v>
+      </c>
+      <c r="L75" s="18">
         <v>5</v>
       </c>
       <c r="M75" s="15">
@@ -6724,26 +7402,36 @@
       <c r="N75" s="15">
         <v>10</v>
       </c>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
       <c r="R75" s="16">
         <v>99</v>
       </c>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="23"/>
+      <c r="S75" s="16">
+        <v>0</v>
+      </c>
+      <c r="T75" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U75" s="12">
+        <v>0</v>
+      </c>
+      <c r="V75" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" ht="18.5" customHeight="1" spans="1:22">
       <c r="A76" s="11">
         <v>74</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C76" s="17"/>
-      <c r="D76" s="18"/>
+      <c r="D76" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E76" s="16">
         <v>10311</v>
       </c>
@@ -6758,12 +7446,12 @@
         <v>0</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L76" s="19">
+        <v>155</v>
+      </c>
+      <c r="L76" s="18">
         <v>5</v>
       </c>
       <c r="M76" s="15">
@@ -6772,26 +7460,36 @@
       <c r="N76" s="15">
         <v>10</v>
       </c>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
       <c r="R76" s="16">
         <v>99</v>
       </c>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="23"/>
+      <c r="S76" s="16">
+        <v>0</v>
+      </c>
+      <c r="T76" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U76" s="12">
+        <v>0</v>
+      </c>
+      <c r="V76" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" ht="18.5" customHeight="1" spans="1:22">
       <c r="A77" s="11">
         <v>75</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C77" s="17"/>
-      <c r="D77" s="18"/>
+      <c r="D77" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E77" s="16">
         <v>10312</v>
       </c>
@@ -6806,12 +7504,12 @@
         <v>0</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L77" s="19">
+        <v>155</v>
+      </c>
+      <c r="L77" s="18">
         <v>5</v>
       </c>
       <c r="M77" s="15">
@@ -6820,26 +7518,36 @@
       <c r="N77" s="15">
         <v>10</v>
       </c>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
       <c r="R77" s="16">
         <v>99</v>
       </c>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="23"/>
+      <c r="S77" s="16">
+        <v>0</v>
+      </c>
+      <c r="T77" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U77" s="12">
+        <v>0</v>
+      </c>
+      <c r="V77" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" ht="18.5" customHeight="1" spans="1:22">
       <c r="A78" s="11">
         <v>76</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C78" s="17"/>
-      <c r="D78" s="18"/>
+      <c r="D78" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E78" s="16">
         <v>10313</v>
       </c>
@@ -6854,12 +7562,12 @@
         <v>0</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L78" s="19">
+        <v>155</v>
+      </c>
+      <c r="L78" s="18">
         <v>5</v>
       </c>
       <c r="M78" s="15">
@@ -6868,26 +7576,36 @@
       <c r="N78" s="15">
         <v>10</v>
       </c>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
       <c r="R78" s="16">
         <v>99</v>
       </c>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="23"/>
+      <c r="S78" s="16">
+        <v>0</v>
+      </c>
+      <c r="T78" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U78" s="12">
+        <v>0</v>
+      </c>
+      <c r="V78" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" ht="18.5" customHeight="1" spans="1:22">
       <c r="A79" s="11">
         <v>77</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C79" s="17"/>
-      <c r="D79" s="18"/>
+      <c r="D79" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E79" s="16">
         <v>10314</v>
       </c>
@@ -6902,12 +7620,12 @@
         <v>0</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L79" s="19">
+        <v>155</v>
+      </c>
+      <c r="L79" s="18">
         <v>5</v>
       </c>
       <c r="M79" s="15">
@@ -6916,26 +7634,36 @@
       <c r="N79" s="15">
         <v>10</v>
       </c>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
       <c r="R79" s="16">
         <v>99</v>
       </c>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="23"/>
+      <c r="S79" s="16">
+        <v>0</v>
+      </c>
+      <c r="T79" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U79" s="12">
+        <v>0</v>
+      </c>
+      <c r="V79" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" ht="18.5" customHeight="1" spans="1:22">
       <c r="A80" s="11">
         <v>78</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C80" s="17"/>
-      <c r="D80" s="18"/>
+      <c r="D80" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E80" s="16">
         <v>10315</v>
       </c>
@@ -6950,12 +7678,12 @@
         <v>0</v>
       </c>
       <c r="J80" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L80" s="19">
+        <v>155</v>
+      </c>
+      <c r="L80" s="18">
         <v>5</v>
       </c>
       <c r="M80" s="15">
@@ -6964,26 +7692,36 @@
       <c r="N80" s="15">
         <v>10</v>
       </c>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
       <c r="R80" s="16">
         <v>99</v>
       </c>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="23"/>
+      <c r="S80" s="16">
+        <v>0</v>
+      </c>
+      <c r="T80" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U80" s="12">
+        <v>0</v>
+      </c>
+      <c r="V80" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" ht="18.5" customHeight="1" spans="1:22">
       <c r="A81" s="11">
         <v>79</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C81" s="17"/>
-      <c r="D81" s="18"/>
+      <c r="D81" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E81" s="16">
         <v>10317</v>
       </c>
@@ -6998,12 +7736,12 @@
         <v>0</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L81" s="19">
+        <v>155</v>
+      </c>
+      <c r="L81" s="18">
         <v>5</v>
       </c>
       <c r="M81" s="15">
@@ -7012,26 +7750,36 @@
       <c r="N81" s="15">
         <v>10</v>
       </c>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
       <c r="R81" s="16">
         <v>99</v>
       </c>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="23"/>
+      <c r="S81" s="16">
+        <v>0</v>
+      </c>
+      <c r="T81" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U81" s="12">
+        <v>0</v>
+      </c>
+      <c r="V81" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" ht="18.5" customHeight="1" spans="1:22">
       <c r="A82" s="11">
         <v>80</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C82" s="17"/>
-      <c r="D82" s="18"/>
+      <c r="D82" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E82" s="16">
         <v>10318</v>
       </c>
@@ -7046,12 +7794,12 @@
         <v>0</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L82" s="19">
+        <v>155</v>
+      </c>
+      <c r="L82" s="18">
         <v>5</v>
       </c>
       <c r="M82" s="15">
@@ -7060,26 +7808,36 @@
       <c r="N82" s="15">
         <v>10</v>
       </c>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
       <c r="R82" s="16">
         <v>99</v>
       </c>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="23"/>
+      <c r="S82" s="16">
+        <v>0</v>
+      </c>
+      <c r="T82" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U82" s="12">
+        <v>0</v>
+      </c>
+      <c r="V82" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" ht="18.5" customHeight="1" spans="1:22">
       <c r="A83" s="11">
         <v>81</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C83" s="17"/>
-      <c r="D83" s="18"/>
+      <c r="D83" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E83" s="16">
         <v>1279</v>
       </c>
@@ -7094,12 +7852,12 @@
         <v>0</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L83" s="19">
+        <v>101</v>
+      </c>
+      <c r="L83" s="18">
         <v>2</v>
       </c>
       <c r="M83" s="15">
@@ -7108,26 +7866,36 @@
       <c r="N83" s="15">
         <v>10</v>
       </c>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
       <c r="R83" s="16">
         <v>99</v>
       </c>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="23"/>
+      <c r="S83" s="16">
+        <v>0</v>
+      </c>
+      <c r="T83" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U83" s="12">
+        <v>0</v>
+      </c>
+      <c r="V83" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" ht="18.5" customHeight="1" spans="1:22">
       <c r="A84" s="11">
         <v>82</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C84" s="17"/>
-      <c r="D84" s="18"/>
+      <c r="D84" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E84" s="16">
         <v>1280</v>
       </c>
@@ -7142,12 +7910,12 @@
         <v>0</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L84" s="19">
+        <v>119</v>
+      </c>
+      <c r="L84" s="18">
         <v>3</v>
       </c>
       <c r="M84" s="15">
@@ -7156,26 +7924,36 @@
       <c r="N84" s="15">
         <v>10</v>
       </c>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
       <c r="R84" s="16">
         <v>99</v>
       </c>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="23"/>
+      <c r="S84" s="16">
+        <v>0</v>
+      </c>
+      <c r="T84" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U84" s="12">
+        <v>0</v>
+      </c>
+      <c r="V84" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" ht="18.5" customHeight="1" spans="1:22">
       <c r="A85" s="11">
         <v>83</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C85" s="17"/>
-      <c r="D85" s="18"/>
+      <c r="D85" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E85" s="16">
         <v>1281</v>
       </c>
@@ -7190,12 +7968,12 @@
         <v>0</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L85" s="19">
+        <v>137</v>
+      </c>
+      <c r="L85" s="18">
         <v>4</v>
       </c>
       <c r="M85" s="15">
@@ -7204,26 +7982,36 @@
       <c r="N85" s="15">
         <v>10</v>
       </c>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
       <c r="R85" s="16">
         <v>99</v>
       </c>
-      <c r="S85" s="16"/>
-      <c r="T85" s="16"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="23"/>
+      <c r="S85" s="16">
+        <v>0</v>
+      </c>
+      <c r="T85" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U85" s="12">
+        <v>0</v>
+      </c>
+      <c r="V85" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" ht="18.5" customHeight="1" spans="1:22">
       <c r="A86" s="11">
         <v>84</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C86" s="17"/>
-      <c r="D86" s="18"/>
+      <c r="D86" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E86" s="16">
         <v>1282</v>
       </c>
@@ -7238,12 +8026,12 @@
         <v>0</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L86" s="19">
+        <v>155</v>
+      </c>
+      <c r="L86" s="18">
         <v>5</v>
       </c>
       <c r="M86" s="15">
@@ -7252,26 +8040,36 @@
       <c r="N86" s="15">
         <v>10</v>
       </c>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
       <c r="R86" s="16">
         <v>99</v>
       </c>
-      <c r="S86" s="16"/>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="23"/>
+      <c r="S86" s="16">
+        <v>0</v>
+      </c>
+      <c r="T86" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U86" s="12">
+        <v>0</v>
+      </c>
+      <c r="V86" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" ht="18.5" customHeight="1" spans="1:22">
       <c r="A87" s="11">
         <v>85</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C87" s="17"/>
-      <c r="D87" s="18"/>
+      <c r="D87" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E87" s="16">
         <v>1283</v>
       </c>
@@ -7286,12 +8084,12 @@
         <v>0</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L87" s="19">
+        <v>119</v>
+      </c>
+      <c r="L87" s="18">
         <v>3</v>
       </c>
       <c r="M87" s="15">
@@ -7300,26 +8098,36 @@
       <c r="N87" s="15">
         <v>10</v>
       </c>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
       <c r="R87" s="16">
         <v>99</v>
       </c>
-      <c r="S87" s="16"/>
-      <c r="T87" s="16"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="23"/>
+      <c r="S87" s="16">
+        <v>0</v>
+      </c>
+      <c r="T87" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U87" s="12">
+        <v>0</v>
+      </c>
+      <c r="V87" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" ht="18.5" customHeight="1" spans="1:22">
       <c r="A88" s="11">
         <v>86</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C88" s="17"/>
-      <c r="D88" s="18"/>
+      <c r="D88" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E88" s="16">
         <v>1284</v>
       </c>
@@ -7334,12 +8142,12 @@
         <v>0</v>
       </c>
       <c r="J88" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L88" s="19">
+        <v>137</v>
+      </c>
+      <c r="L88" s="18">
         <v>4</v>
       </c>
       <c r="M88" s="15">
@@ -7348,26 +8156,36 @@
       <c r="N88" s="15">
         <v>10</v>
       </c>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
       <c r="R88" s="16">
         <v>99</v>
       </c>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="23"/>
+      <c r="S88" s="16">
+        <v>0</v>
+      </c>
+      <c r="T88" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U88" s="12">
+        <v>0</v>
+      </c>
+      <c r="V88" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" ht="18.5" customHeight="1" spans="1:22">
       <c r="A89" s="11">
         <v>87</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C89" s="17"/>
-      <c r="D89" s="18"/>
+      <c r="D89" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="E89" s="16">
         <v>1285</v>
       </c>
@@ -7382,12 +8200,12 @@
         <v>0</v>
       </c>
       <c r="J89" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L89" s="19">
+        <v>155</v>
+      </c>
+      <c r="L89" s="18">
         <v>5</v>
       </c>
       <c r="M89" s="15">
@@ -7396,26 +8214,36 @@
       <c r="N89" s="15">
         <v>10</v>
       </c>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
       <c r="R89" s="16">
         <v>99</v>
       </c>
-      <c r="S89" s="16"/>
-      <c r="T89" s="16"/>
-      <c r="U89" s="16"/>
-      <c r="V89" s="23"/>
+      <c r="S89" s="16">
+        <v>0</v>
+      </c>
+      <c r="T89" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U89" s="12">
+        <v>0</v>
+      </c>
+      <c r="V89" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" ht="18.5" customHeight="1" spans="1:22">
       <c r="A90" s="11">
         <v>88</v>
       </c>
-      <c r="B90" s="18" t="s">
-        <v>172</v>
+      <c r="B90" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="C90" s="17"/>
-      <c r="D90" s="18"/>
+      <c r="D90" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="E90" s="16">
         <v>1005</v>
       </c>
@@ -7423,15 +8251,21 @@
         <v>10000</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H90" s="16">
         <v>1</v>
       </c>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="19">
+      <c r="I90" s="16">
+        <v>0</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="K90" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="L90" s="18">
         <v>2</v>
       </c>
       <c r="M90" s="15">
@@ -7440,9 +8274,9 @@
       <c r="N90" s="15">
         <v>10</v>
       </c>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
       <c r="R90" s="16">
         <v>1</v>
       </c>
@@ -7450,20 +8284,26 @@
         <v>1</v>
       </c>
       <c r="T90" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U90" s="16"/>
-      <c r="V90" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="U90" s="12">
+        <v>0</v>
+      </c>
+      <c r="V90" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" ht="18.5" customHeight="1" spans="1:22">
       <c r="A91" s="11">
         <v>89</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>174</v>
+      <c r="B91" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="C91" s="17"/>
-      <c r="D91" s="18"/>
+      <c r="D91" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="E91" s="16">
         <v>1005</v>
       </c>
@@ -7471,15 +8311,21 @@
         <v>20000</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H91" s="16">
         <v>2</v>
       </c>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="19">
+      <c r="I91" s="16">
+        <v>0</v>
+      </c>
+      <c r="J91" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="K91" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="L91" s="18">
         <v>3</v>
       </c>
       <c r="M91" s="15">
@@ -7488,9 +8334,9 @@
       <c r="N91" s="15">
         <v>10</v>
       </c>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
       <c r="R91" s="16">
         <v>1</v>
       </c>
@@ -7498,36 +8344,48 @@
         <v>1</v>
       </c>
       <c r="T91" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U91" s="16"/>
-      <c r="V91" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="U91" s="12">
+        <v>0</v>
+      </c>
+      <c r="V91" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" ht="18.5" customHeight="1" spans="1:22">
       <c r="A92" s="11">
         <v>90</v>
       </c>
-      <c r="B92" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="26">
+      <c r="B92" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" s="25">
         <v>1005</v>
       </c>
-      <c r="F92" s="26">
+      <c r="F92" s="25">
         <v>30000</v>
       </c>
-      <c r="G92" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H92" s="26">
+      <c r="G92" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H92" s="25">
         <v>2</v>
       </c>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26"/>
-      <c r="L92" s="27">
+      <c r="I92" s="25">
+        <v>0</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="K92" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="L92" s="26">
         <v>4</v>
       </c>
       <c r="M92" s="15">
@@ -7536,20 +8394,24 @@
       <c r="N92" s="15">
         <v>10</v>
       </c>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="26">
-        <v>1</v>
-      </c>
-      <c r="S92" s="26">
-        <v>1</v>
-      </c>
-      <c r="T92" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="U92" s="26"/>
-      <c r="V92" s="28"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="25">
+        <v>1</v>
+      </c>
+      <c r="S92" s="25">
+        <v>1</v>
+      </c>
+      <c r="T92" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U92" s="12">
+        <v>0</v>
+      </c>
+      <c r="V92" s="21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V92" etc:filterBottomFollowUsedRange="0">

--- a/excels/config/server/shop/server_shop_list.xlsx
+++ b/excels/config/server/shop/server_shop_list.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="187">
   <si>
     <t>分类id</t>
   </si>
@@ -42,44 +42,31 @@
     <t>描述</t>
   </si>
   <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>页面类型 
-1:商店
-2:导航栏+热卖
-3:抽奖
-4:充值页面</t>
-  </si>
-  <si>
-    <t>显示</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
     <t>热卖</t>
   </si>
   <si>
-    <t>XX商店</t>
-  </si>
-  <si>
-    <t>许愿</t>
-  </si>
-  <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>活动</t>
+    <t>会员</t>
+  </si>
+  <si>
+    <t>铂金</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>元素祈福</t>
+  </si>
+  <si>
+    <t>黄金兑换</t>
+  </si>
+  <si>
+    <t>成长礼</t>
   </si>
   <si>
     <t>商品引索</t>
@@ -125,6 +112,9 @@
   <si>
     <t>折扣标签
 (10为不打折)</t>
+  </si>
+  <si>
+    <t>排序</t>
   </si>
   <si>
     <t>商城类型</t>
@@ -196,6 +186,9 @@
     <t>discount</t>
   </si>
   <si>
+    <t>sort</t>
+  </si>
+  <si>
     <t>mall_category</t>
   </si>
   <si>
@@ -229,6 +222,9 @@
   </si>
   <si>
     <t>rmb_30</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
   </si>
   <si>
     <t>N_0</t>
@@ -363,7 +359,7 @@
     <t>1*元素卷轴</t>
   </si>
   <si>
-    <t>1001_600,1005_60000</t>
+    <t>1001_600</t>
   </si>
   <si>
     <t>每日魂石礼包</t>
@@ -613,6 +609,9 @@
   </si>
   <si>
     <t>每日登录礼包</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>1003_1000</t>
@@ -644,7 +643,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,25 +672,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF08090C"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1050,7 +1034,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1194,19 +1178,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -1224,19 +1195,6 @@
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.66"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1275,35 +1233,7 @@
         <color theme="1" tint="0.66"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color theme="1" tint="0.66"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.66"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.66"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.66"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.66"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.66"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="1" tint="0.66"/>
@@ -1431,137 +1361,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1649,32 +1579,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2806,20 +2724,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="117" customHeight="1" spans="1:6">
+    <row r="1" ht="117" customHeight="1" spans="1:3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2829,151 +2745,104 @@
       <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="28" t="s">
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:3">
+      <c r="A2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:3">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="C3" s="32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:3">
+      <c r="A4" s="31">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:6">
-      <c r="A2" s="30" t="s">
+      <c r="C4" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:3">
+      <c r="A5" s="31">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
+      <c r="C5" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="1:3">
+      <c r="A6" s="31">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="C6" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:3">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="C7" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:3">
+      <c r="A8" s="31">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:6">
-      <c r="A3" s="33">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:6">
-      <c r="A4" s="33">
+    </row>
+    <row r="9" ht="16.5" spans="1:3">
+      <c r="A9" s="31">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+    </row>
+    <row r="10" ht="16.5" spans="1:3">
+      <c r="A10" s="31">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
-      <c r="E4" s="36">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="33" customHeight="1" spans="1:6">
-      <c r="A5" s="33">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="36">
-        <v>2</v>
-      </c>
-      <c r="E5" s="36">
-        <v>1</v>
-      </c>
-      <c r="F5" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="33" customHeight="1" spans="1:6">
-      <c r="A6" s="33">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="36">
-        <v>3</v>
-      </c>
-      <c r="E6" s="36">
-        <v>2</v>
-      </c>
-      <c r="F6" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:6">
-      <c r="A7" s="33">
-        <v>5</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="36">
-        <v>4</v>
-      </c>
-      <c r="E7" s="36">
-        <v>2</v>
-      </c>
-      <c r="F7" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:6">
-      <c r="A8" s="33">
-        <v>6</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="36">
-        <v>5</v>
-      </c>
-      <c r="E8" s="36">
-        <v>2</v>
-      </c>
-      <c r="F8" s="37">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:1">
+      <c r="A11" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2987,11 +2856,11 @@
   <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3019,136 +2888,136 @@
   <sheetData>
     <row r="1" ht="107" customHeight="1" spans="1:22">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:22">
       <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="84.5" customHeight="1" spans="1:22">
@@ -3156,13 +3025,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="E3" s="15">
         <v>20000</v>
@@ -3171,31 +3040,33 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="15">
+        <v>3</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>10</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="15">
-        <v>5</v>
-      </c>
-      <c r="M3" s="15">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
-        <v>10</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="12">
         <v>0</v>
@@ -3257,7 +3128,9 @@
         <v>10</v>
       </c>
       <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
+      <c r="P4" s="15">
+        <v>3</v>
+      </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="16">
         <v>1</v>
@@ -3317,7 +3190,9 @@
         <v>10</v>
       </c>
       <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
+      <c r="P5" s="15">
+        <v>3</v>
+      </c>
       <c r="Q5" s="18"/>
       <c r="R5" s="16">
         <v>1</v>
@@ -3377,7 +3252,9 @@
         <v>10</v>
       </c>
       <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="P6" s="15">
+        <v>3</v>
+      </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="16">
         <v>1</v>
@@ -3406,7 +3283,7 @@
         <v>75</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="18">
         <v>20005</v>
@@ -3437,7 +3314,9 @@
         <v>10</v>
       </c>
       <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="P7" s="15">
+        <v>3</v>
+      </c>
       <c r="Q7" s="18"/>
       <c r="R7" s="16">
         <v>1</v>
@@ -3497,7 +3376,9 @@
         <v>10</v>
       </c>
       <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="P8" s="15">
+        <v>3</v>
+      </c>
       <c r="Q8" s="18"/>
       <c r="R8" s="16">
         <v>1</v>
@@ -3559,7 +3440,9 @@
         <v>10</v>
       </c>
       <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="P9" s="15">
+        <v>3</v>
+      </c>
       <c r="Q9" s="18"/>
       <c r="R9" s="16">
         <v>3</v>
@@ -3621,7 +3504,9 @@
         <v>10</v>
       </c>
       <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="P10" s="15">
+        <v>3</v>
+      </c>
       <c r="Q10" s="18"/>
       <c r="R10" s="16">
         <v>3</v>
@@ -3650,7 +3535,7 @@
         <v>90</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="18">
         <v>3501</v>
@@ -3683,7 +3568,9 @@
         <v>10</v>
       </c>
       <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="P11" s="15">
+        <v>3</v>
+      </c>
       <c r="Q11" s="18"/>
       <c r="R11" s="16">
         <v>3</v>
@@ -3728,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L12" s="18">
         <v>3</v>
@@ -3743,7 +3630,9 @@
         <v>10</v>
       </c>
       <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="P12" s="15">
+        <v>3</v>
+      </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="16">
         <v>1</v>
@@ -3803,7 +3692,9 @@
         <v>10</v>
       </c>
       <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
+      <c r="P13" s="15">
+        <v>3</v>
+      </c>
       <c r="Q13" s="18"/>
       <c r="R13" s="16">
         <v>99</v>
@@ -3863,7 +3754,9 @@
         <v>10</v>
       </c>
       <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
+      <c r="P14" s="15">
+        <v>3</v>
+      </c>
       <c r="Q14" s="18"/>
       <c r="R14" s="16">
         <v>1</v>
@@ -3914,7 +3807,7 @@
         <v>101</v>
       </c>
       <c r="L15" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
@@ -3923,7 +3816,9 @@
         <v>10</v>
       </c>
       <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15">
+        <v>3</v>
+      </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="16">
         <v>99</v>
@@ -3972,7 +3867,7 @@
         <v>101</v>
       </c>
       <c r="L16" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
@@ -3981,7 +3876,9 @@
         <v>10</v>
       </c>
       <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="P16" s="15">
+        <v>3</v>
+      </c>
       <c r="Q16" s="18"/>
       <c r="R16" s="16">
         <v>99</v>
@@ -4030,7 +3927,7 @@
         <v>101</v>
       </c>
       <c r="L17" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
@@ -4039,7 +3936,9 @@
         <v>10</v>
       </c>
       <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="P17" s="15">
+        <v>3</v>
+      </c>
       <c r="Q17" s="18"/>
       <c r="R17" s="16">
         <v>99</v>
@@ -4088,7 +3987,7 @@
         <v>101</v>
       </c>
       <c r="L18" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -4097,7 +3996,9 @@
         <v>10</v>
       </c>
       <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="P18" s="15">
+        <v>3</v>
+      </c>
       <c r="Q18" s="18"/>
       <c r="R18" s="16">
         <v>99</v>
@@ -4146,7 +4047,7 @@
         <v>101</v>
       </c>
       <c r="L19" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
@@ -4155,7 +4056,9 @@
         <v>10</v>
       </c>
       <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="P19" s="15">
+        <v>3</v>
+      </c>
       <c r="Q19" s="18"/>
       <c r="R19" s="16">
         <v>99</v>
@@ -4204,7 +4107,7 @@
         <v>101</v>
       </c>
       <c r="L20" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="15">
         <v>0</v>
@@ -4213,7 +4116,9 @@
         <v>10</v>
       </c>
       <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="P20" s="15">
+        <v>3</v>
+      </c>
       <c r="Q20" s="18"/>
       <c r="R20" s="16">
         <v>99</v>
@@ -4262,7 +4167,7 @@
         <v>101</v>
       </c>
       <c r="L21" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="15">
         <v>0</v>
@@ -4271,7 +4176,9 @@
         <v>10</v>
       </c>
       <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
+      <c r="P21" s="15">
+        <v>3</v>
+      </c>
       <c r="Q21" s="18"/>
       <c r="R21" s="16">
         <v>99</v>
@@ -4320,7 +4227,7 @@
         <v>101</v>
       </c>
       <c r="L22" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="15">
         <v>0</v>
@@ -4329,7 +4236,9 @@
         <v>10</v>
       </c>
       <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
+      <c r="P22" s="15">
+        <v>3</v>
+      </c>
       <c r="Q22" s="18"/>
       <c r="R22" s="16">
         <v>99</v>
@@ -4378,7 +4287,7 @@
         <v>101</v>
       </c>
       <c r="L23" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="15">
         <v>0</v>
@@ -4387,7 +4296,9 @@
         <v>10</v>
       </c>
       <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
+      <c r="P23" s="15">
+        <v>3</v>
+      </c>
       <c r="Q23" s="18"/>
       <c r="R23" s="16">
         <v>99</v>
@@ -4436,7 +4347,7 @@
         <v>101</v>
       </c>
       <c r="L24" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="15">
         <v>0</v>
@@ -4445,7 +4356,9 @@
         <v>10</v>
       </c>
       <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
+      <c r="P24" s="15">
+        <v>3</v>
+      </c>
       <c r="Q24" s="18"/>
       <c r="R24" s="16">
         <v>99</v>
@@ -4494,7 +4407,7 @@
         <v>101</v>
       </c>
       <c r="L25" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="15">
         <v>0</v>
@@ -4503,7 +4416,9 @@
         <v>10</v>
       </c>
       <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
+      <c r="P25" s="15">
+        <v>3</v>
+      </c>
       <c r="Q25" s="18"/>
       <c r="R25" s="16">
         <v>99</v>
@@ -4552,7 +4467,7 @@
         <v>101</v>
       </c>
       <c r="L26" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="15">
         <v>0</v>
@@ -4561,7 +4476,9 @@
         <v>10</v>
       </c>
       <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
+      <c r="P26" s="15">
+        <v>3</v>
+      </c>
       <c r="Q26" s="18"/>
       <c r="R26" s="16">
         <v>99</v>
@@ -4610,7 +4527,7 @@
         <v>101</v>
       </c>
       <c r="L27" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" s="15">
         <v>0</v>
@@ -4619,7 +4536,9 @@
         <v>10</v>
       </c>
       <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
+      <c r="P27" s="15">
+        <v>3</v>
+      </c>
       <c r="Q27" s="18"/>
       <c r="R27" s="16">
         <v>99</v>
@@ -4668,7 +4587,7 @@
         <v>101</v>
       </c>
       <c r="L28" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" s="15">
         <v>0</v>
@@ -4677,7 +4596,9 @@
         <v>10</v>
       </c>
       <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
+      <c r="P28" s="15">
+        <v>3</v>
+      </c>
       <c r="Q28" s="18"/>
       <c r="R28" s="16">
         <v>99</v>
@@ -4726,7 +4647,7 @@
         <v>101</v>
       </c>
       <c r="L29" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" s="15">
         <v>0</v>
@@ -4735,7 +4656,9 @@
         <v>10</v>
       </c>
       <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
+      <c r="P29" s="15">
+        <v>3</v>
+      </c>
       <c r="Q29" s="18"/>
       <c r="R29" s="16">
         <v>99</v>
@@ -4784,7 +4707,7 @@
         <v>101</v>
       </c>
       <c r="L30" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" s="15">
         <v>0</v>
@@ -4793,7 +4716,9 @@
         <v>10</v>
       </c>
       <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
+      <c r="P30" s="15">
+        <v>3</v>
+      </c>
       <c r="Q30" s="18"/>
       <c r="R30" s="16">
         <v>99</v>
@@ -4842,7 +4767,7 @@
         <v>101</v>
       </c>
       <c r="L31" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" s="15">
         <v>0</v>
@@ -4851,7 +4776,9 @@
         <v>10</v>
       </c>
       <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+      <c r="P31" s="15">
+        <v>3</v>
+      </c>
       <c r="Q31" s="18"/>
       <c r="R31" s="16">
         <v>99</v>
@@ -4900,7 +4827,7 @@
         <v>119</v>
       </c>
       <c r="L32" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" s="15">
         <v>0</v>
@@ -4909,7 +4836,9 @@
         <v>10</v>
       </c>
       <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
+      <c r="P32" s="15">
+        <v>3</v>
+      </c>
       <c r="Q32" s="18"/>
       <c r="R32" s="16">
         <v>99</v>
@@ -4958,7 +4887,7 @@
         <v>119</v>
       </c>
       <c r="L33" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33" s="15">
         <v>0</v>
@@ -4967,7 +4896,9 @@
         <v>10</v>
       </c>
       <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
+      <c r="P33" s="15">
+        <v>3</v>
+      </c>
       <c r="Q33" s="18"/>
       <c r="R33" s="16">
         <v>99</v>
@@ -5016,7 +4947,7 @@
         <v>119</v>
       </c>
       <c r="L34" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" s="15">
         <v>0</v>
@@ -5025,7 +4956,9 @@
         <v>10</v>
       </c>
       <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
+      <c r="P34" s="15">
+        <v>3</v>
+      </c>
       <c r="Q34" s="18"/>
       <c r="R34" s="16">
         <v>99</v>
@@ -5074,7 +5007,7 @@
         <v>119</v>
       </c>
       <c r="L35" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35" s="15">
         <v>0</v>
@@ -5083,7 +5016,9 @@
         <v>10</v>
       </c>
       <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
+      <c r="P35" s="15">
+        <v>3</v>
+      </c>
       <c r="Q35" s="18"/>
       <c r="R35" s="16">
         <v>99</v>
@@ -5132,7 +5067,7 @@
         <v>119</v>
       </c>
       <c r="L36" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36" s="15">
         <v>0</v>
@@ -5141,7 +5076,9 @@
         <v>10</v>
       </c>
       <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
+      <c r="P36" s="15">
+        <v>3</v>
+      </c>
       <c r="Q36" s="18"/>
       <c r="R36" s="16">
         <v>99</v>
@@ -5190,7 +5127,7 @@
         <v>119</v>
       </c>
       <c r="L37" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37" s="15">
         <v>0</v>
@@ -5199,7 +5136,9 @@
         <v>10</v>
       </c>
       <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
+      <c r="P37" s="15">
+        <v>3</v>
+      </c>
       <c r="Q37" s="18"/>
       <c r="R37" s="16">
         <v>99</v>
@@ -5248,7 +5187,7 @@
         <v>119</v>
       </c>
       <c r="L38" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38" s="15">
         <v>0</v>
@@ -5257,7 +5196,9 @@
         <v>10</v>
       </c>
       <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
+      <c r="P38" s="15">
+        <v>3</v>
+      </c>
       <c r="Q38" s="18"/>
       <c r="R38" s="16">
         <v>99</v>
@@ -5306,7 +5247,7 @@
         <v>119</v>
       </c>
       <c r="L39" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39" s="15">
         <v>0</v>
@@ -5315,7 +5256,9 @@
         <v>10</v>
       </c>
       <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
+      <c r="P39" s="15">
+        <v>3</v>
+      </c>
       <c r="Q39" s="18"/>
       <c r="R39" s="16">
         <v>99</v>
@@ -5364,7 +5307,7 @@
         <v>119</v>
       </c>
       <c r="L40" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40" s="15">
         <v>0</v>
@@ -5373,7 +5316,9 @@
         <v>10</v>
       </c>
       <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
+      <c r="P40" s="15">
+        <v>3</v>
+      </c>
       <c r="Q40" s="18"/>
       <c r="R40" s="16">
         <v>99</v>
@@ -5422,7 +5367,7 @@
         <v>119</v>
       </c>
       <c r="L41" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41" s="15">
         <v>0</v>
@@ -5431,7 +5376,9 @@
         <v>10</v>
       </c>
       <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
+      <c r="P41" s="15">
+        <v>3</v>
+      </c>
       <c r="Q41" s="18"/>
       <c r="R41" s="16">
         <v>99</v>
@@ -5480,7 +5427,7 @@
         <v>119</v>
       </c>
       <c r="L42" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42" s="15">
         <v>0</v>
@@ -5489,7 +5436,9 @@
         <v>10</v>
       </c>
       <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
+      <c r="P42" s="15">
+        <v>3</v>
+      </c>
       <c r="Q42" s="18"/>
       <c r="R42" s="16">
         <v>99</v>
@@ -5538,7 +5487,7 @@
         <v>119</v>
       </c>
       <c r="L43" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43" s="15">
         <v>0</v>
@@ -5547,7 +5496,9 @@
         <v>10</v>
       </c>
       <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
+      <c r="P43" s="15">
+        <v>3</v>
+      </c>
       <c r="Q43" s="18"/>
       <c r="R43" s="16">
         <v>99</v>
@@ -5596,7 +5547,7 @@
         <v>119</v>
       </c>
       <c r="L44" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M44" s="15">
         <v>0</v>
@@ -5605,7 +5556,9 @@
         <v>10</v>
       </c>
       <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
+      <c r="P44" s="15">
+        <v>3</v>
+      </c>
       <c r="Q44" s="18"/>
       <c r="R44" s="16">
         <v>99</v>
@@ -5654,7 +5607,7 @@
         <v>119</v>
       </c>
       <c r="L45" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M45" s="15">
         <v>0</v>
@@ -5663,7 +5616,9 @@
         <v>10</v>
       </c>
       <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
+      <c r="P45" s="15">
+        <v>3</v>
+      </c>
       <c r="Q45" s="18"/>
       <c r="R45" s="16">
         <v>99</v>
@@ -5712,7 +5667,7 @@
         <v>119</v>
       </c>
       <c r="L46" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46" s="15">
         <v>0</v>
@@ -5721,7 +5676,9 @@
         <v>10</v>
       </c>
       <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
+      <c r="P46" s="15">
+        <v>3</v>
+      </c>
       <c r="Q46" s="18"/>
       <c r="R46" s="16">
         <v>99</v>
@@ -5770,7 +5727,7 @@
         <v>119</v>
       </c>
       <c r="L47" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" s="15">
         <v>0</v>
@@ -5779,7 +5736,9 @@
         <v>10</v>
       </c>
       <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
+      <c r="P47" s="15">
+        <v>3</v>
+      </c>
       <c r="Q47" s="18"/>
       <c r="R47" s="16">
         <v>99</v>
@@ -5828,7 +5787,7 @@
         <v>119</v>
       </c>
       <c r="L48" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M48" s="15">
         <v>0</v>
@@ -5837,7 +5796,9 @@
         <v>10</v>
       </c>
       <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
+      <c r="P48" s="15">
+        <v>3</v>
+      </c>
       <c r="Q48" s="18"/>
       <c r="R48" s="16">
         <v>99</v>
@@ -5886,7 +5847,7 @@
         <v>137</v>
       </c>
       <c r="L49" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M49" s="15">
         <v>0</v>
@@ -5895,7 +5856,9 @@
         <v>10</v>
       </c>
       <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
+      <c r="P49" s="15">
+        <v>3</v>
+      </c>
       <c r="Q49" s="18"/>
       <c r="R49" s="16">
         <v>99</v>
@@ -5944,7 +5907,7 @@
         <v>137</v>
       </c>
       <c r="L50" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" s="15">
         <v>0</v>
@@ -5953,7 +5916,9 @@
         <v>10</v>
       </c>
       <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
+      <c r="P50" s="15">
+        <v>3</v>
+      </c>
       <c r="Q50" s="18"/>
       <c r="R50" s="16">
         <v>99</v>
@@ -6002,7 +5967,7 @@
         <v>137</v>
       </c>
       <c r="L51" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M51" s="15">
         <v>0</v>
@@ -6011,7 +5976,9 @@
         <v>10</v>
       </c>
       <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
+      <c r="P51" s="15">
+        <v>3</v>
+      </c>
       <c r="Q51" s="18"/>
       <c r="R51" s="16">
         <v>99</v>
@@ -6060,7 +6027,7 @@
         <v>137</v>
       </c>
       <c r="L52" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M52" s="15">
         <v>0</v>
@@ -6069,7 +6036,9 @@
         <v>10</v>
       </c>
       <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
+      <c r="P52" s="15">
+        <v>3</v>
+      </c>
       <c r="Q52" s="18"/>
       <c r="R52" s="16">
         <v>99</v>
@@ -6118,7 +6087,7 @@
         <v>137</v>
       </c>
       <c r="L53" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" s="15">
         <v>0</v>
@@ -6127,7 +6096,9 @@
         <v>10</v>
       </c>
       <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
+      <c r="P53" s="15">
+        <v>3</v>
+      </c>
       <c r="Q53" s="18"/>
       <c r="R53" s="16">
         <v>99</v>
@@ -6176,7 +6147,7 @@
         <v>137</v>
       </c>
       <c r="L54" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54" s="15">
         <v>0</v>
@@ -6185,7 +6156,9 @@
         <v>10</v>
       </c>
       <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
+      <c r="P54" s="15">
+        <v>3</v>
+      </c>
       <c r="Q54" s="18"/>
       <c r="R54" s="16">
         <v>99</v>
@@ -6234,7 +6207,7 @@
         <v>137</v>
       </c>
       <c r="L55" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M55" s="15">
         <v>0</v>
@@ -6243,7 +6216,9 @@
         <v>10</v>
       </c>
       <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
+      <c r="P55" s="15">
+        <v>3</v>
+      </c>
       <c r="Q55" s="18"/>
       <c r="R55" s="16">
         <v>99</v>
@@ -6292,7 +6267,7 @@
         <v>137</v>
       </c>
       <c r="L56" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M56" s="15">
         <v>0</v>
@@ -6301,7 +6276,9 @@
         <v>10</v>
       </c>
       <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
+      <c r="P56" s="15">
+        <v>3</v>
+      </c>
       <c r="Q56" s="18"/>
       <c r="R56" s="16">
         <v>99</v>
@@ -6350,7 +6327,7 @@
         <v>137</v>
       </c>
       <c r="L57" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M57" s="15">
         <v>0</v>
@@ -6359,7 +6336,9 @@
         <v>10</v>
       </c>
       <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
+      <c r="P57" s="15">
+        <v>3</v>
+      </c>
       <c r="Q57" s="18"/>
       <c r="R57" s="16">
         <v>99</v>
@@ -6408,7 +6387,7 @@
         <v>137</v>
       </c>
       <c r="L58" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" s="15">
         <v>0</v>
@@ -6417,7 +6396,9 @@
         <v>10</v>
       </c>
       <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
+      <c r="P58" s="15">
+        <v>3</v>
+      </c>
       <c r="Q58" s="18"/>
       <c r="R58" s="16">
         <v>99</v>
@@ -6466,7 +6447,7 @@
         <v>137</v>
       </c>
       <c r="L59" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M59" s="15">
         <v>0</v>
@@ -6475,7 +6456,9 @@
         <v>10</v>
       </c>
       <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
+      <c r="P59" s="15">
+        <v>3</v>
+      </c>
       <c r="Q59" s="18"/>
       <c r="R59" s="16">
         <v>99</v>
@@ -6524,7 +6507,7 @@
         <v>137</v>
       </c>
       <c r="L60" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" s="15">
         <v>0</v>
@@ -6533,7 +6516,9 @@
         <v>10</v>
       </c>
       <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
+      <c r="P60" s="15">
+        <v>3</v>
+      </c>
       <c r="Q60" s="18"/>
       <c r="R60" s="16">
         <v>99</v>
@@ -6582,7 +6567,7 @@
         <v>137</v>
       </c>
       <c r="L61" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M61" s="15">
         <v>0</v>
@@ -6591,7 +6576,9 @@
         <v>10</v>
       </c>
       <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
+      <c r="P61" s="15">
+        <v>3</v>
+      </c>
       <c r="Q61" s="18"/>
       <c r="R61" s="16">
         <v>99</v>
@@ -6640,7 +6627,7 @@
         <v>137</v>
       </c>
       <c r="L62" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" s="15">
         <v>0</v>
@@ -6649,7 +6636,9 @@
         <v>10</v>
       </c>
       <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
+      <c r="P62" s="15">
+        <v>3</v>
+      </c>
       <c r="Q62" s="18"/>
       <c r="R62" s="16">
         <v>99</v>
@@ -6698,7 +6687,7 @@
         <v>137</v>
       </c>
       <c r="L63" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M63" s="15">
         <v>0</v>
@@ -6707,7 +6696,9 @@
         <v>10</v>
       </c>
       <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
+      <c r="P63" s="15">
+        <v>3</v>
+      </c>
       <c r="Q63" s="18"/>
       <c r="R63" s="16">
         <v>99</v>
@@ -6756,7 +6747,7 @@
         <v>137</v>
       </c>
       <c r="L64" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M64" s="15">
         <v>0</v>
@@ -6765,7 +6756,9 @@
         <v>10</v>
       </c>
       <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
+      <c r="P64" s="15">
+        <v>3</v>
+      </c>
       <c r="Q64" s="18"/>
       <c r="R64" s="16">
         <v>99</v>
@@ -6814,7 +6807,7 @@
         <v>137</v>
       </c>
       <c r="L65" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M65" s="15">
         <v>0</v>
@@ -6823,7 +6816,9 @@
         <v>10</v>
       </c>
       <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
+      <c r="P65" s="15">
+        <v>3</v>
+      </c>
       <c r="Q65" s="18"/>
       <c r="R65" s="16">
         <v>99</v>
@@ -6872,7 +6867,7 @@
         <v>155</v>
       </c>
       <c r="L66" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M66" s="15">
         <v>0</v>
@@ -6881,7 +6876,9 @@
         <v>10</v>
       </c>
       <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
+      <c r="P66" s="15">
+        <v>3</v>
+      </c>
       <c r="Q66" s="18"/>
       <c r="R66" s="16">
         <v>99</v>
@@ -6930,7 +6927,7 @@
         <v>155</v>
       </c>
       <c r="L67" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M67" s="15">
         <v>0</v>
@@ -6939,7 +6936,9 @@
         <v>10</v>
       </c>
       <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
+      <c r="P67" s="15">
+        <v>3</v>
+      </c>
       <c r="Q67" s="18"/>
       <c r="R67" s="16">
         <v>99</v>
@@ -6988,7 +6987,7 @@
         <v>155</v>
       </c>
       <c r="L68" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M68" s="15">
         <v>0</v>
@@ -6997,7 +6996,9 @@
         <v>10</v>
       </c>
       <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
+      <c r="P68" s="15">
+        <v>3</v>
+      </c>
       <c r="Q68" s="18"/>
       <c r="R68" s="16">
         <v>99</v>
@@ -7046,7 +7047,7 @@
         <v>155</v>
       </c>
       <c r="L69" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M69" s="15">
         <v>0</v>
@@ -7055,7 +7056,9 @@
         <v>10</v>
       </c>
       <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
+      <c r="P69" s="15">
+        <v>3</v>
+      </c>
       <c r="Q69" s="18"/>
       <c r="R69" s="16">
         <v>99</v>
@@ -7104,7 +7107,7 @@
         <v>155</v>
       </c>
       <c r="L70" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" s="15">
         <v>0</v>
@@ -7113,7 +7116,9 @@
         <v>10</v>
       </c>
       <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
+      <c r="P70" s="15">
+        <v>3</v>
+      </c>
       <c r="Q70" s="18"/>
       <c r="R70" s="16">
         <v>99</v>
@@ -7162,7 +7167,7 @@
         <v>155</v>
       </c>
       <c r="L71" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" s="15">
         <v>0</v>
@@ -7171,7 +7176,9 @@
         <v>10</v>
       </c>
       <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
+      <c r="P71" s="15">
+        <v>3</v>
+      </c>
       <c r="Q71" s="18"/>
       <c r="R71" s="16">
         <v>99</v>
@@ -7220,7 +7227,7 @@
         <v>155</v>
       </c>
       <c r="L72" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72" s="15">
         <v>0</v>
@@ -7229,7 +7236,9 @@
         <v>10</v>
       </c>
       <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
+      <c r="P72" s="15">
+        <v>3</v>
+      </c>
       <c r="Q72" s="18"/>
       <c r="R72" s="16">
         <v>99</v>
@@ -7278,7 +7287,7 @@
         <v>155</v>
       </c>
       <c r="L73" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M73" s="15">
         <v>0</v>
@@ -7287,7 +7296,9 @@
         <v>10</v>
       </c>
       <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
+      <c r="P73" s="15">
+        <v>3</v>
+      </c>
       <c r="Q73" s="18"/>
       <c r="R73" s="16">
         <v>99</v>
@@ -7336,7 +7347,7 @@
         <v>155</v>
       </c>
       <c r="L74" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M74" s="15">
         <v>0</v>
@@ -7345,7 +7356,9 @@
         <v>10</v>
       </c>
       <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
+      <c r="P74" s="15">
+        <v>3</v>
+      </c>
       <c r="Q74" s="18"/>
       <c r="R74" s="16">
         <v>99</v>
@@ -7394,7 +7407,7 @@
         <v>155</v>
       </c>
       <c r="L75" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M75" s="15">
         <v>0</v>
@@ -7403,7 +7416,9 @@
         <v>10</v>
       </c>
       <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
+      <c r="P75" s="15">
+        <v>3</v>
+      </c>
       <c r="Q75" s="18"/>
       <c r="R75" s="16">
         <v>99</v>
@@ -7452,7 +7467,7 @@
         <v>155</v>
       </c>
       <c r="L76" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M76" s="15">
         <v>0</v>
@@ -7461,7 +7476,9 @@
         <v>10</v>
       </c>
       <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
+      <c r="P76" s="15">
+        <v>3</v>
+      </c>
       <c r="Q76" s="18"/>
       <c r="R76" s="16">
         <v>99</v>
@@ -7510,7 +7527,7 @@
         <v>155</v>
       </c>
       <c r="L77" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M77" s="15">
         <v>0</v>
@@ -7519,7 +7536,9 @@
         <v>10</v>
       </c>
       <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
+      <c r="P77" s="15">
+        <v>3</v>
+      </c>
       <c r="Q77" s="18"/>
       <c r="R77" s="16">
         <v>99</v>
@@ -7568,7 +7587,7 @@
         <v>155</v>
       </c>
       <c r="L78" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M78" s="15">
         <v>0</v>
@@ -7577,7 +7596,9 @@
         <v>10</v>
       </c>
       <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
+      <c r="P78" s="15">
+        <v>3</v>
+      </c>
       <c r="Q78" s="18"/>
       <c r="R78" s="16">
         <v>99</v>
@@ -7626,7 +7647,7 @@
         <v>155</v>
       </c>
       <c r="L79" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M79" s="15">
         <v>0</v>
@@ -7635,7 +7656,9 @@
         <v>10</v>
       </c>
       <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
+      <c r="P79" s="15">
+        <v>3</v>
+      </c>
       <c r="Q79" s="18"/>
       <c r="R79" s="16">
         <v>99</v>
@@ -7684,7 +7707,7 @@
         <v>155</v>
       </c>
       <c r="L80" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M80" s="15">
         <v>0</v>
@@ -7693,7 +7716,9 @@
         <v>10</v>
       </c>
       <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
+      <c r="P80" s="15">
+        <v>3</v>
+      </c>
       <c r="Q80" s="18"/>
       <c r="R80" s="16">
         <v>99</v>
@@ -7742,7 +7767,7 @@
         <v>155</v>
       </c>
       <c r="L81" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M81" s="15">
         <v>0</v>
@@ -7751,7 +7776,9 @@
         <v>10</v>
       </c>
       <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
+      <c r="P81" s="15">
+        <v>3</v>
+      </c>
       <c r="Q81" s="18"/>
       <c r="R81" s="16">
         <v>99</v>
@@ -7800,7 +7827,7 @@
         <v>155</v>
       </c>
       <c r="L82" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M82" s="15">
         <v>0</v>
@@ -7809,7 +7836,9 @@
         <v>10</v>
       </c>
       <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
+      <c r="P82" s="15">
+        <v>3</v>
+      </c>
       <c r="Q82" s="18"/>
       <c r="R82" s="16">
         <v>99</v>
@@ -7858,7 +7887,7 @@
         <v>101</v>
       </c>
       <c r="L83" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M83" s="15">
         <v>0</v>
@@ -7867,7 +7896,9 @@
         <v>10</v>
       </c>
       <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
+      <c r="P83" s="15">
+        <v>3</v>
+      </c>
       <c r="Q83" s="18"/>
       <c r="R83" s="16">
         <v>99</v>
@@ -7916,7 +7947,7 @@
         <v>119</v>
       </c>
       <c r="L84" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M84" s="15">
         <v>0</v>
@@ -7925,7 +7956,9 @@
         <v>10</v>
       </c>
       <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
+      <c r="P84" s="15">
+        <v>3</v>
+      </c>
       <c r="Q84" s="18"/>
       <c r="R84" s="16">
         <v>99</v>
@@ -7974,7 +8007,7 @@
         <v>137</v>
       </c>
       <c r="L85" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M85" s="15">
         <v>0</v>
@@ -7983,7 +8016,9 @@
         <v>10</v>
       </c>
       <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
+      <c r="P85" s="15">
+        <v>3</v>
+      </c>
       <c r="Q85" s="18"/>
       <c r="R85" s="16">
         <v>99</v>
@@ -8032,7 +8067,7 @@
         <v>155</v>
       </c>
       <c r="L86" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M86" s="15">
         <v>0</v>
@@ -8041,7 +8076,9 @@
         <v>10</v>
       </c>
       <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
+      <c r="P86" s="15">
+        <v>3</v>
+      </c>
       <c r="Q86" s="18"/>
       <c r="R86" s="16">
         <v>99</v>
@@ -8090,7 +8127,7 @@
         <v>119</v>
       </c>
       <c r="L87" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M87" s="15">
         <v>0</v>
@@ -8099,7 +8136,9 @@
         <v>10</v>
       </c>
       <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
+      <c r="P87" s="15">
+        <v>3</v>
+      </c>
       <c r="Q87" s="18"/>
       <c r="R87" s="16">
         <v>99</v>
@@ -8148,7 +8187,7 @@
         <v>137</v>
       </c>
       <c r="L88" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M88" s="15">
         <v>0</v>
@@ -8157,7 +8196,9 @@
         <v>10</v>
       </c>
       <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
+      <c r="P88" s="15">
+        <v>3</v>
+      </c>
       <c r="Q88" s="18"/>
       <c r="R88" s="16">
         <v>99</v>
@@ -8184,7 +8225,7 @@
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E89" s="16">
         <v>1285</v>
@@ -8206,7 +8247,7 @@
         <v>155</v>
       </c>
       <c r="L89" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M89" s="15">
         <v>0</v>
@@ -8215,7 +8256,9 @@
         <v>10</v>
       </c>
       <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
+      <c r="P89" s="15">
+        <v>3</v>
+      </c>
       <c r="Q89" s="18"/>
       <c r="R89" s="16">
         <v>99</v>
@@ -8242,7 +8285,7 @@
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="14" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="E90" s="16">
         <v>1005</v>
@@ -8251,7 +8294,7 @@
         <v>10000</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H90" s="16">
         <v>1</v>
@@ -8260,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L90" s="18">
         <v>2</v>
@@ -8275,7 +8318,9 @@
         <v>10</v>
       </c>
       <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
+      <c r="P90" s="15">
+        <v>2</v>
+      </c>
       <c r="Q90" s="18"/>
       <c r="R90" s="16">
         <v>1</v>
@@ -8298,11 +8343,11 @@
         <v>89</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="14" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="E91" s="16">
         <v>1005</v>
@@ -8311,7 +8356,7 @@
         <v>20000</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H91" s="16">
         <v>2</v>
@@ -8320,10 +8365,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K91" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L91" s="18">
         <v>3</v>
@@ -8335,7 +8380,9 @@
         <v>10</v>
       </c>
       <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
+      <c r="P91" s="15">
+        <v>2</v>
+      </c>
       <c r="Q91" s="18"/>
       <c r="R91" s="16">
         <v>1</v>
@@ -8358,11 +8405,11 @@
         <v>90</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="14" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="E92" s="25">
         <v>1005</v>
@@ -8371,7 +8418,7 @@
         <v>30000</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H92" s="25">
         <v>2</v>
@@ -8380,10 +8427,10 @@
         <v>0</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L92" s="26">
         <v>4</v>
@@ -8395,7 +8442,9 @@
         <v>10</v>
       </c>
       <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
+      <c r="P92" s="15">
+        <v>2</v>
+      </c>
       <c r="Q92" s="26"/>
       <c r="R92" s="25">
         <v>1</v>

--- a/excels/config/server/shop/server_shop_list.xlsx
+++ b/excels/config/server/shop/server_shop_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_shop_class" sheetId="3" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <t>item_store/默认商品图标1</t>
   </si>
   <si>
-    <t>1001_9800,1201_10</t>
+    <t>1001_9800,1207_10</t>
   </si>
   <si>
     <t>rmb_98</t>
@@ -629,7 +629,7 @@
     <t>每日终身卡礼包</t>
   </si>
   <si>
-    <t>1003_3000,1201_1</t>
+    <t>1003_3000,1207_1</t>
   </si>
 </sst>
 </file>
@@ -2387,16 +2387,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9598BFCE-FE8E-4100-BD64-C0BAD9A5EFF1}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{FA587210-8BAA-421E-94A2-046DDACFBDEC}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4774615A-73C3-4CBB-AA31-24F9AD335408}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{83415614-348B-4C88-A0BC-465E9B2BECB2}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{74CD9D9F-2E57-4475-88C1-E08E1F194349}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{6F3F0C49-E519-4881-B9D9-CE59E537D627}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2410,7 +2410,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="7"/>
       <tableStyleElement type="lastTotalCell" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BD88162D-60AC-404B-85B5-EC85E487D6A3}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BE2FB062-D856-4AE5-93B8-91EF9F8658BF}">
       <tableStyleElement type="wholeTable" dxfId="27"/>
       <tableStyleElement type="headerRow" dxfId="26"/>
       <tableStyleElement type="totalRow" dxfId="25"/>
@@ -2856,11 +2856,11 @@
   <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L87" sqref="L87"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3348,7 +3348,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="18">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="F8" s="16">
         <v>200</v>
@@ -3602,7 +3602,7 @@
         <v>64</v>
       </c>
       <c r="E12" s="18">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="F12" s="16">
         <v>10</v>
@@ -3664,7 +3664,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="18">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>

--- a/excels/config/server/shop/server_shop_list.xlsx
+++ b/excels/config/server/shop/server_shop_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_shop_class" sheetId="3" r:id="rId1"/>
@@ -2387,16 +2387,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{FA587210-8BAA-421E-94A2-046DDACFBDEC}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7D119599-0946-4063-AB8A-12825A428292}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{83415614-348B-4C88-A0BC-465E9B2BECB2}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FD8E4EEE-1A72-438A-873C-4B010ECB6028}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{6F3F0C49-E519-4881-B9D9-CE59E537D627}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{784037ED-F9F5-4178-808A-56E12E6D822F}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2410,7 +2410,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="7"/>
       <tableStyleElement type="lastTotalCell" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BE2FB062-D856-4AE5-93B8-91EF9F8658BF}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B717B9E8-F436-48CD-8EAF-5E0CB8AC2762}">
       <tableStyleElement type="wholeTable" dxfId="27"/>
       <tableStyleElement type="headerRow" dxfId="26"/>
       <tableStyleElement type="totalRow" dxfId="25"/>
@@ -2856,11 +2856,11 @@
   <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3788,7 +3788,7 @@
         <v>73</v>
       </c>
       <c r="E15" s="16">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -3848,7 +3848,7 @@
         <v>73</v>
       </c>
       <c r="E16" s="16">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -3908,7 +3908,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="16">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>73</v>
       </c>
       <c r="E18" s="16">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
@@ -4028,7 +4028,7 @@
         <v>73</v>
       </c>
       <c r="E19" s="16">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="F19" s="16">
         <v>1</v>
@@ -4088,7 +4088,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="16">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="F20" s="16">
         <v>1</v>
@@ -4148,7 +4148,7 @@
         <v>73</v>
       </c>
       <c r="E21" s="16">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="F21" s="16">
         <v>1</v>
@@ -4208,7 +4208,7 @@
         <v>73</v>
       </c>
       <c r="E22" s="16">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
@@ -4268,7 +4268,7 @@
         <v>73</v>
       </c>
       <c r="E23" s="16">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="F23" s="16">
         <v>1</v>
@@ -4328,7 +4328,7 @@
         <v>73</v>
       </c>
       <c r="E24" s="16">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="F24" s="16">
         <v>1</v>
@@ -4388,7 +4388,7 @@
         <v>73</v>
       </c>
       <c r="E25" s="16">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -4448,7 +4448,7 @@
         <v>73</v>
       </c>
       <c r="E26" s="16">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
@@ -4508,7 +4508,7 @@
         <v>73</v>
       </c>
       <c r="E27" s="16">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="F27" s="16">
         <v>1</v>
@@ -4568,7 +4568,7 @@
         <v>73</v>
       </c>
       <c r="E28" s="16">
-        <v>10013</v>
+        <v>10014</v>
       </c>
       <c r="F28" s="16">
         <v>1</v>
@@ -4628,7 +4628,7 @@
         <v>73</v>
       </c>
       <c r="E29" s="16">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="F29" s="16">
         <v>1</v>
@@ -4688,7 +4688,7 @@
         <v>73</v>
       </c>
       <c r="E30" s="16">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="F30" s="16">
         <v>1</v>
@@ -4747,8 +4747,8 @@
       <c r="D31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="18">
-        <v>10017</v>
+      <c r="E31" s="16">
+        <v>10018</v>
       </c>
       <c r="F31" s="16">
         <v>1</v>

--- a/excels/config/server/shop/server_shop_list.xlsx
+++ b/excels/config/server/shop/server_shop_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_shop_class" sheetId="3" r:id="rId1"/>
@@ -2856,11 +2856,11 @@
   <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/server/shop/server_shop_list.xlsx
+++ b/excels/config/server/shop/server_shop_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="13395" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_shop_class" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="188">
   <si>
     <t>分类id</t>
   </si>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t>1003_3000,1207_1</t>
+  </si>
+  <si>
+    <t>每日双卡礼包</t>
   </si>
 </sst>
 </file>
@@ -2387,16 +2390,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7D119599-0946-4063-AB8A-12825A428292}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C52B8D4F-AAE5-454F-9206-2B5DE5F281E0}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FD8E4EEE-1A72-438A-873C-4B010ECB6028}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DCBA3C2F-9FFB-47C3-8C15-F4F0BED55E2A}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{784037ED-F9F5-4178-808A-56E12E6D822F}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{0223B61F-60B5-40FB-9B20-843B29592571}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2410,7 +2413,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="7"/>
       <tableStyleElement type="lastTotalCell" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B717B9E8-F436-48CD-8EAF-5E0CB8AC2762}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{02A31A1A-ABE1-4D1B-8298-B16627DFF657}">
       <tableStyleElement type="wholeTable" dxfId="27"/>
       <tableStyleElement type="headerRow" dxfId="26"/>
       <tableStyleElement type="totalRow" dxfId="25"/>
@@ -2853,14 +2856,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8462,17 +8465,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="93" ht="16.5" spans="1:22">
+      <c r="A93" s="11">
+        <v>91</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="25">
+        <v>1005</v>
+      </c>
+      <c r="F93" s="25">
+        <v>1</v>
+      </c>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25">
+        <v>2</v>
+      </c>
+      <c r="I93" s="25">
+        <v>0</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="K93" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L93" s="26">
+        <v>5</v>
+      </c>
+      <c r="M93" s="15">
+        <v>0</v>
+      </c>
+      <c r="N93" s="15">
+        <v>10</v>
+      </c>
+      <c r="O93" s="26"/>
+      <c r="P93" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="25">
+        <v>1</v>
+      </c>
+      <c r="S93" s="25">
+        <v>1</v>
+      </c>
+      <c r="T93" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U93" s="12">
+        <v>0</v>
+      </c>
+      <c r="V93" s="21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V92" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="T2:U2">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"弃用"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8483,8 +8546,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G1048576">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="G93">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G92">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94:G1048576">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/excels/config/server/shop/server_shop_list.xlsx
+++ b/excels/config/server/shop/server_shop_list.xlsx
@@ -195,7 +195,7 @@
     <t>mall_category</t>
   </si>
   <si>
-    <t>fliter</t>
+    <t>filter</t>
   </si>
   <si>
     <t>purchase_single</t>
@@ -2958,16 +2958,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3A2CD9B5-3107-435E-A1AF-9A2DC05BFB50}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F72AA99D-3B2B-44C4-ABC7-413EC57ABE34}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{18E8DEDF-2D9A-4F6F-88BA-48FCB5CB21A4}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0C8C40B8-7192-4D20-981E-1A842B26AC65}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{A8EA3F80-59FE-4B42-8FC4-2B7F8CA06C3B}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{5E44F6AE-C603-4F70-A103-DD21FFE2FEA2}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2981,7 +2981,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="7"/>
       <tableStyleElement type="lastTotalCell" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{7B8F6D41-8A2A-4B3D-B13E-97CA8AC8DCA8}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3028F44C-5DBA-454F-A99D-2666EDCBB7F3}">
       <tableStyleElement type="wholeTable" dxfId="27"/>
       <tableStyleElement type="headerRow" dxfId="26"/>
       <tableStyleElement type="totalRow" dxfId="25"/>
@@ -3428,11 +3428,11 @@
   <dimension ref="A1:W455"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K81" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D171" sqref="D171"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/server/shop/server_shop_list.xlsx
+++ b/excels/config/server/shop/server_shop_list.xlsx
@@ -3010,16 +3010,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BBDEA100-749E-45EB-AD83-75CA3D897440}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2B636A91-C071-45E7-AE41-B2A6C2058505}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9FD5489B-F064-46F6-9DB4-E5D1F1A1EAAC}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A57EEA45-5D82-4D50-AC5E-EFEA8C41C335}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{3C05C0EF-E5FB-4464-B4F6-63162982B78C}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{15914452-DF8B-4748-9F32-225217823603}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -3033,7 +3033,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="7"/>
       <tableStyleElement type="lastTotalCell" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F16157A7-DF86-434B-87FE-9DEABC2BF00B}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{32E30675-5878-4601-AE60-DC38DE7ABCF0}">
       <tableStyleElement type="wholeTable" dxfId="27"/>
       <tableStyleElement type="headerRow" dxfId="26"/>
       <tableStyleElement type="totalRow" dxfId="25"/>
@@ -3480,11 +3480,11 @@
   <dimension ref="A1:W388"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4323,7 +4323,7 @@
         <v>98</v>
       </c>
       <c r="L13" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>104</v>
       </c>
       <c r="L16" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>107</v>
       </c>
       <c r="L17" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>110</v>
       </c>
       <c r="L18" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>113</v>
       </c>
       <c r="L19" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>135</v>
       </c>
       <c r="L27" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="15">
         <v>0</v>
@@ -5278,7 +5278,7 @@
         <v>135</v>
       </c>
       <c r="L28" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="15">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>135</v>
       </c>
       <c r="L29" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" s="15">
         <v>0</v>
@@ -5408,7 +5408,7 @@
         <v>135</v>
       </c>
       <c r="L30" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="15">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>135</v>
       </c>
       <c r="L31" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" s="15">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>135</v>
       </c>
       <c r="L32" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="15">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>135</v>
       </c>
       <c r="L33" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" s="15">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>135</v>
       </c>
       <c r="L34" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="15">
         <v>0</v>
@@ -5733,7 +5733,7 @@
         <v>135</v>
       </c>
       <c r="L35" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" s="15">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>135</v>
       </c>
       <c r="L36" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="15">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>135</v>
       </c>
       <c r="L37" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="15">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>135</v>
       </c>
       <c r="L38" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" s="15">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>135</v>
       </c>
       <c r="L39" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="15">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>135</v>
       </c>
       <c r="L40" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="15">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>135</v>
       </c>
       <c r="L41" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="15">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>135</v>
       </c>
       <c r="L42" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" s="15">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>152</v>
       </c>
       <c r="L43" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" s="15">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>152</v>
       </c>
       <c r="L44" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" s="15">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>152</v>
       </c>
       <c r="L45" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45" s="15">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>152</v>
       </c>
       <c r="L46" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M46" s="15">
         <v>0</v>
@@ -6513,7 +6513,7 @@
         <v>152</v>
       </c>
       <c r="L47" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47" s="15">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>152</v>
       </c>
       <c r="L48" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48" s="15">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>152</v>
       </c>
       <c r="L49" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M49" s="15">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>152</v>
       </c>
       <c r="L50" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M50" s="15">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>152</v>
       </c>
       <c r="L51" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M51" s="15">
         <v>0</v>
@@ -6838,7 +6838,7 @@
         <v>152</v>
       </c>
       <c r="L52" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M52" s="15">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>152</v>
       </c>
       <c r="L53" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M53" s="15">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>152</v>
       </c>
       <c r="L54" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M54" s="15">
         <v>0</v>
@@ -7033,7 +7033,7 @@
         <v>152</v>
       </c>
       <c r="L55" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M55" s="15">
         <v>0</v>
@@ -7098,7 +7098,7 @@
         <v>152</v>
       </c>
       <c r="L56" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M56" s="15">
         <v>0</v>
@@ -7163,7 +7163,7 @@
         <v>152</v>
       </c>
       <c r="L57" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M57" s="15">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>152</v>
       </c>
       <c r="L58" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58" s="15">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>152</v>
       </c>
       <c r="L59" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M59" s="15">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>152</v>
       </c>
       <c r="L60" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M60" s="15">
         <v>0</v>
@@ -7423,7 +7423,7 @@
         <v>171</v>
       </c>
       <c r="L61" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M61" s="15">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>171</v>
       </c>
       <c r="L62" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" s="15">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>171</v>
       </c>
       <c r="L63" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M63" s="15">
         <v>0</v>
@@ -7618,7 +7618,7 @@
         <v>171</v>
       </c>
       <c r="L64" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M64" s="15">
         <v>0</v>
@@ -7683,7 +7683,7 @@
         <v>171</v>
       </c>
       <c r="L65" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M65" s="15">
         <v>0</v>
@@ -7748,7 +7748,7 @@
         <v>171</v>
       </c>
       <c r="L66" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M66" s="15">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>171</v>
       </c>
       <c r="L67" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M67" s="15">
         <v>0</v>
@@ -7878,7 +7878,7 @@
         <v>171</v>
       </c>
       <c r="L68" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M68" s="15">
         <v>0</v>
@@ -7943,7 +7943,7 @@
         <v>171</v>
       </c>
       <c r="L69" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69" s="15">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>171</v>
       </c>
       <c r="L70" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70" s="15">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>171</v>
       </c>
       <c r="L71" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M71" s="15">
         <v>0</v>
@@ -8138,7 +8138,7 @@
         <v>171</v>
       </c>
       <c r="L72" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M72" s="15">
         <v>0</v>
@@ -8203,7 +8203,7 @@
         <v>171</v>
       </c>
       <c r="L73" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M73" s="15">
         <v>0</v>
@@ -8268,7 +8268,7 @@
         <v>171</v>
       </c>
       <c r="L74" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" s="15">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>171</v>
       </c>
       <c r="L75" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M75" s="15">
         <v>0</v>
@@ -8398,7 +8398,7 @@
         <v>171</v>
       </c>
       <c r="L76" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M76" s="15">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>171</v>
       </c>
       <c r="L77" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M77" s="15">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>189</v>
       </c>
       <c r="L78" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M78" s="15">
         <v>0</v>
@@ -8593,7 +8593,7 @@
         <v>189</v>
       </c>
       <c r="L79" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M79" s="15">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>189</v>
       </c>
       <c r="L80" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M80" s="15">
         <v>0</v>
@@ -8723,7 +8723,7 @@
         <v>189</v>
       </c>
       <c r="L81" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M81" s="15">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>189</v>
       </c>
       <c r="L82" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M82" s="15">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>189</v>
       </c>
       <c r="L83" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M83" s="15">
         <v>0</v>
@@ -8918,7 +8918,7 @@
         <v>189</v>
       </c>
       <c r="L84" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M84" s="15">
         <v>0</v>
@@ -8983,7 +8983,7 @@
         <v>189</v>
       </c>
       <c r="L85" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M85" s="15">
         <v>0</v>
@@ -9048,7 +9048,7 @@
         <v>189</v>
       </c>
       <c r="L86" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M86" s="15">
         <v>0</v>
@@ -9113,7 +9113,7 @@
         <v>189</v>
       </c>
       <c r="L87" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M87" s="15">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>189</v>
       </c>
       <c r="L88" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M88" s="15">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>189</v>
       </c>
       <c r="L89" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M89" s="15">
         <v>0</v>
@@ -9308,7 +9308,7 @@
         <v>189</v>
       </c>
       <c r="L90" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M90" s="15">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>189</v>
       </c>
       <c r="L91" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M91" s="15">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>189</v>
       </c>
       <c r="L92" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M92" s="15">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>189</v>
       </c>
       <c r="L93" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M93" s="15">
         <v>0</v>
@@ -9568,7 +9568,7 @@
         <v>189</v>
       </c>
       <c r="L94" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M94" s="15">
         <v>0</v>
